--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E78B82D-785D-5542-B4F7-CE4EEB811B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DAA6E0-CE7B-F743-924B-4A205B296504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6600" yWindow="-25260" windowWidth="31300" windowHeight="19020" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="2760" yWindow="-25280" windowWidth="31300" windowHeight="19020" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -2737,7 +2737,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DAA6E0-CE7B-F743-924B-4A205B296504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5342022F-EE5D-6F4A-BB73-41CDCBE6E2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="-25280" windowWidth="31300" windowHeight="19020" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="9580" yWindow="-20180" windowWidth="31300" windowHeight="19020" activeTab="4" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -505,94 +505,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Serratia_marcescen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>17-147-1671 plasmid_3 occurred in two different variants: a 17406 bp variant and a 18733 bp variant, both of which were present in both runs. The longer variant contained an additional copy of IS</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4321</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. While they were included separately in the assembly file (as plasmid_3_v1 and plasmid_3_v2), their depths were summed together for this table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Haemophilus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MSB1_2C plasmid_3 and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Klebsiella oxytoca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MSB1_2C plasmid_3 had identical sequences and it was therefore impossible to tell whether a read originated from one or the other. Read depths are therefore not available for these plasmids.</t>
-    </r>
-  </si>
-  <si>
     <t>Yield after 12 hours (bp)</t>
   </si>
   <si>
@@ -718,6 +630,136 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> worksheet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Serratia marcescens </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17-147-1671 plasmid_3 occurred in two different variants: a 17406 bp variant and a 18733 bp variant, both of which were present in both runs. The longer variant contained an additional copy of IS</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4321</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. While they were included separately in the assembly file (as plasmid_3_v1 and plasmid_3_v2), their depths were summed together for this table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haemophilus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MSB1_2C plasmid_3 and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Klebsiella oxytoca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MSB1_2C plasmid_3 had identical sequences and it was therefore impossible to tell whether a read originated from one or the other. Read depths are therefore not available for these plasmids. I suspect that the plasmid truly belongs to the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haemophilus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MSB1_2C genome and appeared in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Klebsiella oxytoca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MSB1_2C genome due to cross-barcode contamination.</t>
     </r>
   </si>
 </sst>
@@ -1544,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0DFF7C-C846-D14B-915D-C0573D580EBA}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1558,12 +1600,12 @@
     </row>
     <row r="3" spans="1:1" ht="110" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="134" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1597,16 +1639,16 @@
         <v>37</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="137" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" s="75"/>
       <c r="H1" s="76" t="s">
@@ -1640,7 +1682,7 @@
         <v>4850016274</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="138">
         <v>71.976050000000001</v>
@@ -1680,7 +1722,7 @@
         <v>4710579925</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="139">
         <v>23.398420000000002</v>
@@ -1720,7 +1762,7 @@
         <v>2511583902</v>
       </c>
       <c r="D4" s="135" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="140">
         <v>71.974819999999994</v>
@@ -1760,7 +1802,7 @@
         <v>6016454988</v>
       </c>
       <c r="D5" s="136" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="141">
         <v>20.429400000000001</v>
@@ -1864,13 +1906,13 @@
       </c>
       <c r="L1" s="29"/>
       <c r="M1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>73</v>
-      </c>
       <c r="O1" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P1" s="27"/>
       <c r="Q1" s="29" t="s">
@@ -1894,13 +1936,13 @@
       </c>
       <c r="X1" s="29"/>
       <c r="Y1" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z1" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -2737,7 +2779,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="A8:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5906,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A101B099-DDED-4845-A32C-10E60988ADF6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5924,12 +5966,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="108">
         <v>1</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -5953,7 +5995,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5342022F-EE5D-6F4A-BB73-41CDCBE6E2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F6949-DBDC-8D47-8B92-838C3CA7BFB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="-20180" windowWidth="31300" windowHeight="19020" activeTab="4" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="4640" yWindow="-27080" windowWidth="35520" windowHeight="25160" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="79">
   <si>
     <t>Genome</t>
   </si>
@@ -539,98 +539,6 @@
   </si>
   <si>
     <t>Illumina (run 2) read bases</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Per-barcode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worksheet contains per-barcode read stats for the sequencing runs. ONT sequence runs were dedicated to this study, so all barcodes are shown, including unused and unclassified. Illumina sequencing runs were shared with other studies and thus only the relevant barcodes are shown. ONT demultiplexing was performed by Guppy when basecalling.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Per-replicon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worksheet contains depth values for each replicon in the genomes, as determined by the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>get_depths.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> script. For each genome and read set, depths were normalised to the chromosomal depth, and the resulting 'normalised to chromosome' columns were the ones used to generate Figure 2. Some of the replicons were excluded for reasons described in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worksheet.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -760,6 +668,104 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> MSB1_2C genome due to cross-barcode contamination.</t>
+    </r>
+  </si>
+  <si>
+    <t>Illumina (run 1) mean insert size</t>
+  </si>
+  <si>
+    <t>Illumina (run 2) mean insert size</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Per-barcode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet contains per-barcode read stats for the sequencing runs. ONT sequence runs were dedicated to this study, so all barcodes are shown, including unused and unclassified. ONT demultiplexing was performed by Guppy when basecalling. Illumina sequencing runs were shared with other studies and thus only the relevant barcodes are shown.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Per-replicon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet contains depth values for each replicon in the genomes, as determined by the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>get_depths.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> script. For each genome and read set, depths were normalised to the chromosomal depth, and the resulting 'normalised to chromosome' columns were the ones used to generate Figure 2 in the manuscript. Some replicons have associated notes in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet, e.g. a reason for exclusion.</t>
     </r>
   </si>
 </sst>
@@ -851,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -928,11 +934,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -952,9 +1094,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1046,9 +1185,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,19 +1315,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,6 +1347,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,26 +1786,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0DFF7C-C846-D14B-915D-C0573D580EBA}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.1640625" style="91" customWidth="1"/>
+    <col min="1" max="1" width="86.1640625" style="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="88" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="88" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="110" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>73</v>
+      <c r="A3" s="88" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="134" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
-        <v>74</v>
+      <c r="A5" s="88" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1623,211 +1823,211 @@
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="142" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="137" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="74" customWidth="1"/>
-    <col min="8" max="10" width="11.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" style="31" customWidth="1"/>
-    <col min="12" max="14" width="13.1640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="72" customWidth="1"/>
+    <col min="8" max="10" width="11.6640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" style="30" customWidth="1"/>
+    <col min="12" max="14" width="13.1640625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="30" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="74" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="91">
         <v>15216230865</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="91">
         <v>4850016274</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="138">
+      <c r="E2" s="133">
         <v>71.976050000000001</v>
       </c>
-      <c r="F2" s="93">
+      <c r="F2" s="91">
         <v>8161</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95">
+      <c r="G2" s="92"/>
+      <c r="H2" s="93">
         <v>4.4734140000000002E-3</v>
       </c>
-      <c r="I2" s="95">
+      <c r="I2" s="93">
         <v>9.7303830000000004E-3</v>
       </c>
-      <c r="J2" s="95">
+      <c r="J2" s="93">
         <v>1.4080479999999999E-2</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95">
+      <c r="K2" s="93"/>
+      <c r="L2" s="93">
         <v>6.6381580000000004E-6</v>
       </c>
-      <c r="M2" s="95">
+      <c r="M2" s="93">
         <v>2.2154E-2</v>
       </c>
-      <c r="N2" s="95">
+      <c r="N2" s="93">
         <v>2.2160639999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="99">
         <v>8029266526</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="99">
         <v>4710579925</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="139">
+      <c r="E3" s="134">
         <v>23.398420000000002</v>
       </c>
-      <c r="F3" s="101">
+      <c r="F3" s="99">
         <v>20880</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103">
+      <c r="G3" s="100"/>
+      <c r="H3" s="101">
         <v>6.1047330000000002E-3</v>
       </c>
-      <c r="I3" s="103">
+      <c r="I3" s="101">
         <v>2.8815329999999999E-3</v>
       </c>
-      <c r="J3" s="103">
+      <c r="J3" s="101">
         <v>8.7639769999999992E-3</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103">
+      <c r="K3" s="101"/>
+      <c r="L3" s="101">
         <v>6.252016E-6</v>
       </c>
-      <c r="M3" s="103">
+      <c r="M3" s="101">
         <v>2.9251929999999999E-2</v>
       </c>
-      <c r="N3" s="103">
+      <c r="N3" s="101">
         <v>2.925819E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="95">
         <v>4323314688</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="95">
         <v>2511583902</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="140">
+      <c r="E4" s="135">
         <v>71.974819999999994</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="95">
         <v>11874</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99">
+      <c r="G4" s="96"/>
+      <c r="H4" s="97">
         <v>1.5235920000000001E-4</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="97">
         <v>2.3052620000000001E-4</v>
       </c>
-      <c r="J4" s="99">
+      <c r="J4" s="97">
         <v>3.4446439999999997E-4</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99">
+      <c r="K4" s="97"/>
+      <c r="L4" s="97">
         <v>5.6571279999999995E-4</v>
       </c>
-      <c r="M4" s="99">
+      <c r="M4" s="97">
         <v>3.3300320000000001E-3</v>
       </c>
-      <c r="N4" s="99">
+      <c r="N4" s="97">
         <v>3.8957449999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="103">
         <v>9594730471</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="103">
         <v>6016454988</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="141">
+      <c r="E5" s="136">
         <v>20.429400000000001</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="103">
         <v>12672</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107">
+      <c r="G5" s="104"/>
+      <c r="H5" s="105">
         <v>2.6588410000000001E-4</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="105">
         <v>1.1255519999999999E-3</v>
       </c>
-      <c r="J5" s="107">
+      <c r="J5" s="105">
         <v>1.3550820000000001E-3</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107">
+      <c r="K5" s="105"/>
+      <c r="L5" s="105">
         <v>5.8573369999999998E-4</v>
       </c>
-      <c r="M5" s="107">
+      <c r="M5" s="105">
         <v>3.8229289999999999E-2</v>
       </c>
-      <c r="N5" s="107">
+      <c r="N5" s="105">
         <v>3.881503E-2</v>
       </c>
     </row>
@@ -1839,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45BD62-7DEE-0740-97DB-27A0DE7F03FC}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1848,925 +2048,986 @@
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" customWidth="1"/>
-    <col min="20" max="20" width="5" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="9.1640625" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" customWidth="1"/>
+    <col min="21" max="21" width="1.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" customWidth="1"/>
+    <col min="25" max="25" width="1.6640625" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="16" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="101" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="165"/>
+      <c r="E1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="166"/>
+      <c r="I1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29" t="s">
+      <c r="L1" s="166"/>
+      <c r="M1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="166"/>
+      <c r="V1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="W1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="X1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="AA1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AB1" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="AC1" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>3949783</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="19">
+      <c r="C2" s="156">
+        <v>1</v>
+      </c>
+      <c r="D2" s="153"/>
+      <c r="E2" s="138">
         <v>8352</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>95624615</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="145">
         <v>22453</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="17">
+      <c r="H2" s="163"/>
+      <c r="I2" s="140">
         <v>535717</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="57">
         <v>2851578003</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="147">
         <v>14690</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="17">
+      <c r="L2" s="163"/>
+      <c r="M2" s="140">
         <v>6230452</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="57">
         <v>909812368</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="57">
         <v>149</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="147">
+        <v>341</v>
+      </c>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="138">
         <v>101526</v>
       </c>
-      <c r="R2" s="19">
+      <c r="S2" s="18">
         <v>780286224</v>
       </c>
-      <c r="S2" s="19">
+      <c r="T2" s="145">
         <v>14351</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="17">
+      <c r="U2" s="163"/>
+      <c r="V2" s="140">
         <v>85484</v>
       </c>
-      <c r="V2" s="17">
+      <c r="W2" s="57">
         <v>1070356827</v>
       </c>
-      <c r="W2" s="17">
+      <c r="X2" s="147">
         <v>21638</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="17">
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="140">
         <v>2567726</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="AA2" s="57">
         <v>374270613</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AB2" s="18">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="AC2" s="147">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>4833164</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="157">
         <v>2</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="26">
+      <c r="D3" s="153"/>
+      <c r="E3" s="139">
         <v>47955</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>468628329</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="146">
         <v>18383</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26">
+      <c r="H3" s="163"/>
+      <c r="I3" s="139">
         <v>293209</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>1633498830</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="146">
         <v>14317</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26">
+      <c r="L3" s="163"/>
+      <c r="M3" s="139">
         <v>4568600</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <v>665796833</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <v>149</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="26">
+      <c r="P3" s="146">
+        <v>374</v>
+      </c>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="139">
         <v>213402</v>
       </c>
-      <c r="R3" s="26">
+      <c r="S3" s="25">
         <v>1666038163</v>
       </c>
-      <c r="S3" s="26">
+      <c r="T3" s="146">
         <v>14142</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26">
+      <c r="U3" s="163"/>
+      <c r="V3" s="139">
         <v>139899</v>
       </c>
-      <c r="V3" s="26">
+      <c r="W3" s="25">
         <v>1009600962</v>
       </c>
-      <c r="W3" s="26">
+      <c r="X3" s="146">
         <v>18781</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26">
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="139">
         <v>3197176</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="AA3" s="25">
         <v>465696973</v>
       </c>
-      <c r="AA3" s="26">
+      <c r="AB3" s="25">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="AC3" s="146">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>5093568</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="158">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17">
+      <c r="D4" s="153"/>
+      <c r="E4" s="140">
         <v>19042</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="57">
         <v>146423382</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="147">
         <v>17307</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17">
+      <c r="H4" s="163"/>
+      <c r="I4" s="140">
         <v>206192</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="57">
         <v>931913873</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="147">
         <v>13822</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17">
+      <c r="L4" s="163"/>
+      <c r="M4" s="140">
         <v>4093734</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="57">
         <v>597763512</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="57">
         <v>149</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="147">
+        <v>384</v>
+      </c>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="140">
         <v>128031</v>
       </c>
-      <c r="R4" s="17">
+      <c r="S4" s="57">
         <v>987293009</v>
       </c>
-      <c r="S4" s="17">
+      <c r="T4" s="147">
         <v>15407</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17">
+      <c r="U4" s="163"/>
+      <c r="V4" s="140">
         <v>45191</v>
       </c>
-      <c r="V4" s="17">
+      <c r="W4" s="57">
         <v>625579715</v>
       </c>
-      <c r="W4" s="17">
+      <c r="X4" s="147">
         <v>21856</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="140">
         <v>3204176</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="AA4" s="57">
         <v>468643117</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AB4" s="57">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="AC4" s="147">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>2125041</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="157">
         <v>4</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="26">
+      <c r="D5" s="153"/>
+      <c r="E5" s="139">
         <v>408863</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>1931725350</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="146">
         <v>9827</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26">
+      <c r="H5" s="163"/>
+      <c r="I5" s="139">
         <v>2364379</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>2629203714</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="146">
         <v>1787</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26">
+      <c r="L5" s="163"/>
+      <c r="M5" s="139">
         <v>3966996</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <v>580386835</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <v>149</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="26">
+      <c r="P5" s="152">
+        <v>377</v>
+      </c>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="139">
         <v>271823</v>
       </c>
-      <c r="R5" s="26">
+      <c r="S5" s="25">
         <v>1704343789</v>
       </c>
-      <c r="S5" s="26">
+      <c r="T5" s="146">
         <v>10276</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26">
+      <c r="U5" s="163"/>
+      <c r="V5" s="139">
         <v>220304</v>
       </c>
-      <c r="V5" s="26">
+      <c r="W5" s="25">
         <v>1342021782</v>
       </c>
-      <c r="W5" s="26">
+      <c r="X5" s="146">
         <v>16260</v>
       </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26">
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="139">
         <v>3161842</v>
       </c>
-      <c r="Z5" s="26">
+      <c r="AA5" s="25">
         <v>458852690</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AB5" s="25">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="AC5" s="152">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>5995635</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="159">
         <v>5</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40">
+      <c r="D6" s="153"/>
+      <c r="E6" s="141">
         <v>9912</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>64267933</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="148">
         <v>17565</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40">
+      <c r="H6" s="163"/>
+      <c r="I6" s="141">
         <v>334608</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="39">
         <v>1682880665</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="148">
         <v>12503</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40">
+      <c r="L6" s="163"/>
+      <c r="M6" s="141">
         <v>7275366</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="39">
         <v>1061505047</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="39">
         <v>149</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="40">
+      <c r="P6" s="148">
+        <v>347</v>
+      </c>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="141">
         <v>105226</v>
       </c>
-      <c r="R6" s="40">
+      <c r="S6" s="39">
         <v>808961843</v>
       </c>
-      <c r="S6" s="40">
+      <c r="T6" s="148">
         <v>14406</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40">
+      <c r="U6" s="163"/>
+      <c r="V6" s="141">
         <v>36750</v>
       </c>
-      <c r="V6" s="40">
+      <c r="W6" s="39">
         <v>483128849</v>
       </c>
-      <c r="W6" s="40">
+      <c r="X6" s="148">
         <v>24765</v>
       </c>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40">
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="141">
         <v>2933558</v>
       </c>
-      <c r="Z6" s="40">
+      <c r="AA6" s="39">
         <v>425539365</v>
       </c>
-      <c r="AA6" s="40">
+      <c r="AB6" s="39">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="124"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126">
+      <c r="AC6" s="148">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="122"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="160">
         <v>6</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="125">
+      <c r="D7" s="154"/>
+      <c r="E7" s="142">
         <v>111</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="123">
         <v>659440</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="149">
         <v>17187</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125">
+      <c r="H7" s="164"/>
+      <c r="I7" s="142">
         <v>25</v>
       </c>
-      <c r="J7" s="125">
+      <c r="J7" s="123">
         <v>73269</v>
       </c>
-      <c r="K7" s="125">
+      <c r="K7" s="149">
         <v>41887</v>
       </c>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="125">
+      <c r="L7" s="164"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="142">
         <v>233</v>
       </c>
-      <c r="R7" s="125">
+      <c r="S7" s="123">
         <v>1465473</v>
       </c>
-      <c r="S7" s="125">
+      <c r="T7" s="149">
         <v>12599</v>
       </c>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125">
+      <c r="U7" s="164"/>
+      <c r="V7" s="142">
         <v>3</v>
       </c>
-      <c r="V7" s="125">
+      <c r="W7" s="123">
         <v>52449</v>
       </c>
-      <c r="W7" s="125">
+      <c r="X7" s="149">
         <v>44607</v>
       </c>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="149"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>5952932</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="157">
         <v>7</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="26">
+      <c r="D8" s="153"/>
+      <c r="E8" s="139">
         <v>29707</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>297728009</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="146">
         <v>19791</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26">
+      <c r="H8" s="163"/>
+      <c r="I8" s="139">
         <v>219101</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>1183379431</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="146">
         <v>12829</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26">
+      <c r="L8" s="163"/>
+      <c r="M8" s="139">
         <v>3333156</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>484586353</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>149</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="26">
+      <c r="P8" s="152">
+        <v>331</v>
+      </c>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="139">
         <v>132640</v>
       </c>
-      <c r="R8" s="26">
+      <c r="S8" s="25">
         <v>998133789</v>
       </c>
-      <c r="S8" s="26">
+      <c r="T8" s="146">
         <v>14587</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26">
+      <c r="U8" s="163"/>
+      <c r="V8" s="139">
         <v>167862</v>
       </c>
-      <c r="V8" s="26">
+      <c r="W8" s="25">
         <v>1452069004</v>
       </c>
-      <c r="W8" s="26">
+      <c r="X8" s="146">
         <v>25814</v>
       </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26">
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="139">
         <v>3318244</v>
       </c>
-      <c r="Z8" s="26">
+      <c r="AA8" s="25">
         <v>482191712</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AB8" s="25">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="AC8" s="152">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>5883278</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="159">
         <v>8</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40">
+      <c r="D9" s="153"/>
+      <c r="E9" s="141">
         <v>97348</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>617011257</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="148">
         <v>16969</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40">
+      <c r="H9" s="163"/>
+      <c r="I9" s="141">
         <v>1673324</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="39">
         <v>1543194770</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="148">
         <v>1764</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40">
+      <c r="L9" s="163"/>
+      <c r="M9" s="141">
         <v>3171788</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="39">
         <v>464186415</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="39">
         <v>149</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40">
+      <c r="P9" s="148">
+        <v>353</v>
+      </c>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="141">
         <v>138974</v>
       </c>
-      <c r="R9" s="40">
+      <c r="S9" s="39">
         <v>699122054</v>
       </c>
-      <c r="S9" s="40">
+      <c r="T9" s="148">
         <v>9898</v>
       </c>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40">
+      <c r="U9" s="163"/>
+      <c r="V9" s="141">
         <v>139058</v>
       </c>
-      <c r="V9" s="40">
+      <c r="W9" s="39">
         <v>1091695992</v>
       </c>
-      <c r="W9" s="40">
+      <c r="X9" s="148">
         <v>20731</v>
       </c>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40">
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="141">
         <v>2134582</v>
       </c>
-      <c r="Z9" s="40">
+      <c r="AA9" s="39">
         <v>313183764</v>
       </c>
-      <c r="AA9" s="40">
+      <c r="AB9" s="39">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126">
+      <c r="AC9" s="148">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="160">
         <v>9</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="125">
+      <c r="D10" s="154"/>
+      <c r="E10" s="142">
         <v>108</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="123">
         <v>785266</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="149">
         <v>17236</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125">
+      <c r="H10" s="164"/>
+      <c r="I10" s="142">
         <v>5</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="123">
         <v>6604</v>
       </c>
-      <c r="K10" s="125">
+      <c r="K10" s="149">
         <v>1185</v>
       </c>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="125">
+      <c r="L10" s="164"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="142">
         <v>214</v>
       </c>
-      <c r="R10" s="125">
+      <c r="S10" s="123">
         <v>1492685</v>
       </c>
-      <c r="S10" s="125">
+      <c r="T10" s="149">
         <v>16563</v>
       </c>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125">
+      <c r="U10" s="164"/>
+      <c r="V10" s="142">
         <v>0</v>
       </c>
-      <c r="V10" s="125">
+      <c r="W10" s="123">
         <v>0</v>
       </c>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129">
+      <c r="X10" s="149"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="149"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="124"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="161">
         <v>10</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="128">
+      <c r="D11" s="154"/>
+      <c r="E11" s="143">
         <v>27</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="125">
         <v>120516</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="150">
         <v>15485</v>
       </c>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128">
-        <v>1</v>
-      </c>
-      <c r="J11" s="128">
+      <c r="H11" s="164"/>
+      <c r="I11" s="143">
+        <v>1</v>
+      </c>
+      <c r="J11" s="125">
         <v>1295</v>
       </c>
-      <c r="K11" s="128">
+      <c r="K11" s="150">
         <v>1295</v>
       </c>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="128">
+      <c r="L11" s="164"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="143">
         <v>70</v>
       </c>
-      <c r="R11" s="128">
+      <c r="S11" s="125">
         <v>505305</v>
       </c>
-      <c r="S11" s="128">
+      <c r="T11" s="150">
         <v>11547</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128">
-        <v>1</v>
-      </c>
-      <c r="V11" s="128">
+      <c r="U11" s="164"/>
+      <c r="V11" s="143">
+        <v>1</v>
+      </c>
+      <c r="W11" s="125">
         <v>21762</v>
       </c>
-      <c r="W11" s="128">
+      <c r="X11" s="150">
         <v>21762</v>
       </c>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129">
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="150"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="161">
         <v>11</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="128">
+      <c r="D12" s="154"/>
+      <c r="E12" s="143">
         <v>71</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="125">
         <v>416642</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G12" s="150">
         <v>12310</v>
       </c>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128">
+      <c r="H12" s="164"/>
+      <c r="I12" s="143">
         <v>7</v>
       </c>
-      <c r="J12" s="128">
+      <c r="J12" s="125">
         <v>59286</v>
       </c>
-      <c r="K12" s="128">
+      <c r="K12" s="150">
         <v>51501</v>
       </c>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="128">
+      <c r="L12" s="164"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="143">
         <v>81</v>
       </c>
-      <c r="R12" s="128">
+      <c r="S12" s="125">
         <v>528081</v>
       </c>
-      <c r="S12" s="128">
+      <c r="T12" s="150">
         <v>14143</v>
       </c>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128">
+      <c r="U12" s="164"/>
+      <c r="V12" s="143">
         <v>2</v>
       </c>
-      <c r="V12" s="128">
+      <c r="W12" s="125">
         <v>4137</v>
       </c>
-      <c r="W12" s="128">
+      <c r="X12" s="150">
         <v>3861</v>
       </c>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="127"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129">
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="150"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="124"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="161">
         <v>12</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="128">
+      <c r="D13" s="154"/>
+      <c r="E13" s="143">
         <v>24</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="125">
         <v>186958</v>
       </c>
-      <c r="G13" s="128">
+      <c r="G13" s="150">
         <v>13260</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128">
+      <c r="H13" s="164"/>
+      <c r="I13" s="143">
         <v>7</v>
       </c>
-      <c r="J13" s="128">
+      <c r="J13" s="125">
         <v>18042</v>
       </c>
-      <c r="K13" s="128">
+      <c r="K13" s="150">
         <v>4731</v>
       </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="128">
+      <c r="L13" s="164"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="143">
         <v>39</v>
       </c>
-      <c r="R13" s="128">
+      <c r="S13" s="125">
         <v>309173</v>
       </c>
-      <c r="S13" s="128">
+      <c r="T13" s="150">
         <v>15373</v>
       </c>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128">
+      <c r="U13" s="164"/>
+      <c r="V13" s="143">
         <v>0</v>
       </c>
-      <c r="V13" s="128">
+      <c r="W13" s="125">
         <v>0</v>
       </c>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-    </row>
-    <row r="14" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132" t="s">
+      <c r="X13" s="150"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="150"/>
+    </row>
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="126"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="131">
+      <c r="D14" s="155"/>
+      <c r="E14" s="144">
         <v>133275</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="127">
         <v>699736991</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="151">
         <v>11194</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131">
+      <c r="H14" s="164"/>
+      <c r="I14" s="144">
         <v>1476948</v>
       </c>
-      <c r="J14" s="131">
+      <c r="J14" s="127">
         <v>2760423083</v>
       </c>
-      <c r="K14" s="131">
+      <c r="K14" s="151">
         <v>5872</v>
       </c>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="131">
+      <c r="L14" s="164"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="144">
         <v>310608</v>
       </c>
-      <c r="R14" s="131">
+      <c r="S14" s="127">
         <v>1946250883</v>
       </c>
-      <c r="S14" s="131">
+      <c r="T14" s="151">
         <v>12071</v>
       </c>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131">
+      <c r="U14" s="164"/>
+      <c r="V14" s="144">
         <v>137151</v>
       </c>
-      <c r="V14" s="131">
+      <c r="W14" s="127">
         <v>954735047</v>
       </c>
-      <c r="W14" s="131">
+      <c r="X14" s="151">
         <v>18494</v>
       </c>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="151"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2779,7 +3040,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="A8:Q13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2787,68 +3048,68 @@
     <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" style="57" customWidth="1"/>
-    <col min="8" max="9" width="9.33203125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.33203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="33" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" style="33" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="56" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="32" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="32" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" style="32" customWidth="1"/>
+    <col min="17" max="17" width="7" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="32" customFormat="1" ht="182" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:17" s="31" customFormat="1" ht="182" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="77" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="O1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="79" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2857,44 +3118,44 @@
       <c r="D2" s="3">
         <v>3798646</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>0.39</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="35">
+      <c r="F2" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="34">
         <v>26.0356323720851</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="34">
         <f>H2/H$2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34">
         <v>799.82599621345105</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="34">
         <f>K2/K$2</f>
         <v>1</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <v>224.68919302155399</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="34">
         <f>N2/N$2</f>
         <v>1</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="81"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2903,44 +3164,44 @@
       <c r="D3" s="5">
         <v>145059</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>0.41</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="35">
+      <c r="F3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="34">
         <v>36.755360571996697</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="34">
         <f t="shared" ref="I3:I4" si="0">H3/H$2</f>
         <v>1.4117329683685764</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34">
         <v>664.47993533157705</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <f t="shared" ref="L3:L4" si="1">K3/K$2</f>
         <v>0.8307806178810998</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35">
+      <c r="M3" s="34"/>
+      <c r="N3" s="34">
         <v>181.28800977616501</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="34">
         <f t="shared" ref="O3:O4" si="2">N3/N$2</f>
         <v>0.80683902656045592</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="81"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="22">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2949,44 +3210,44 @@
       <c r="D4" s="7">
         <v>6078</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="35">
+      <c r="F4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="34">
         <v>776.50970714050595</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="34">
         <f t="shared" si="0"/>
         <v>29.824883684141454</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34">
         <v>1070.0468904244799</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="34">
         <f t="shared" si="1"/>
         <v>1.3378496016512502</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35">
+      <c r="M4" s="34"/>
+      <c r="N4" s="34">
         <v>2391.6388614675798</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="34">
         <f t="shared" si="2"/>
         <v>10.644209582603978</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="81"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="79"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2995,44 +3256,44 @@
       <c r="D5" s="11">
         <v>4758908</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.53800000000000003</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="36">
+      <c r="F5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="35">
         <v>104.406836185697</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <f>H5/H$5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35">
         <v>368.79452352001101</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="35">
         <f>K5/K$5</f>
         <v>1</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36">
+      <c r="M5" s="35"/>
+      <c r="N5" s="35">
         <v>133.489371342738</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <f>N5/N$5</f>
         <v>1</v>
       </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="82"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="80"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3041,44 +3302,44 @@
       <c r="D6" s="13">
         <v>64962</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="37">
+      <c r="F6" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="36">
         <v>348.452484671148</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <f>H6/H$5</f>
         <v>3.3374489391805122</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37">
+      <c r="J6" s="36"/>
+      <c r="K6" s="36">
         <v>386.95931484556002</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="36">
         <f>K6/K$5</f>
         <v>1.0492545039773709</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37">
+      <c r="M6" s="36"/>
+      <c r="N6" s="36">
         <v>179.25724524517901</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="36">
         <f>N6/N$5</f>
         <v>1.3428578128885678</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="83"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -3087,44 +3348,44 @@
       <c r="D7" s="15">
         <v>9294</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F7" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="38">
+      <c r="F7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="37">
         <v>1169.9146761351401</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <f>H7/H$5</f>
         <v>11.205345539389212</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37">
         <v>445.46578437701697</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="37">
         <f>K7/K$5</f>
         <v>1.2078969614982522</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <v>566.54443727135697</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="37">
         <f>N7/N$5</f>
         <v>4.2441164534121372</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="84"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="82"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -3133,44 +3394,44 @@
       <c r="D8" s="9">
         <v>4837926</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="35">
+      <c r="F8" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="34">
         <v>31.440549783021901</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <f t="shared" ref="I8:I13" si="3">H8/H$8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34">
         <v>204.15483348169101</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="34">
         <f t="shared" ref="L8:L13" si="4">K8/K$8</f>
         <v>1</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35">
+      <c r="M8" s="34"/>
+      <c r="N8" s="34">
         <v>111.381062186897</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="34">
         <f t="shared" ref="O8:O13" si="5">N8/N$8</f>
         <v>1</v>
       </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="81"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="79"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3179,44 +3440,44 @@
       <c r="D9" s="5">
         <v>136482</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <v>0.52400000000000002</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="35">
+      <c r="F9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="34">
         <v>34.073443283512098</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <f t="shared" si="3"/>
         <v>1.0837419675756426</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34">
         <v>171.97479267207001</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <f t="shared" si="4"/>
         <v>0.84237433784536397</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="M9" s="34"/>
+      <c r="N9" s="34">
         <v>75.622920863983495</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="34">
         <f t="shared" si="5"/>
         <v>0.67895672189845457</v>
       </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="81"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="79"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>1</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3225,44 +3486,44 @@
       <c r="D10" s="5">
         <v>108411</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <v>0.53100000000000003</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="35">
+      <c r="F10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="34">
         <v>51.970869396718697</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <f t="shared" si="3"/>
         <v>1.6529885690734105</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34">
         <v>218.84598243120999</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="34">
         <f t="shared" si="4"/>
         <v>1.0719608186540266</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35">
+      <c r="M10" s="34"/>
+      <c r="N10" s="34">
         <v>103.375069973732</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="34">
         <f t="shared" si="5"/>
         <v>0.92812070511833533</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="81"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="79"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="22">
+        <v>1</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3271,44 +3532,44 @@
       <c r="D11" s="5">
         <v>4665</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <v>0.51100000000000001</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="35">
+      <c r="F11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="34">
         <v>444.44897959183601</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <f t="shared" si="3"/>
         <v>14.136170730444457</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34">
         <v>599.47779111644604</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="34">
         <f t="shared" si="4"/>
         <v>2.9363879409213611</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35">
+      <c r="M11" s="34"/>
+      <c r="N11" s="34">
         <v>1399.03529411764</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="34">
         <f t="shared" si="5"/>
         <v>12.560800432752778</v>
       </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="81"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="79"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>1</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="22">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3317,44 +3578,44 @@
       <c r="D12" s="5">
         <v>3715</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <v>0.55700000000000005</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="35">
+      <c r="F12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="34">
         <v>790.059409020217</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="34">
         <f t="shared" si="3"/>
         <v>25.128676644415872</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34">
         <v>565.262208398133</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="34">
         <f t="shared" si="4"/>
         <v>2.7687916997019166</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35">
+      <c r="M12" s="34"/>
+      <c r="N12" s="34">
         <v>2369.7819595645401</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="34">
         <f t="shared" si="5"/>
         <v>21.27634548490887</v>
       </c>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="81"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="79"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>1</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="22">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3363,46 +3624,46 @@
       <c r="D13" s="7">
         <v>2369</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <v>0.499</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="35">
+      <c r="F13" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="34">
         <v>732.84978902953503</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <f t="shared" si="3"/>
         <v>23.309064061763916</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34">
         <v>593.88955673938801</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="34">
         <f t="shared" si="4"/>
         <v>2.9090154105641055</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35">
+      <c r="M13" s="34"/>
+      <c r="N13" s="34">
         <v>3516.25110490103</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="34">
         <f t="shared" si="5"/>
         <v>31.569559814403405</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="81">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="79">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3411,44 +3672,44 @@
       <c r="D14" s="11">
         <v>2051882</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F14" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="36">
+      <c r="F14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="35">
         <v>815.33149136794998</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <f>H14/H$14</f>
         <v>1</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36">
+      <c r="J14" s="35"/>
+      <c r="K14" s="35">
         <v>1214.5554351953999</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <f>K14/K$14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36">
+      <c r="M14" s="35"/>
+      <c r="N14" s="35">
         <v>232.43317906974801</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="35">
         <f>N14/N$14</f>
         <v>1</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="82"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="80"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="20">
+        <v>1</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -3457,44 +3718,44 @@
       <c r="D15" s="13">
         <v>39398</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>0.36099999999999999</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="37">
+      <c r="F15" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="36">
         <v>4532.75074876897</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <f>H15/H$14</f>
         <v>5.5593961434802353</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37">
+      <c r="J15" s="36"/>
+      <c r="K15" s="36">
         <v>4522.3950961977698</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="36">
         <f>K15/K$14</f>
         <v>3.7234982983466693</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37">
+      <c r="M15" s="36"/>
+      <c r="N15" s="36">
         <v>826.53238743083398</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="36">
         <f>N15/N$14</f>
         <v>3.5560000114390298</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="83"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="81"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
-        <v>1</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="20">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -3503,44 +3764,44 @@
       <c r="D16" s="13">
         <v>10719</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>0.29199999999999998</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="37">
+      <c r="F16" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="36">
         <v>7542.1641944211196</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <f>H16/H$14</f>
         <v>9.2504266967132587</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37">
+      <c r="J16" s="36"/>
+      <c r="K16" s="36">
         <v>17178.174269987801</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="36">
         <f>K16/K$14</f>
         <v>14.14359013363943</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36">
         <v>2594.4025562085999</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="36">
         <f>N16/N$14</f>
         <v>11.161928630809104</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="83"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="81"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>1</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="20">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -3549,37 +3810,37 @@
       <c r="D17" s="13">
         <v>9975</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>0.437</v>
       </c>
-      <c r="F17" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="110" t="s">
+      <c r="F17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="110" t="s">
+      <c r="I17" s="108"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="110" t="s">
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="110"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="83">
+      <c r="O17" s="108"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>1</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="20">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -3588,37 +3849,37 @@
       <c r="D18" s="13">
         <v>7392</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F18" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="111">
+      <c r="F18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="109">
         <v>0</v>
       </c>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111">
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109">
         <v>0.14583333333333301</v>
       </c>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111">
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109">
         <v>2.1097132034631998</v>
       </c>
-      <c r="O18" s="111"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="83">
+      <c r="O18" s="109"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>1</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="20">
+        <v>1</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -3627,37 +3888,37 @@
       <c r="D19" s="15">
         <v>5675</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <v>0.47199999999999998</v>
       </c>
-      <c r="F19" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="112">
+      <c r="F19" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="110">
         <v>0</v>
       </c>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112">
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110">
         <v>0</v>
       </c>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112">
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110">
         <v>0</v>
       </c>
-      <c r="O19" s="112"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="84">
+      <c r="O19" s="110"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="82">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
-        <v>1</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="21">
+        <v>1</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3666,44 +3927,44 @@
       <c r="D20" s="9">
         <v>5804453</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F20" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="35">
+      <c r="F20" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="34">
         <v>10.2947699435844</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f>H20/H$20</f>
         <v>1</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35">
+      <c r="J20" s="34"/>
+      <c r="K20" s="34">
         <v>305.12105313545499</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <f>K20/K$20</f>
         <v>1</v>
       </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35">
+      <c r="M20" s="34"/>
+      <c r="N20" s="34">
         <v>162.46730375968201</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="34">
         <f>N20/N$20</f>
         <v>1</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="81"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="79"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>1</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="22">
+        <v>1</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3712,44 +3973,44 @@
       <c r="D21" s="5">
         <v>118161</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="42">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="35">
+      <c r="F21" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="34">
         <v>32.8187060716402</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <f>H21/H$20</f>
         <v>3.1879008711692967</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35">
+      <c r="J21" s="34"/>
+      <c r="K21" s="34">
         <v>405.77175882801203</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="34">
         <f>K21/K$20</f>
         <v>1.329871389267506</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35">
+      <c r="M21" s="34"/>
+      <c r="N21" s="34">
         <v>216.70106698280901</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21" s="34">
         <f>N21/N$20</f>
         <v>1.3338134010234353</v>
       </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="81"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="79"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>1</v>
-      </c>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3758,44 +4019,44 @@
       <c r="D22" s="5">
         <v>58472</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="42">
         <v>0.51900000000000002</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="35">
+      <c r="F22" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="34">
         <v>31.125701190313301</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="34">
         <f>H22/H$20</f>
         <v>3.0234479605550129</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35">
+      <c r="J22" s="34"/>
+      <c r="K22" s="34">
         <v>226.07145300314599</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="34">
         <f>K22/K$20</f>
         <v>0.74092380935373925</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35">
+      <c r="M22" s="34"/>
+      <c r="N22" s="34">
         <v>137.805069092899</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="34">
         <f>N22/N$20</f>
         <v>0.84820185910598456</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="81"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="79"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="22">
+        <v>1</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3804,37 +4065,37 @@
       <c r="D23" s="5">
         <v>9975</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="42">
         <v>0.437</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="117" t="s">
+      <c r="F23" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="117" t="s">
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="117"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="117" t="s">
+      <c r="L23" s="115"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="81">
+      <c r="O23" s="115"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>1</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="22">
+        <v>1</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -3843,44 +4104,44 @@
       <c r="D24" s="7">
         <v>4574</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <v>0.37</v>
       </c>
-      <c r="F24" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="35">
+      <c r="F24" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="34">
         <v>1773.0491910800099</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="34">
         <f>H24/H$20</f>
         <v>172.22815087625699</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35">
+      <c r="J24" s="34"/>
+      <c r="K24" s="34">
         <v>958.49212942719703</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="34">
         <f>K24/K$20</f>
         <v>3.1413503577600901</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35">
+      <c r="M24" s="34"/>
+      <c r="N24" s="34">
         <v>7339.5942282466103</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="34">
         <f>N24/N$20</f>
         <v>45.175823432776191</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="81"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="79"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>1</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="19">
+        <v>1</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3889,44 +4150,44 @@
       <c r="D25" s="11">
         <v>5417255</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <v>0.57499999999999996</v>
       </c>
-      <c r="F25" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="36">
+      <c r="F25" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="35">
         <v>51.611152088037997</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <f t="shared" ref="I25:I30" si="6">H25/H$25</f>
         <v>1</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35">
         <v>220.47971605117101</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="35">
         <f t="shared" ref="L25:L30" si="7">K25/K$25</f>
         <v>1</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36">
+      <c r="M25" s="35"/>
+      <c r="N25" s="35">
         <v>75.780111520140395</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="35">
         <f t="shared" ref="O25:O30" si="8">N25/N$25</f>
         <v>1</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="82"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="80"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>1</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="20">
+        <v>1</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -3935,44 +4196,44 @@
       <c r="D26" s="13">
         <v>250980</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>0.45600000000000002</v>
       </c>
-      <c r="F26" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="37">
+      <c r="F26" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="H26" s="36">
         <v>69.526140857371601</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <f t="shared" si="6"/>
         <v>1.3471146844149946</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37">
+      <c r="J26" s="36"/>
+      <c r="K26" s="36">
         <v>210.94560356469901</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="36">
         <f t="shared" si="7"/>
         <v>0.95675741670376957</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37">
+      <c r="M26" s="36"/>
+      <c r="N26" s="36">
         <v>66.675477328416505</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="36">
         <f t="shared" si="8"/>
         <v>0.87985456857893229</v>
       </c>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="83"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="81"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>1</v>
-      </c>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="20">
+        <v>1</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -3981,44 +4242,44 @@
       <c r="D27" s="13">
         <v>243620</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F27" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="37">
+      <c r="F27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="36">
         <v>62.559536222759903</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <f t="shared" si="6"/>
         <v>1.212132139891902</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37">
+      <c r="J27" s="36"/>
+      <c r="K27" s="36">
         <v>228.738115380327</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="36">
         <f t="shared" si="7"/>
         <v>1.0374565038320318</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37">
+      <c r="M27" s="36"/>
+      <c r="N27" s="36">
         <v>72.474348632998201</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="36">
         <f t="shared" si="8"/>
         <v>0.95637690654145302</v>
       </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="83"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="81"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
-        <v>1</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="20">
+        <v>1</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -4027,44 +4288,44 @@
       <c r="D28" s="13">
         <v>31780</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="37">
+      <c r="G28" s="53"/>
+      <c r="H28" s="36">
         <v>288.686249213341</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <f t="shared" si="6"/>
         <v>5.5934858559425624</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37">
+      <c r="J28" s="36"/>
+      <c r="K28" s="36">
         <v>396.11356198867202</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="36">
         <f t="shared" si="7"/>
         <v>1.7965986580676576</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37">
+      <c r="M28" s="36"/>
+      <c r="N28" s="36">
         <v>632.70657646318398</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="36">
         <f t="shared" si="8"/>
         <v>8.3492431427080565</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="83"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="81"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <v>1</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="20">
+        <v>1</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -4073,44 +4334,44 @@
       <c r="D29" s="13">
         <v>5783</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="45">
         <v>0.47399999999999998</v>
       </c>
-      <c r="F29" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="37">
+      <c r="F29" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="H29" s="36">
         <v>2404.0657098391798</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <f t="shared" si="6"/>
         <v>46.580353520075249</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37">
+      <c r="J29" s="36"/>
+      <c r="K29" s="36">
         <v>1028.24848694449</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="36">
         <f t="shared" si="7"/>
         <v>4.6636874600557103</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37">
+      <c r="M29" s="36"/>
+      <c r="N29" s="36">
         <v>886.62891232924005</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="36">
         <f t="shared" si="8"/>
         <v>11.700021213265133</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="83"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="81"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <v>1</v>
-      </c>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="20">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -4119,44 +4380,44 @@
       <c r="D30" s="15">
         <v>3514</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="46">
         <v>0.54400000000000004</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="38">
+      <c r="F30" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="37">
         <v>1410.40580535002</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="37">
         <f t="shared" si="6"/>
         <v>27.327539655463575</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38">
+      <c r="J30" s="37"/>
+      <c r="K30" s="37">
         <v>719.13745019920304</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="37">
         <f t="shared" si="7"/>
         <v>3.261694377510441</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38">
+      <c r="M30" s="37"/>
+      <c r="N30" s="37">
         <v>1196.7438816163899</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30" s="37">
         <f t="shared" si="8"/>
         <v>15.792321462846175</v>
       </c>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="84"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="82"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
-        <v>1</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="21">
+        <v>1</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -4165,44 +4426,44 @@
       <c r="D31" s="9">
         <v>5518076</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="47">
         <v>0.59099999999999997</v>
       </c>
-      <c r="F31" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="35">
+      <c r="F31" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="34">
         <v>64.440735667986601</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="34">
         <f>H31/H$31</f>
         <v>1</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35">
+      <c r="J31" s="34"/>
+      <c r="K31" s="34">
         <v>197.24110072219199</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="34">
         <f>K31/K$31</f>
         <v>1</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35">
+      <c r="M31" s="34"/>
+      <c r="N31" s="34">
         <v>51.216258442913997</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="34">
         <f>N31/N$31</f>
         <v>1</v>
       </c>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="81"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="79"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="22">
+        <v>1</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -4211,44 +4472,44 @@
       <c r="D32" s="5">
         <v>184477</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="42">
         <v>0.52900000000000003</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="35">
+      <c r="F32" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="34">
         <v>214.61337077127999</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="34">
         <f>H32/H$31</f>
         <v>3.3303991418877823</v>
       </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35">
+      <c r="J32" s="34"/>
+      <c r="K32" s="34">
         <v>1753.9008798449299</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="34">
         <f>K32/K$31</f>
         <v>8.8921673698994681</v>
       </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35">
+      <c r="M32" s="34"/>
+      <c r="N32" s="34">
         <v>233.09806721281399</v>
       </c>
-      <c r="O32" s="35">
+      <c r="O32" s="34">
         <f>N32/N$31</f>
         <v>4.5512513857806844</v>
       </c>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="81"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="79"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="22">
+        <v>1</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4257,44 +4518,44 @@
       <c r="D33" s="5">
         <v>161385</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="42">
         <v>0.52100000000000002</v>
       </c>
-      <c r="F33" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="35">
+      <c r="F33" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="34">
         <v>101.408544634508</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="34">
         <f>H33/H$31</f>
         <v>1.5736714297767798</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35">
+      <c r="J33" s="34"/>
+      <c r="K33" s="34">
         <v>546.823641438864</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="34">
         <f>K33/K$31</f>
         <v>2.7723615384252405</v>
       </c>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35">
+      <c r="M33" s="34"/>
+      <c r="N33" s="34">
         <v>95.960130080853602</v>
       </c>
-      <c r="O33" s="35">
+      <c r="O33" s="34">
         <f>N33/N$31</f>
         <v>1.8736263248868803</v>
       </c>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="81"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="79"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
-        <v>1</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="22">
+        <v>1</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -4303,46 +4564,46 @@
       <c r="D34" s="5">
         <v>17406</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <v>0.58899999999999997</v>
       </c>
-      <c r="F34" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="69">
+      <c r="F34" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="50"/>
+      <c r="H34" s="67">
         <v>13797.054583552401</v>
       </c>
-      <c r="I34" s="69">
+      <c r="I34" s="67">
         <f>H34/H$31</f>
         <v>214.10454800885546</v>
       </c>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69">
+      <c r="J34" s="67"/>
+      <c r="K34" s="67">
         <v>8569.6046969930194</v>
       </c>
-      <c r="L34" s="69">
+      <c r="L34" s="67">
         <f>K34/K$31</f>
         <v>43.447357906722715</v>
       </c>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69">
+      <c r="M34" s="67"/>
+      <c r="N34" s="67">
         <v>2765.6253279477</v>
       </c>
-      <c r="O34" s="69">
+      <c r="O34" s="67">
         <f>N34/N$31</f>
         <v>53.998972436268176</v>
       </c>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="85">
+      <c r="P34" s="67"/>
+      <c r="Q34" s="83">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="78">
-        <v>1</v>
-      </c>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="76">
+        <v>1</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -4351,44 +4612,44 @@
       <c r="D35" s="7">
         <v>1934</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="43">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F35" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="70">
+      <c r="F35" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="51"/>
+      <c r="H35" s="68">
         <v>38948.718200620402</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="68">
         <f>H35/H$31</f>
         <v>604.41144560007979</v>
       </c>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70">
+      <c r="J35" s="68"/>
+      <c r="K35" s="68">
         <v>7475.6416752843797</v>
       </c>
-      <c r="L35" s="70">
+      <c r="L35" s="68">
         <f>K35/K$31</f>
         <v>37.901034053818179</v>
       </c>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70">
+      <c r="M35" s="68"/>
+      <c r="N35" s="68">
         <v>7862.18821096173</v>
       </c>
-      <c r="O35" s="70">
+      <c r="O35" s="68">
         <f>N35/N$31</f>
         <v>153.50961686756131</v>
       </c>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="86"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="84"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>2</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -4397,44 +4658,44 @@
       <c r="D36" s="13">
         <v>3798646</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="45">
         <v>0.39</v>
       </c>
-      <c r="F36" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="61">
+      <c r="F36" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="53"/>
+      <c r="H36" s="59">
         <v>243.55578953761301</v>
       </c>
-      <c r="I36" s="61">
+      <c r="I36" s="59">
         <f>H36/H$36</f>
         <v>1</v>
       </c>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61">
+      <c r="J36" s="59"/>
+      <c r="K36" s="59">
         <v>300.295274207901</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="59">
         <f>K36/K$36</f>
         <v>1</v>
       </c>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61">
+      <c r="M36" s="59"/>
+      <c r="N36" s="59">
         <v>94.957059113989899</v>
       </c>
-      <c r="O36" s="61">
+      <c r="O36" s="59">
         <f>N36/N$36</f>
         <v>1</v>
       </c>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="87"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="85"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>2</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -4443,44 +4704,44 @@
       <c r="D37" s="13">
         <v>145059</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="45">
         <v>0.41</v>
       </c>
-      <c r="F37" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="61">
+      <c r="F37" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="53"/>
+      <c r="H37" s="59">
         <v>76.956735914504094</v>
       </c>
-      <c r="I37" s="61">
+      <c r="I37" s="59">
         <f>H37/H$36</f>
         <v>0.31597169609724857</v>
       </c>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61">
+      <c r="J37" s="59"/>
+      <c r="K37" s="59">
         <v>84.454310848659105</v>
       </c>
-      <c r="L37" s="61">
+      <c r="L37" s="59">
         <f>K37/K$36</f>
         <v>0.28123756216752693</v>
       </c>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61">
+      <c r="M37" s="59"/>
+      <c r="N37" s="59">
         <v>26.5422280245011</v>
       </c>
-      <c r="O37" s="61">
+      <c r="O37" s="59">
         <f>N37/N$36</f>
         <v>0.27951821878391209</v>
       </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="87"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="85"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>2</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -4489,44 +4750,44 @@
       <c r="D38" s="15">
         <v>6078</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="46">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F38" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="61">
+      <c r="F38" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="53"/>
+      <c r="H38" s="59">
         <v>217.92300098716601</v>
       </c>
-      <c r="I38" s="61">
+      <c r="I38" s="59">
         <f>H38/H$36</f>
         <v>0.89475598753324459</v>
       </c>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61">
+      <c r="J38" s="59"/>
+      <c r="K38" s="59">
         <v>69.730997038499495</v>
       </c>
-      <c r="L38" s="61">
+      <c r="L38" s="59">
         <f>K38/K$36</f>
         <v>0.23220810657920377</v>
       </c>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61">
+      <c r="M38" s="59"/>
+      <c r="N38" s="59">
         <v>195.00855544587</v>
       </c>
-      <c r="O38" s="61">
+      <c r="O38" s="59">
         <f>N38/N$36</f>
         <v>2.0536499051826644</v>
       </c>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="87"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="85"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
+      <c r="A39" s="21">
         <v>2</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -4535,44 +4796,44 @@
       <c r="D39" s="9">
         <v>4758908</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="47">
         <v>0.53800000000000003</v>
       </c>
-      <c r="F39" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="68">
+      <c r="F39" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="66">
         <v>363.15438968320501</v>
       </c>
-      <c r="I39" s="68">
+      <c r="I39" s="66">
         <f>H39/H$39</f>
         <v>1</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68">
+      <c r="J39" s="66"/>
+      <c r="K39" s="66">
         <v>214.074006423643</v>
       </c>
-      <c r="L39" s="68">
+      <c r="L39" s="66">
         <f>K39/K$39</f>
         <v>1</v>
       </c>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68">
+      <c r="M39" s="66"/>
+      <c r="N39" s="66">
         <v>88.782167715170203</v>
       </c>
-      <c r="O39" s="68">
+      <c r="O39" s="66">
         <f>N39/N$39</f>
         <v>1</v>
       </c>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="88"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="86"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>2</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4581,44 +4842,44 @@
       <c r="D40" s="5">
         <v>64962</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="42">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F40" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="69">
+      <c r="F40" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="67">
         <v>1374.4878437689999</v>
       </c>
-      <c r="I40" s="69">
+      <c r="I40" s="67">
         <f>H40/H$39</f>
         <v>3.7848581287094563</v>
       </c>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69">
+      <c r="J40" s="67"/>
+      <c r="K40" s="67">
         <v>132.47793138592499</v>
       </c>
-      <c r="L40" s="69">
+      <c r="L40" s="67">
         <f>K40/K$39</f>
         <v>0.61884174355926713</v>
       </c>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69">
+      <c r="M40" s="67"/>
+      <c r="N40" s="67">
         <v>145.77337958016199</v>
       </c>
-      <c r="O40" s="69">
+      <c r="O40" s="67">
         <f>N40/N$39</f>
         <v>1.6419218333103811</v>
       </c>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="85"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="83"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="A41" s="22">
         <v>2</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -4627,44 +4888,44 @@
       <c r="D41" s="7">
         <v>9294</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="43">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F41" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="70">
+      <c r="F41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="H41" s="68">
         <v>2219.3035291585902</v>
       </c>
-      <c r="I41" s="70">
+      <c r="I41" s="68">
         <f>H41/H$39</f>
         <v>6.1111846426931065</v>
       </c>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70">
+      <c r="J41" s="68"/>
+      <c r="K41" s="68">
         <v>278.90391650527198</v>
       </c>
-      <c r="L41" s="70">
+      <c r="L41" s="68">
         <f>K41/K$39</f>
         <v>1.3028387760134383</v>
       </c>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70">
+      <c r="M41" s="68"/>
+      <c r="N41" s="68">
         <v>460.66935657413302</v>
       </c>
-      <c r="O41" s="70">
+      <c r="O41" s="68">
         <f>N41/N$39</f>
         <v>5.1887599551753061</v>
       </c>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="86"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="84"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+      <c r="A42" s="19">
         <v>2</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -4673,44 +4934,44 @@
       <c r="D42" s="11">
         <v>4837926</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="44">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F42" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="61">
+      <c r="F42" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="53"/>
+      <c r="H42" s="59">
         <v>230.871020252758</v>
       </c>
-      <c r="I42" s="61">
+      <c r="I42" s="59">
         <f t="shared" ref="I42:I47" si="9">H42/H$42</f>
         <v>1</v>
       </c>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61">
+      <c r="J42" s="59"/>
+      <c r="K42" s="59">
         <v>141.09149299051401</v>
       </c>
-      <c r="L42" s="61">
+      <c r="L42" s="59">
         <f t="shared" ref="L42:L47" si="10">K42/K$42</f>
         <v>1</v>
       </c>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61">
+      <c r="M42" s="59"/>
+      <c r="N42" s="59">
         <v>89.242141271274207</v>
       </c>
-      <c r="O42" s="61">
+      <c r="O42" s="59">
         <f t="shared" ref="O42:O47" si="11">N42/N$42</f>
         <v>1</v>
       </c>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="87"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="85"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>2</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -4719,44 +4980,44 @@
       <c r="D43" s="13">
         <v>136482</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="45">
         <v>0.52400000000000002</v>
       </c>
-      <c r="F43" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="54"/>
-      <c r="H43" s="61">
+      <c r="F43" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="59">
         <v>199.190355151571</v>
       </c>
-      <c r="I43" s="61">
+      <c r="I43" s="59">
         <f t="shared" si="9"/>
         <v>0.8627776449963146</v>
       </c>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61">
+      <c r="J43" s="59"/>
+      <c r="K43" s="59">
         <v>53.499566602633102</v>
       </c>
-      <c r="L43" s="61">
+      <c r="L43" s="59">
         <f t="shared" si="10"/>
         <v>0.37918350333304668</v>
       </c>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61">
+      <c r="M43" s="59"/>
+      <c r="N43" s="59">
         <v>50.001534460947298</v>
       </c>
-      <c r="O43" s="61">
+      <c r="O43" s="59">
         <f t="shared" si="11"/>
         <v>0.5602906177357948</v>
       </c>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="87"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="85"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>2</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -4765,44 +5026,44 @@
       <c r="D44" s="13">
         <v>108411</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="45">
         <v>0.53100000000000003</v>
       </c>
-      <c r="F44" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="54"/>
-      <c r="H44" s="61">
+      <c r="F44" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="53"/>
+      <c r="H44" s="59">
         <v>320.83247211815802</v>
       </c>
-      <c r="I44" s="61">
+      <c r="I44" s="59">
         <f t="shared" si="9"/>
         <v>1.3896610833482266</v>
       </c>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61">
+      <c r="J44" s="59"/>
+      <c r="K44" s="59">
         <v>46.032252508289197</v>
       </c>
-      <c r="L44" s="61">
+      <c r="L44" s="59">
         <f t="shared" si="10"/>
         <v>0.32625817143620472</v>
       </c>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61">
+      <c r="M44" s="59"/>
+      <c r="N44" s="59">
         <v>62.251754725918197</v>
       </c>
-      <c r="O44" s="61">
+      <c r="O44" s="59">
         <f t="shared" si="11"/>
         <v>0.69756007463657943</v>
       </c>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="87"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="85"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>2</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -4811,44 +5072,44 @@
       <c r="D45" s="13">
         <v>4665</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="45">
         <v>0.51100000000000001</v>
       </c>
-      <c r="F45" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="54"/>
-      <c r="H45" s="61">
+      <c r="F45" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="53"/>
+      <c r="H45" s="59">
         <v>1103.8590636254501</v>
       </c>
-      <c r="I45" s="61">
+      <c r="I45" s="59">
         <f t="shared" si="9"/>
         <v>4.7812803114784312</v>
       </c>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61">
+      <c r="J45" s="59"/>
+      <c r="K45" s="59">
         <v>39.289315726290504</v>
       </c>
-      <c r="L45" s="61">
+      <c r="L45" s="59">
         <f t="shared" si="10"/>
         <v>0.27846693584093007</v>
       </c>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61">
+      <c r="M45" s="59"/>
+      <c r="N45" s="59">
         <v>1010.32701080432</v>
       </c>
-      <c r="O45" s="61">
+      <c r="O45" s="59">
         <f t="shared" si="11"/>
         <v>11.321187461573494</v>
       </c>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="87"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="85"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>2</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -4857,44 +5118,44 @@
       <c r="D46" s="13">
         <v>3715</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="45">
         <v>0.55700000000000005</v>
       </c>
-      <c r="F46" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="61">
+      <c r="F46" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="53"/>
+      <c r="H46" s="59">
         <v>2307.1819595645402</v>
       </c>
-      <c r="I46" s="61">
+      <c r="I46" s="59">
         <f t="shared" si="9"/>
         <v>9.9933805335924504</v>
       </c>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61">
+      <c r="J46" s="59"/>
+      <c r="K46" s="59">
         <v>32.1119751166407</v>
       </c>
-      <c r="L46" s="61">
+      <c r="L46" s="59">
         <f t="shared" si="10"/>
         <v>0.22759681987913816</v>
       </c>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61">
+      <c r="M46" s="59"/>
+      <c r="N46" s="59">
         <v>1567.1720062208301</v>
       </c>
-      <c r="O46" s="61">
+      <c r="O46" s="59">
         <f t="shared" si="11"/>
         <v>17.56089649907673</v>
       </c>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="87"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="85"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>2</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -4903,46 +5164,46 @@
       <c r="D47" s="15">
         <v>2369</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E47" s="46">
         <v>0.499</v>
       </c>
-      <c r="F47" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="61">
+      <c r="F47" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="53"/>
+      <c r="H47" s="59">
         <v>2649.4722981264599</v>
       </c>
-      <c r="I47" s="61">
+      <c r="I47" s="59">
         <f t="shared" si="9"/>
         <v>11.475984708803265</v>
       </c>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61">
+      <c r="J47" s="59"/>
+      <c r="K47" s="59">
         <v>24.844303797468299</v>
       </c>
-      <c r="L47" s="61">
+      <c r="L47" s="59">
         <f t="shared" si="10"/>
         <v>0.17608647602260935</v>
       </c>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61">
+      <c r="M47" s="59"/>
+      <c r="N47" s="59">
         <v>2152.85349762135</v>
       </c>
-      <c r="O47" s="61">
+      <c r="O47" s="59">
         <f t="shared" si="11"/>
         <v>24.123731983046035</v>
       </c>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="87">
+      <c r="P47" s="59"/>
+      <c r="Q47" s="85">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
+      <c r="A48" s="21">
         <v>2</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -4951,44 +5212,44 @@
       <c r="D48" s="9">
         <v>2051882</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="47">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F48" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="68">
+      <c r="F48" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="55"/>
+      <c r="H48" s="66">
         <v>597.79049029104601</v>
       </c>
-      <c r="I48" s="68">
+      <c r="I48" s="66">
         <f>H48/H$48</f>
         <v>1</v>
       </c>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68">
+      <c r="J48" s="66"/>
+      <c r="K48" s="66">
         <v>581.09536180603902</v>
       </c>
-      <c r="L48" s="68">
+      <c r="L48" s="66">
         <f>K48/K$48</f>
         <v>1</v>
       </c>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68">
+      <c r="M48" s="66"/>
+      <c r="N48" s="66">
         <v>155.82126516940099</v>
       </c>
-      <c r="O48" s="68">
+      <c r="O48" s="66">
         <f>N48/N$48</f>
         <v>1</v>
       </c>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="88"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="86"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>2</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4997,44 +5258,44 @@
       <c r="D49" s="5">
         <v>39398</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="42">
         <v>0.36099999999999999</v>
       </c>
-      <c r="F49" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="69">
+      <c r="F49" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="50"/>
+      <c r="H49" s="67">
         <v>2643.0654855576399</v>
       </c>
-      <c r="I49" s="69">
+      <c r="I49" s="67">
         <f>H49/H$48</f>
         <v>4.4213909864488006</v>
       </c>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69">
+      <c r="J49" s="67"/>
+      <c r="K49" s="67">
         <v>642.997334890096</v>
       </c>
-      <c r="L49" s="69">
+      <c r="L49" s="67">
         <f>K49/K$48</f>
         <v>1.1065263589295675</v>
       </c>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69">
+      <c r="M49" s="67"/>
+      <c r="N49" s="67">
         <v>391.10541144220502</v>
       </c>
-      <c r="O49" s="69">
+      <c r="O49" s="67">
         <f>N49/N$48</f>
         <v>2.5099617245246661</v>
       </c>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="85"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="83"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
+      <c r="A50" s="22">
         <v>2</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -5043,44 +5304,44 @@
       <c r="D50" s="5">
         <v>10719</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="42">
         <v>0.29199999999999998</v>
       </c>
-      <c r="F50" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="69">
+      <c r="F50" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="H50" s="67">
         <v>14502.7417669558</v>
       </c>
-      <c r="I50" s="69">
+      <c r="I50" s="67">
         <f>H50/H$48</f>
         <v>24.260576242848654</v>
       </c>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69">
+      <c r="J50" s="67"/>
+      <c r="K50" s="67">
         <v>1019.15775725347</v>
       </c>
-      <c r="L50" s="69">
+      <c r="L50" s="67">
         <f>K50/K$48</f>
         <v>1.7538562932010626</v>
       </c>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69">
+      <c r="M50" s="67"/>
+      <c r="N50" s="67">
         <v>2372.54062878999</v>
       </c>
-      <c r="O50" s="69">
+      <c r="O50" s="67">
         <f>N50/N$48</f>
         <v>15.226038796506266</v>
       </c>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="85"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="83"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>2</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -5089,37 +5350,37 @@
       <c r="D51" s="5">
         <v>9975</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="42">
         <v>0.437</v>
       </c>
-      <c r="F51" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="115" t="s">
+      <c r="F51" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="115"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="115" t="s">
+      <c r="I51" s="113"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="L51" s="115"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="115" t="s">
+      <c r="L51" s="113"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="O51" s="115"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="85">
+      <c r="O51" s="113"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>2</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -5128,44 +5389,44 @@
       <c r="D52" s="5">
         <v>7392</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="42">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F52" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="69">
+      <c r="F52" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="50"/>
+      <c r="H52" s="67">
         <v>337.79044913419898</v>
       </c>
-      <c r="I52" s="69">
+      <c r="I52" s="67">
         <f>H52/H$48</f>
         <v>0.56506494268541996</v>
       </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69">
+      <c r="J52" s="67"/>
+      <c r="K52" s="67">
         <v>16.356331168831101</v>
       </c>
-      <c r="L52" s="69">
+      <c r="L52" s="67">
         <f>K52/K$48</f>
         <v>2.8147413047654991E-2</v>
       </c>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69">
+      <c r="M52" s="67"/>
+      <c r="N52" s="67">
         <v>43.190205627705602</v>
       </c>
-      <c r="O52" s="69">
+      <c r="O52" s="67">
         <f>N52/N$48</f>
         <v>0.27717786516975973</v>
       </c>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="85"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="83"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
+      <c r="A53" s="22">
         <v>2</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -5174,44 +5435,44 @@
       <c r="D53" s="7">
         <v>5675</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="43">
         <v>0.47199999999999998</v>
       </c>
-      <c r="F53" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="70">
+      <c r="F53" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="51"/>
+      <c r="H53" s="68">
         <v>546.37039647577001</v>
       </c>
-      <c r="I53" s="70">
+      <c r="I53" s="68">
         <f>H53/H$48</f>
         <v>0.91398308495968028</v>
       </c>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70">
+      <c r="J53" s="68"/>
+      <c r="K53" s="68">
         <v>12.355947136563801</v>
       </c>
-      <c r="L53" s="70">
+      <c r="L53" s="68">
         <f>K53/K$48</f>
         <v>2.1263200411997148E-2</v>
       </c>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70">
+      <c r="M53" s="68"/>
+      <c r="N53" s="68">
         <v>79.1945374449339</v>
       </c>
-      <c r="O53" s="70">
+      <c r="O53" s="68">
         <f>N53/N$48</f>
         <v>0.50823959976732069</v>
       </c>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="86"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="84"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>2</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -5220,44 +5481,44 @@
       <c r="D54" s="11">
         <v>5804453</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="44">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F54" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="61">
+      <c r="F54" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="53"/>
+      <c r="H54" s="59">
         <v>174.861795032571</v>
       </c>
-      <c r="I54" s="61">
+      <c r="I54" s="59">
         <f>H54/H$54</f>
         <v>1</v>
       </c>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61">
+      <c r="J54" s="59"/>
+      <c r="K54" s="59">
         <v>101.51495480980699</v>
       </c>
-      <c r="L54" s="61">
+      <c r="L54" s="59">
         <f>K54/K$54</f>
         <v>1</v>
       </c>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61">
+      <c r="M54" s="59"/>
+      <c r="N54" s="59">
         <v>68.534494705601702</v>
       </c>
-      <c r="O54" s="61">
+      <c r="O54" s="59">
         <f>N54/N$54</f>
         <v>1</v>
       </c>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="87"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="85"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>2</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="12" t="s">
@@ -5266,44 +5527,44 @@
       <c r="D55" s="13">
         <v>118161</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="45">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F55" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="61">
+      <c r="F55" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="53"/>
+      <c r="H55" s="59">
         <v>271.34387331696098</v>
       </c>
-      <c r="I55" s="61">
+      <c r="I55" s="59">
         <f>H55/H$54</f>
         <v>1.5517619115508825</v>
       </c>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61">
+      <c r="J55" s="59"/>
+      <c r="K55" s="59">
         <v>55.269616394275502</v>
       </c>
-      <c r="L55" s="61">
+      <c r="L55" s="59">
         <f>K55/K$54</f>
         <v>0.54444802243990265</v>
       </c>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61">
+      <c r="M55" s="59"/>
+      <c r="N55" s="59">
         <v>66.379337793208506</v>
       </c>
-      <c r="O55" s="61">
+      <c r="O55" s="59">
         <f>N55/N$54</f>
         <v>0.96855369078518871</v>
       </c>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="87"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="85"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>2</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -5312,44 +5573,44 @@
       <c r="D56" s="13">
         <v>58472</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="45">
         <v>0.51900000000000002</v>
       </c>
-      <c r="F56" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="61">
+      <c r="F56" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="53"/>
+      <c r="H56" s="59">
         <v>149.26268983444999</v>
       </c>
-      <c r="I56" s="61">
+      <c r="I56" s="59">
         <f>H56/H$54</f>
         <v>0.85360378352885635</v>
       </c>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61">
+      <c r="J56" s="59"/>
+      <c r="K56" s="59">
         <v>19.699120946777899</v>
       </c>
-      <c r="L56" s="61">
+      <c r="L56" s="59">
         <f>K56/K$54</f>
         <v>0.19405141817464355</v>
       </c>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61">
+      <c r="M56" s="59"/>
+      <c r="N56" s="59">
         <v>29.412522232863498</v>
       </c>
-      <c r="O56" s="61">
+      <c r="O56" s="59">
         <f>N56/N$54</f>
         <v>0.42916377160448299</v>
       </c>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="87"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="85"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>2</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -5358,37 +5619,37 @@
       <c r="D57" s="13">
         <v>9975</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="45">
         <v>0.437</v>
       </c>
-      <c r="F57" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="54"/>
-      <c r="H57" s="113" t="s">
+      <c r="F57" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="53"/>
+      <c r="H57" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="113"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="113" t="s">
+      <c r="I57" s="111"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="113"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="113" t="s">
+      <c r="L57" s="111"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="O57" s="113"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="87">
+      <c r="O57" s="111"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>2</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -5397,44 +5658,44 @@
       <c r="D58" s="15">
         <v>4574</v>
       </c>
-      <c r="E58" s="47">
+      <c r="E58" s="46">
         <v>0.37</v>
       </c>
-      <c r="F58" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="61">
+      <c r="F58" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="53"/>
+      <c r="H58" s="59">
         <v>1144.26585045911</v>
       </c>
-      <c r="I58" s="61">
+      <c r="I58" s="59">
         <f>H58/H$54</f>
         <v>6.5438299443624661</v>
       </c>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61">
+      <c r="J58" s="59"/>
+      <c r="K58" s="59">
         <v>101.48644512461701</v>
       </c>
-      <c r="L58" s="61">
+      <c r="L58" s="59">
         <f>K58/K$54</f>
         <v>0.99971915778080778</v>
       </c>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61">
+      <c r="M58" s="59"/>
+      <c r="N58" s="59">
         <v>1069.04744206383</v>
       </c>
-      <c r="O58" s="61">
+      <c r="O58" s="59">
         <f>N58/N$54</f>
         <v>15.598676938613963</v>
       </c>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="87"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="85"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="22">
+      <c r="A59" s="21">
         <v>2</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -5443,44 +5704,44 @@
       <c r="D59" s="9">
         <v>5417255</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="47">
         <v>0.57499999999999996</v>
       </c>
-      <c r="F59" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="68">
+      <c r="F59" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="55"/>
+      <c r="H59" s="66">
         <v>219.189764426144</v>
       </c>
-      <c r="I59" s="68">
+      <c r="I59" s="66">
         <f t="shared" ref="I59:I64" si="12">H59/H$59</f>
         <v>1</v>
       </c>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68">
+      <c r="J59" s="66"/>
+      <c r="K59" s="66">
         <v>296.75099459234002</v>
       </c>
-      <c r="L59" s="68">
+      <c r="L59" s="66">
         <f t="shared" ref="L59:L64" si="13">K59/K$59</f>
         <v>1</v>
       </c>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68">
+      <c r="M59" s="66"/>
+      <c r="N59" s="66">
         <v>80.038454117219104</v>
       </c>
-      <c r="O59" s="68">
+      <c r="O59" s="66">
         <f t="shared" ref="O59:O64" si="14">N59/N$59</f>
         <v>1</v>
       </c>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="88"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="86"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="23">
+      <c r="A60" s="22">
         <v>2</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -5489,44 +5750,44 @@
       <c r="D60" s="5">
         <v>250980</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="42">
         <v>0.45600000000000002</v>
       </c>
-      <c r="F60" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="69">
+      <c r="F60" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="50"/>
+      <c r="H60" s="67">
         <v>136.990708168563</v>
       </c>
-      <c r="I60" s="69">
+      <c r="I60" s="67">
         <f t="shared" si="12"/>
         <v>0.62498679410151947</v>
       </c>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69">
+      <c r="J60" s="67"/>
+      <c r="K60" s="67">
         <v>110.67152688485</v>
       </c>
-      <c r="L60" s="69">
+      <c r="L60" s="67">
         <f t="shared" si="13"/>
         <v>0.37294408073302121</v>
       </c>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69">
+      <c r="M60" s="67"/>
+      <c r="N60" s="67">
         <v>41.364738753163898</v>
       </c>
-      <c r="O60" s="69">
+      <c r="O60" s="67">
         <f t="shared" si="14"/>
         <v>0.51681081561850006</v>
       </c>
-      <c r="P60" s="69"/>
-      <c r="Q60" s="85"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="83"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>2</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -5535,44 +5796,44 @@
       <c r="D61" s="5">
         <v>243620</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="42">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F61" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="69">
+      <c r="F61" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="50"/>
+      <c r="H61" s="67">
         <v>150.12725674975499</v>
       </c>
-      <c r="I61" s="69">
+      <c r="I61" s="67">
         <f t="shared" si="12"/>
         <v>0.68491910259952116</v>
       </c>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69">
+      <c r="J61" s="67"/>
+      <c r="K61" s="67">
         <v>160.86113570337099</v>
       </c>
-      <c r="L61" s="69">
+      <c r="L61" s="67">
         <f t="shared" si="13"/>
         <v>0.54207446187114905</v>
       </c>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69">
+      <c r="M61" s="67"/>
+      <c r="N61" s="67">
         <v>52.478047308950899</v>
       </c>
-      <c r="O61" s="69">
+      <c r="O61" s="67">
         <f t="shared" si="14"/>
         <v>0.65566043082360104</v>
       </c>
-      <c r="P61" s="69"/>
-      <c r="Q61" s="85"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="83"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>2</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -5581,44 +5842,44 @@
       <c r="D62" s="5">
         <v>31780</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="42">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="51"/>
-      <c r="H62" s="69">
+      <c r="G62" s="50"/>
+      <c r="H62" s="67">
         <v>953.630050346129</v>
       </c>
-      <c r="I62" s="69">
+      <c r="I62" s="67">
         <f t="shared" si="12"/>
         <v>4.3507052112711895</v>
       </c>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69">
+      <c r="J62" s="67"/>
+      <c r="K62" s="67">
         <v>239.71834487098801</v>
       </c>
-      <c r="L62" s="69">
+      <c r="L62" s="67">
         <f t="shared" si="13"/>
         <v>0.80780974365494451</v>
       </c>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69">
+      <c r="M62" s="67"/>
+      <c r="N62" s="67">
         <v>399.10113278791601</v>
       </c>
-      <c r="O62" s="69">
+      <c r="O62" s="67">
         <f t="shared" si="14"/>
         <v>4.9863673304261784</v>
       </c>
-      <c r="P62" s="69"/>
-      <c r="Q62" s="85"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="83"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>2</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -5627,44 +5888,44 @@
       <c r="D63" s="5">
         <v>5783</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="42">
         <v>0.47399999999999998</v>
       </c>
-      <c r="F63" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="51"/>
-      <c r="H63" s="69">
+      <c r="F63" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="50"/>
+      <c r="H63" s="67">
         <v>2942.0133148884602</v>
       </c>
-      <c r="I63" s="69">
+      <c r="I63" s="67">
         <f t="shared" si="12"/>
         <v>13.422220342226664</v>
       </c>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69">
+      <c r="J63" s="67"/>
+      <c r="K63" s="67">
         <v>312.99913539685201</v>
       </c>
-      <c r="L63" s="69">
+      <c r="L63" s="67">
         <f t="shared" si="13"/>
         <v>1.0547534502010103</v>
       </c>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69">
+      <c r="M63" s="67"/>
+      <c r="N63" s="67">
         <v>749.06259726785402</v>
       </c>
-      <c r="O63" s="69">
+      <c r="O63" s="67">
         <f t="shared" si="14"/>
         <v>9.3587839186752131</v>
       </c>
-      <c r="P63" s="69"/>
-      <c r="Q63" s="85"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="83"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>2</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -5673,44 +5934,44 @@
       <c r="D64" s="7">
         <v>3514</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="43">
         <v>0.54400000000000004</v>
       </c>
-      <c r="F64" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="70">
+      <c r="F64" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="51"/>
+      <c r="H64" s="68">
         <v>1927.20688673875</v>
       </c>
-      <c r="I64" s="70">
+      <c r="I64" s="68">
         <f t="shared" si="12"/>
         <v>8.7924127834359815</v>
       </c>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70">
+      <c r="J64" s="68"/>
+      <c r="K64" s="68">
         <v>329.99317017643699</v>
       </c>
-      <c r="L64" s="70">
+      <c r="L64" s="68">
         <f t="shared" si="13"/>
         <v>1.1120204352803036</v>
       </c>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70">
+      <c r="M64" s="68"/>
+      <c r="N64" s="68">
         <v>1133.0455321570801</v>
       </c>
-      <c r="O64" s="70">
+      <c r="O64" s="68">
         <f t="shared" si="14"/>
         <v>14.156264568749609</v>
       </c>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="86"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="84"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="20">
+      <c r="A65" s="19">
         <v>2</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -5719,44 +5980,44 @@
       <c r="D65" s="11">
         <v>5518076</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="44">
         <v>0.59099999999999997</v>
       </c>
-      <c r="F65" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="61">
+      <c r="F65" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="53"/>
+      <c r="H65" s="59">
         <v>95.199023576647505</v>
       </c>
-      <c r="I65" s="61">
+      <c r="I65" s="59">
         <f>H65/H$65</f>
         <v>1</v>
       </c>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61">
+      <c r="J65" s="59"/>
+      <c r="K65" s="59">
         <v>159.96850187865701</v>
       </c>
-      <c r="L65" s="61">
+      <c r="L65" s="59">
         <f>K65/K$65</f>
         <v>1</v>
       </c>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61">
+      <c r="M65" s="59"/>
+      <c r="N65" s="59">
         <v>39.537010936898803</v>
       </c>
-      <c r="O65" s="61">
+      <c r="O65" s="59">
         <f>N65/N$65</f>
         <v>1</v>
       </c>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="87"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="85"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>2</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -5765,44 +6026,44 @@
       <c r="D66" s="13">
         <v>184477</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="45">
         <v>0.52900000000000003</v>
       </c>
-      <c r="F66" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="54"/>
-      <c r="H66" s="61">
+      <c r="F66" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="53"/>
+      <c r="H66" s="59">
         <v>317.598733278559</v>
       </c>
-      <c r="I66" s="61">
+      <c r="I66" s="59">
         <f>H66/H$65</f>
         <v>3.3361553653210634</v>
       </c>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61">
+      <c r="J66" s="59"/>
+      <c r="K66" s="59">
         <v>854.67347622504201</v>
       </c>
-      <c r="L66" s="61">
+      <c r="L66" s="59">
         <f>K66/K$65</f>
         <v>5.3427610197496795</v>
       </c>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61">
+      <c r="M66" s="59"/>
+      <c r="N66" s="59">
         <v>131.35693147100801</v>
       </c>
-      <c r="O66" s="61">
+      <c r="O66" s="59">
         <f>N66/N$65</f>
         <v>3.322378914295117</v>
       </c>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="87"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="85"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>2</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -5811,44 +6072,44 @@
       <c r="D67" s="13">
         <v>161385</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="45">
         <v>0.52100000000000002</v>
       </c>
-      <c r="F67" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="54"/>
-      <c r="H67" s="61">
+      <c r="F67" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="53"/>
+      <c r="H67" s="59">
         <v>126.42915681205599</v>
       </c>
-      <c r="I67" s="61">
+      <c r="I67" s="59">
         <f>H67/H$65</f>
         <v>1.3280509826895881</v>
       </c>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61">
+      <c r="J67" s="59"/>
+      <c r="K67" s="59">
         <v>251.28423216544701</v>
       </c>
-      <c r="L67" s="61">
+      <c r="L67" s="59">
         <f>K67/K$65</f>
         <v>1.5708356908665488</v>
       </c>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61">
+      <c r="M67" s="59"/>
+      <c r="N67" s="59">
         <v>60.811217754798903</v>
       </c>
-      <c r="O67" s="61">
+      <c r="O67" s="59">
         <f>N67/N$65</f>
         <v>1.5380833379603178</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="87"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="85"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>2</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -5857,86 +6118,86 @@
       <c r="D68" s="13">
         <v>17406</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E68" s="45">
         <v>0.58899999999999997</v>
       </c>
-      <c r="F68" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="54"/>
-      <c r="H68" s="61">
+      <c r="F68" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="53"/>
+      <c r="H68" s="59">
         <v>10321.175922137099</v>
       </c>
-      <c r="I68" s="61">
+      <c r="I68" s="59">
         <f>H68/H$65</f>
         <v>108.41682545018143</v>
       </c>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61">
+      <c r="J68" s="59"/>
+      <c r="K68" s="59">
         <v>3758.8923321460502</v>
       </c>
-      <c r="L68" s="61">
+      <c r="L68" s="59">
         <f>K68/K$65</f>
         <v>23.497702910272498</v>
       </c>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61">
+      <c r="M68" s="59"/>
+      <c r="N68" s="59">
         <v>2513.6598748726801</v>
       </c>
-      <c r="O68" s="61">
+      <c r="O68" s="59">
         <f>N68/N$65</f>
         <v>63.577387751554852</v>
       </c>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="87">
+      <c r="P68" s="59"/>
+      <c r="Q68" s="85">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="62">
+      <c r="A69" s="60">
         <v>2</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="64">
+      <c r="D69" s="62">
         <v>1934</v>
       </c>
-      <c r="E69" s="65">
+      <c r="E69" s="63">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F69" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="66"/>
-      <c r="H69" s="67">
+      <c r="F69" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="64"/>
+      <c r="H69" s="65">
         <v>11371.6618407445</v>
       </c>
-      <c r="I69" s="67">
+      <c r="I69" s="65">
         <f>H69/H$65</f>
         <v>119.45145457914118</v>
       </c>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67">
+      <c r="J69" s="65"/>
+      <c r="K69" s="65">
         <v>989.57290589451895</v>
       </c>
-      <c r="L69" s="67">
+      <c r="L69" s="65">
         <f>K69/K$65</f>
         <v>6.1860484674986367</v>
       </c>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67">
+      <c r="M69" s="65"/>
+      <c r="N69" s="65">
         <v>5410.4891416752798</v>
       </c>
-      <c r="O69" s="67">
+      <c r="O69" s="65">
         <f>N69/N$65</f>
         <v>136.84618572482472</v>
       </c>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="89"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5948,9 +6209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A101B099-DDED-4845-A32C-10E60988ADF6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5959,43 +6218,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="107" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="108">
-        <v>1</v>
-      </c>
-      <c r="B2" s="120" t="s">
-        <v>76</v>
+      <c r="A2" s="106">
+        <v>1</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="119">
+      <c r="A3" s="117">
         <v>2</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="119" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="119">
+      <c r="A4" s="117">
         <v>3</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="119" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122">
+      <c r="A5" s="120">
         <v>4</v>
       </c>
-      <c r="B5" s="123" t="s">
-        <v>75</v>
+      <c r="B5" s="121" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F6949-DBDC-8D47-8B92-838C3CA7BFB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09EF64-EC64-4B40-A49E-E4BE99519CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="-27080" windowWidth="35520" windowHeight="25160" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="1440" yWindow="-27560" windowWidth="35520" windowHeight="25160" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Since not all runs lasted the same time and some involved refueling, this column shows the yield of only the first 12 hours of sequencing.</t>
+    Since not all runs lasted the same time and some involved refuelling, this column shows the yield of only the first 12 hours of sequencing. This allows for easier comparison of run yields.</t>
       </text>
     </comment>
     <comment ref="H1" authorId="2" shapeId="0" xr:uid="{1BCA6B03-9B93-2745-B715-C3D66DE583A1}">
@@ -120,7 +120,35 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={0A0896FA-E917-9B46-A4F1-1EC9E3225999}</author>
+    <author>tc={9CBC07C7-BCD3-4A4E-930D-917AEB118324}</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0A0896FA-E917-9B46-A4F1-1EC9E3225999}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Determined computationally by aligning the reads to the assembly and taking the insert sizes from the resulting BAM file.</t>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="1" shapeId="0" xr:uid="{9CBC07C7-BCD3-4A4E-930D-917AEB118324}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Determined computationally by aligning the reads to the assembly and taking the insert sizes from the resulting BAM file.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={A4FEB2D8-86B2-C243-B0A2-060A3B2D97BF}</author>
+    <author>tc={0672B199-9508-F641-9015-B2DD53AAB038}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A4FEB2D8-86B2-C243-B0A2-060A3B2D97BF}">
@@ -128,8 +156,17 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Since the two technical replicates used separate cultures and DNA extractions, per-replicon read depth values are specific to the technical replicate.
+    Technical replicate 1 includes ligation run 1 and rapid run 1. Technical replicate 2 includes ligation run 2 and rapid run 2.
+Since the two technical replicates used separate cultures and DNA extractions, per-replicon read depth values are specific to the technical replicate.
 For example, the depth of A. baumannii J9 plasmid_1 could be different in the two replicates and therefore needs two separate lines in this table.</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{0672B199-9508-F641-9015-B2DD53AAB038}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See the ‘Notes’ worksheet for detailed explanations.</t>
       </text>
     </comment>
   </commentList>
@@ -778,7 +815,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -828,6 +865,12 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1750,7 +1793,7 @@
     <text>This is the total yield of the run, including reads from all barcodes (even unused ones) and unclassified reads.</text>
   </threadedComment>
   <threadedComment ref="C1" dT="2020-10-08T23:17:29.04" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{0F82EF9B-2018-3449-9FDD-397D5647740F}">
-    <text>Since not all runs lasted the same time and some involved refueling, this column shows the yield of only the first 12 hours of sequencing.</text>
+    <text>Since not all runs lasted the same time and some involved refuelling, this column shows the yield of only the first 12 hours of sequencing. This allows for easier comparison of run yields.</text>
   </threadedComment>
   <threadedComment ref="H1" dT="2020-10-02T00:41:34.42" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{1BCA6B03-9B93-2745-B715-C3D66DE583A1}">
     <text>This is the fraction of reads that are chimeras within a single barcode bin. For example, a read which is half from a chromosome and half from a plasmid of the same genome.</text>
@@ -1775,9 +1818,24 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P1" dT="2021-02-01T00:52:24.46" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{0A0896FA-E917-9B46-A4F1-1EC9E3225999}">
+    <text>Determined computationally by aligning the reads to the assembly and taking the insert sizes from the resulting BAM file.</text>
+  </threadedComment>
+  <threadedComment ref="AC1" dT="2021-02-01T00:52:29.17" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{9CBC07C7-BCD3-4A4E-930D-917AEB118324}">
+    <text>Determined computationally by aligning the reads to the assembly and taking the insert sizes from the resulting BAM file.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2020-10-02T00:49:59.97" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{A4FEB2D8-86B2-C243-B0A2-060A3B2D97BF}">
-    <text>Since the two technical replicates used separate cultures and DNA extractions, per-replicon read depth values are specific to the technical replicate.
+    <text>Technical replicate 1 includes ligation run 1 and rapid run 1. Technical replicate 2 includes ligation run 2 and rapid run 2.
+Since the two technical replicates used separate cultures and DNA extractions, per-replicon read depth values are specific to the technical replicate.
 For example, the depth of A. baumannii J9 plasmid_1 could be different in the two replicates and therefore needs two separate lines in this table.</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2021-02-01T00:54:15.32" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{0672B199-9508-F641-9015-B2DD53AAB038}">
+    <text>See the ‘Notes’ worksheet for detailed explanations.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2038,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45BD62-7DEE-0740-97DB-27A0DE7F03FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45BD62-7DEE-0740-97DB-27A0DE7F03FC}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3031,6 +3089,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/GitHub_repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/Paper_GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09EF64-EC64-4B40-A49E-E4BE99519CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C36DDB-5118-E444-B125-697ADDA2600E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="-27560" windowWidth="35520" windowHeight="25160" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="Per-barcode" sheetId="1" r:id="rId3"/>
     <sheet name="Per-replicon" sheetId="2" r:id="rId4"/>
     <sheet name="Notes" sheetId="4" r:id="rId5"/>
+    <sheet name="Kleborate results" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="143">
   <si>
     <t>Genome</t>
   </si>
@@ -805,6 +806,221 @@
       <t xml:space="preserve"> worksheet, e.g. a reason for exclusion.</t>
     </r>
   </si>
+  <si>
+    <t>Acinetobacter_baumannii_J9__006078</t>
+  </si>
+  <si>
+    <t>ant(2'')-Ia*</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Acinetobacter_baumannii_J9__145059</t>
+  </si>
+  <si>
+    <t>mphE.v2;msrE</t>
+  </si>
+  <si>
+    <t>floR.v2*</t>
+  </si>
+  <si>
+    <t>sul2^</t>
+  </si>
+  <si>
+    <t>ADC-10*</t>
+  </si>
+  <si>
+    <t>Citrobacter_koseri_MINF_9D__009294</t>
+  </si>
+  <si>
+    <t>Citrobacter_koseri_MINF_9D__064962</t>
+  </si>
+  <si>
+    <t>CTX-M-15</t>
+  </si>
+  <si>
+    <t>TEM-141*?-0%</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__002369</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__003715</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__004665</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__108411</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__136482</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__005675</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__007392</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__009975</t>
+  </si>
+  <si>
+    <t>TEM-1D.v1^</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__010719</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__039398</t>
+  </si>
+  <si>
+    <t>Klebsiella_oxytoca_MSB1_2C__004574</t>
+  </si>
+  <si>
+    <t>Klebsiella_oxytoca_MSB1_2C__009975</t>
+  </si>
+  <si>
+    <t>Klebsiella_oxytoca_MSB1_2C__058472</t>
+  </si>
+  <si>
+    <t>Klebsiella_oxytoca_MSB1_2C__118161</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__003514</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__005783</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__031780</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__243620</t>
+  </si>
+  <si>
+    <t>aac(6')-Ib-cr.v2;strA.v1^;strB.v1</t>
+  </si>
+  <si>
+    <t>qnrB1.v2^</t>
+  </si>
+  <si>
+    <t>CatB4.v1</t>
+  </si>
+  <si>
+    <t>sul2</t>
+  </si>
+  <si>
+    <t>tet(A).v1</t>
+  </si>
+  <si>
+    <t>dfrA14.v2*</t>
+  </si>
+  <si>
+    <t>OXA-1;TEM-1D.v1^</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__250980</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__001934</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__017406</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__161385</t>
+  </si>
+  <si>
+    <t>aac(6')-Ib4</t>
+  </si>
+  <si>
+    <t>catB3.v2</t>
+  </si>
+  <si>
+    <t>sul1</t>
+  </si>
+  <si>
+    <t>IMP-4</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__184477</t>
+  </si>
+  <si>
+    <t>Plasmid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kleborate results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet contains the Kleborate gene search results for each plasmid, with empty columns removed. Any plasmid which contains at least one resistance gene is highlighted in yellow.</t>
+    </r>
+  </si>
+  <si>
+    <t>resistance score</t>
+  </si>
+  <si>
+    <t>num resistance classes</t>
+  </si>
+  <si>
+    <t>num resistance genes</t>
+  </si>
+  <si>
+    <t>AGly acquired</t>
+  </si>
+  <si>
+    <t>Flq acquired</t>
+  </si>
+  <si>
+    <t>MLS acquired</t>
+  </si>
+  <si>
+    <t>Phe acquired</t>
+  </si>
+  <si>
+    <t>Sul acquired</t>
+  </si>
+  <si>
+    <t>Tet acquired</t>
+  </si>
+  <si>
+    <t>Tmt acquired</t>
+  </si>
+  <si>
+    <t>Bla acquired</t>
+  </si>
+  <si>
+    <t>Bla inhR acquired</t>
+  </si>
+  <si>
+    <t>Bla ESBL acquired</t>
+  </si>
+  <si>
+    <t>Bla Carb acquired</t>
+  </si>
+  <si>
+    <t>truncated resistance hits</t>
+  </si>
 </sst>
 </file>
 
@@ -868,13 +1084,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,8 +1116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1113,11 +1336,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1462,6 +1718,28 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0DFF7C-C846-D14B-915D-C0573D580EBA}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1864,6 +2142,11 @@
     <row r="5" spans="1:1" ht="134" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6319,4 +6602,1429 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D58F08-71C4-B940-847D-1372352C8926}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="176" customFormat="1" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="175" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="173" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="174">
+        <v>0</v>
+      </c>
+      <c r="C2" s="174">
+        <v>1</v>
+      </c>
+      <c r="D2" s="174">
+        <v>1</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="174" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="169" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="170">
+        <v>1</v>
+      </c>
+      <c r="C3" s="170">
+        <v>4</v>
+      </c>
+      <c r="D3" s="170">
+        <v>5</v>
+      </c>
+      <c r="E3" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="170" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="170" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="168">
+        <v>0</v>
+      </c>
+      <c r="C4" s="168">
+        <v>0</v>
+      </c>
+      <c r="D4" s="168">
+        <v>0</v>
+      </c>
+      <c r="E4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="170">
+        <v>1</v>
+      </c>
+      <c r="C5" s="170">
+        <v>1</v>
+      </c>
+      <c r="D5" s="170">
+        <v>1</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="170" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="167" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="168">
+        <v>0</v>
+      </c>
+      <c r="C6" s="168">
+        <v>0</v>
+      </c>
+      <c r="D6" s="168">
+        <v>0</v>
+      </c>
+      <c r="E6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="168">
+        <v>0</v>
+      </c>
+      <c r="C7" s="168">
+        <v>0</v>
+      </c>
+      <c r="D7" s="168">
+        <v>0</v>
+      </c>
+      <c r="E7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="168">
+        <v>0</v>
+      </c>
+      <c r="C8" s="168">
+        <v>0</v>
+      </c>
+      <c r="D8" s="168">
+        <v>0</v>
+      </c>
+      <c r="E8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="167" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="168">
+        <v>0</v>
+      </c>
+      <c r="C9" s="168">
+        <v>0</v>
+      </c>
+      <c r="D9" s="168">
+        <v>0</v>
+      </c>
+      <c r="E9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="168">
+        <v>0</v>
+      </c>
+      <c r="C10" s="168">
+        <v>0</v>
+      </c>
+      <c r="D10" s="168">
+        <v>0</v>
+      </c>
+      <c r="E10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="167" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="168">
+        <v>0</v>
+      </c>
+      <c r="C11" s="168">
+        <v>0</v>
+      </c>
+      <c r="D11" s="168">
+        <v>0</v>
+      </c>
+      <c r="E11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="167" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="168">
+        <v>0</v>
+      </c>
+      <c r="C12" s="168">
+        <v>0</v>
+      </c>
+      <c r="D12" s="168">
+        <v>0</v>
+      </c>
+      <c r="E12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="169" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="170">
+        <v>0</v>
+      </c>
+      <c r="C13" s="170">
+        <v>1</v>
+      </c>
+      <c r="D13" s="170">
+        <v>1</v>
+      </c>
+      <c r="E13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="170" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="168">
+        <v>0</v>
+      </c>
+      <c r="C14" s="168">
+        <v>0</v>
+      </c>
+      <c r="D14" s="168">
+        <v>0</v>
+      </c>
+      <c r="E14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="167" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="168">
+        <v>0</v>
+      </c>
+      <c r="C15" s="168">
+        <v>0</v>
+      </c>
+      <c r="D15" s="168">
+        <v>0</v>
+      </c>
+      <c r="E15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="168">
+        <v>0</v>
+      </c>
+      <c r="C16" s="168">
+        <v>0</v>
+      </c>
+      <c r="D16" s="168">
+        <v>0</v>
+      </c>
+      <c r="E16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="170">
+        <v>0</v>
+      </c>
+      <c r="C17" s="170">
+        <v>1</v>
+      </c>
+      <c r="D17" s="170">
+        <v>1</v>
+      </c>
+      <c r="E17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="170" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="168">
+        <v>0</v>
+      </c>
+      <c r="C18" s="168">
+        <v>0</v>
+      </c>
+      <c r="D18" s="168">
+        <v>0</v>
+      </c>
+      <c r="E18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="168">
+        <v>0</v>
+      </c>
+      <c r="C19" s="168">
+        <v>0</v>
+      </c>
+      <c r="D19" s="168">
+        <v>0</v>
+      </c>
+      <c r="E19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="167" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="168">
+        <v>0</v>
+      </c>
+      <c r="C20" s="168">
+        <v>0</v>
+      </c>
+      <c r="D20" s="168">
+        <v>0</v>
+      </c>
+      <c r="E20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="167" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="168">
+        <v>0</v>
+      </c>
+      <c r="C21" s="168">
+        <v>0</v>
+      </c>
+      <c r="D21" s="168">
+        <v>0</v>
+      </c>
+      <c r="E21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="168">
+        <v>0</v>
+      </c>
+      <c r="C22" s="168">
+        <v>0</v>
+      </c>
+      <c r="D22" s="168">
+        <v>0</v>
+      </c>
+      <c r="E22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="170">
+        <v>1</v>
+      </c>
+      <c r="C23" s="170">
+        <v>8</v>
+      </c>
+      <c r="D23" s="170">
+        <v>11</v>
+      </c>
+      <c r="E23" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="170" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="170" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="170" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="168">
+        <v>0</v>
+      </c>
+      <c r="C24" s="168">
+        <v>0</v>
+      </c>
+      <c r="D24" s="168">
+        <v>0</v>
+      </c>
+      <c r="E24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="167" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="168">
+        <v>0</v>
+      </c>
+      <c r="C25" s="168">
+        <v>0</v>
+      </c>
+      <c r="D25" s="168">
+        <v>0</v>
+      </c>
+      <c r="E25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="167" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="168">
+        <v>0</v>
+      </c>
+      <c r="C26" s="168">
+        <v>0</v>
+      </c>
+      <c r="D26" s="168">
+        <v>0</v>
+      </c>
+      <c r="E26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="170">
+        <v>2</v>
+      </c>
+      <c r="C27" s="170">
+        <v>5</v>
+      </c>
+      <c r="D27" s="170">
+        <v>5</v>
+      </c>
+      <c r="E27" s="170" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="170" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="171" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="172">
+        <v>0</v>
+      </c>
+      <c r="C28" s="172">
+        <v>1</v>
+      </c>
+      <c r="D28" s="172">
+        <v>1</v>
+      </c>
+      <c r="E28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="172" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="172" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/Paper_GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C36DDB-5118-E444-B125-697ADDA2600E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44FBEC0-9B3A-E841-AE48-3138C650F3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-27560" windowWidth="35520" windowHeight="25160" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="-6240" yWindow="-26900" windowWidth="29500" windowHeight="23660" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="137">
   <si>
     <t>Genome</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>Ligation (run 2) read N50</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <r>
@@ -620,92 +617,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>. While they were included separately in the assembly file (as plasmid_3_v1 and plasmid_3_v2), their depths were summed together for this table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Haemophilus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MSB1_2C plasmid_3 and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Klebsiella oxytoca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MSB1_2C plasmid_3 had identical sequences and it was therefore impossible to tell whether a read originated from one or the other. Read depths are therefore not available for these plasmids. I suspect that the plasmid truly belongs to the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Haemophilus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MSB1_2C genome and appeared in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Klebsiella oxytoca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MSB1_2C genome due to cross-barcode contamination.</t>
     </r>
   </si>
   <si>
@@ -807,18 +718,12 @@
     </r>
   </si>
   <si>
-    <t>Acinetobacter_baumannii_J9__006078</t>
-  </si>
-  <si>
     <t>ant(2'')-Ia*</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Acinetobacter_baumannii_J9__145059</t>
-  </si>
-  <si>
     <t>mphE.v2;msrE</t>
   </si>
   <si>
@@ -831,75 +736,15 @@
     <t>ADC-10*</t>
   </si>
   <si>
-    <t>Citrobacter_koseri_MINF_9D__009294</t>
-  </si>
-  <si>
-    <t>Citrobacter_koseri_MINF_9D__064962</t>
-  </si>
-  <si>
     <t>CTX-M-15</t>
   </si>
   <si>
     <t>TEM-141*?-0%</t>
   </si>
   <si>
-    <t>Enterobacter_kobei_MSB1_1B__002369</t>
-  </si>
-  <si>
-    <t>Enterobacter_kobei_MSB1_1B__003715</t>
-  </si>
-  <si>
-    <t>Enterobacter_kobei_MSB1_1B__004665</t>
-  </si>
-  <si>
-    <t>Enterobacter_kobei_MSB1_1B__108411</t>
-  </si>
-  <si>
-    <t>Enterobacter_kobei_MSB1_1B__136482</t>
-  </si>
-  <si>
-    <t>Haemophilus_unknown_M1C132_1__005675</t>
-  </si>
-  <si>
-    <t>Haemophilus_unknown_M1C132_1__007392</t>
-  </si>
-  <si>
-    <t>Haemophilus_unknown_M1C132_1__009975</t>
-  </si>
-  <si>
     <t>TEM-1D.v1^</t>
   </si>
   <si>
-    <t>Haemophilus_unknown_M1C132_1__010719</t>
-  </si>
-  <si>
-    <t>Haemophilus_unknown_M1C132_1__039398</t>
-  </si>
-  <si>
-    <t>Klebsiella_oxytoca_MSB1_2C__004574</t>
-  </si>
-  <si>
-    <t>Klebsiella_oxytoca_MSB1_2C__009975</t>
-  </si>
-  <si>
-    <t>Klebsiella_oxytoca_MSB1_2C__058472</t>
-  </si>
-  <si>
-    <t>Klebsiella_oxytoca_MSB1_2C__118161</t>
-  </si>
-  <si>
-    <t>Klebsiella_variicola_INF345__003514</t>
-  </si>
-  <si>
-    <t>Klebsiella_variicola_INF345__005783</t>
-  </si>
-  <si>
-    <t>Klebsiella_variicola_INF345__031780</t>
-  </si>
-  <si>
-    <t>Klebsiella_variicola_INF345__243620</t>
-  </si>
-  <si>
     <t>aac(6')-Ib-cr.v2;strA.v1^;strB.v1</t>
   </si>
   <si>
@@ -921,18 +766,6 @@
     <t>OXA-1;TEM-1D.v1^</t>
   </si>
   <si>
-    <t>Klebsiella_variicola_INF345__250980</t>
-  </si>
-  <si>
-    <t>Serratia_marcescens_17-147-1671__001934</t>
-  </si>
-  <si>
-    <t>Serratia_marcescens_17-147-1671__017406</t>
-  </si>
-  <si>
-    <t>Serratia_marcescens_17-147-1671__161385</t>
-  </si>
-  <si>
     <t>aac(6')-Ib4</t>
   </si>
   <si>
@@ -943,9 +776,6 @@
   </si>
   <si>
     <t>IMP-4</t>
-  </si>
-  <si>
-    <t>Serratia_marcescens_17-147-1671__184477</t>
   </si>
   <si>
     <t>Plasmid</t>
@@ -977,15 +807,6 @@
     </r>
   </si>
   <si>
-    <t>resistance score</t>
-  </si>
-  <si>
-    <t>num resistance classes</t>
-  </si>
-  <si>
-    <t>num resistance genes</t>
-  </si>
-  <si>
     <t>AGly acquired</t>
   </si>
   <si>
@@ -1020,6 +841,84 @@
   </si>
   <si>
     <t>truncated resistance hits</t>
+  </si>
+  <si>
+    <t>Acinetobacter_baumannii_J9__plasmid_1__145059</t>
+  </si>
+  <si>
+    <t>Acinetobacter_baumannii_J9__plasmid_2__006078</t>
+  </si>
+  <si>
+    <t>Citrobacter_koseri_MINF_9D__plasmid_1__064962</t>
+  </si>
+  <si>
+    <t>Citrobacter_koseri_MINF_9D__plasmid_2__009294</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__plasmid_1__136482</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__plasmid_2__108411</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__plasmid_3__004665</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__plasmid_4__003715</t>
+  </si>
+  <si>
+    <t>Enterobacter_kobei_MSB1_1B__plasmid_5__002369</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__plasmid_1__039398</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__plasmid_2__010719</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__plasmid_3__009975</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__plasmid_4__007392</t>
+  </si>
+  <si>
+    <t>Haemophilus_unknown_M1C132_1__plasmid_5__005675</t>
+  </si>
+  <si>
+    <t>Klebsiella_oxytoca_MSB1_2C__plasmid_1__118161</t>
+  </si>
+  <si>
+    <t>Klebsiella_oxytoca_MSB1_2C__plasmid_2__058472</t>
+  </si>
+  <si>
+    <t>Klebsiella_oxytoca_MSB1_2C__plasmid_3__004574</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__plasmid_1__250980</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__plasmid_2__243620</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__plasmid_3__031780</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__plasmid_4__005783</t>
+  </si>
+  <si>
+    <t>Klebsiella_variicola_INF345__plasmid_5__003514</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__plasmid_1__184477</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__plasmid_2__161385</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__plasmid_3__017406</t>
+  </si>
+  <si>
+    <t>Serratia_marcescens_17-147-1671__plasmid_4__001934</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1486,9 +1385,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1503,15 +1399,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1576,32 +1463,11 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1727,10 +1593,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1740,6 +1602,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,27 +2006,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.1640625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="86.1640625" style="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="88" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="84" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="110" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
-        <v>77</v>
+      <c r="A3" s="84" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="134" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
-        <v>78</v>
+      <c r="A5" s="84" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>127</v>
+      <c r="A7" s="84" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2164,9 +2044,9 @@
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="137" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="124" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="68" customWidth="1"/>
     <col min="8" max="10" width="11.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="1.6640625" style="30" customWidth="1"/>
     <col min="12" max="14" width="13.1640625" style="30" customWidth="1"/>
@@ -2180,195 +2060,195 @@
         <v>37</v>
       </c>
       <c r="C1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="87">
+        <v>15216230865</v>
+      </c>
+      <c r="C2" s="87">
+        <v>4850016274</v>
+      </c>
+      <c r="D2" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="91">
-        <v>15216230865</v>
-      </c>
-      <c r="C2" s="91">
-        <v>4850016274</v>
-      </c>
-      <c r="D2" s="128" t="s">
+      <c r="E2" s="120">
+        <v>71.976050000000001</v>
+      </c>
+      <c r="F2" s="87">
+        <v>8161</v>
+      </c>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89">
+        <v>4.4734140000000002E-3</v>
+      </c>
+      <c r="I2" s="89">
+        <v>9.7303830000000004E-3</v>
+      </c>
+      <c r="J2" s="89">
+        <v>1.4080479999999999E-2</v>
+      </c>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89">
+        <v>6.6381580000000004E-6</v>
+      </c>
+      <c r="M2" s="89">
+        <v>2.2154E-2</v>
+      </c>
+      <c r="N2" s="89">
+        <v>2.2160639999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="95">
+        <v>8029266526</v>
+      </c>
+      <c r="C3" s="95">
+        <v>4710579925</v>
+      </c>
+      <c r="D3" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="133">
-        <v>71.976050000000001</v>
-      </c>
-      <c r="F2" s="91">
-        <v>8161</v>
-      </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93">
-        <v>4.4734140000000002E-3</v>
-      </c>
-      <c r="I2" s="93">
-        <v>9.7303830000000004E-3</v>
-      </c>
-      <c r="J2" s="93">
-        <v>1.4080479999999999E-2</v>
-      </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93">
-        <v>6.6381580000000004E-6</v>
-      </c>
-      <c r="M2" s="93">
-        <v>2.2154E-2</v>
-      </c>
-      <c r="N2" s="93">
-        <v>2.2160639999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="99">
-        <v>8029266526</v>
-      </c>
-      <c r="C3" s="99">
-        <v>4710579925</v>
-      </c>
-      <c r="D3" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="134">
+      <c r="E3" s="121">
         <v>23.398420000000002</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="95">
         <v>20880</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101">
+      <c r="G3" s="96"/>
+      <c r="H3" s="97">
         <v>6.1047330000000002E-3</v>
       </c>
-      <c r="I3" s="101">
+      <c r="I3" s="97">
         <v>2.8815329999999999E-3</v>
       </c>
-      <c r="J3" s="101">
+      <c r="J3" s="97">
         <v>8.7639769999999992E-3</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101">
+      <c r="K3" s="97"/>
+      <c r="L3" s="97">
         <v>6.252016E-6</v>
       </c>
-      <c r="M3" s="101">
+      <c r="M3" s="97">
         <v>2.9251929999999999E-2</v>
       </c>
-      <c r="N3" s="101">
+      <c r="N3" s="97">
         <v>2.925819E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="91">
         <v>4323314688</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="91">
         <v>2511583902</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="122">
+        <v>71.974819999999994</v>
+      </c>
+      <c r="F4" s="91">
+        <v>11874</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93">
+        <v>1.5235920000000001E-4</v>
+      </c>
+      <c r="I4" s="93">
+        <v>2.3052620000000001E-4</v>
+      </c>
+      <c r="J4" s="93">
+        <v>3.4446439999999997E-4</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93">
+        <v>5.6571279999999995E-4</v>
+      </c>
+      <c r="M4" s="93">
+        <v>3.3300320000000001E-3</v>
+      </c>
+      <c r="N4" s="93">
+        <v>3.8957449999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="99">
+        <v>9594730471</v>
+      </c>
+      <c r="C5" s="99">
+        <v>6016454988</v>
+      </c>
+      <c r="D5" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="135">
-        <v>71.974819999999994</v>
-      </c>
-      <c r="F4" s="95">
-        <v>11874</v>
-      </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97">
-        <v>1.5235920000000001E-4</v>
-      </c>
-      <c r="I4" s="97">
-        <v>2.3052620000000001E-4</v>
-      </c>
-      <c r="J4" s="97">
-        <v>3.4446439999999997E-4</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97">
-        <v>5.6571279999999995E-4</v>
-      </c>
-      <c r="M4" s="97">
-        <v>3.3300320000000001E-3</v>
-      </c>
-      <c r="N4" s="97">
-        <v>3.8957449999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="103">
-        <v>9594730471</v>
-      </c>
-      <c r="C5" s="103">
-        <v>6016454988</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="136">
+      <c r="E5" s="123">
         <v>20.429400000000001</v>
       </c>
-      <c r="F5" s="103">
+      <c r="F5" s="99">
         <v>12672</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="105">
+      <c r="G5" s="100"/>
+      <c r="H5" s="101">
         <v>2.6588410000000001E-4</v>
       </c>
-      <c r="I5" s="105">
+      <c r="I5" s="101">
         <v>1.1255519999999999E-3</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="101">
         <v>1.3550820000000001E-3</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105">
+      <c r="K5" s="101"/>
+      <c r="L5" s="101">
         <v>5.8573369999999998E-4</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="101">
         <v>3.8229289999999999E-2</v>
       </c>
-      <c r="N5" s="105">
+      <c r="N5" s="101">
         <v>3.881503E-2</v>
       </c>
     </row>
@@ -2426,7 +2306,7 @@
       <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="165"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="28" t="s">
         <v>47</v>
       </c>
@@ -2436,7 +2316,7 @@
       <c r="G1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="166"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="28" t="s">
         <v>50</v>
       </c>
@@ -2446,20 +2326,20 @@
       <c r="K1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="166"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>70</v>
-      </c>
       <c r="P1" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="165"/>
+        <v>73</v>
+      </c>
+      <c r="Q1" s="152"/>
       <c r="R1" s="28" t="s">
         <v>53</v>
       </c>
@@ -2469,7 +2349,7 @@
       <c r="T1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="166"/>
+      <c r="U1" s="153"/>
       <c r="V1" s="28" t="s">
         <v>56</v>
       </c>
@@ -2479,18 +2359,18 @@
       <c r="X1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="166"/>
+      <c r="Y1" s="153"/>
       <c r="Z1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>68</v>
-      </c>
       <c r="AC1" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -2500,31 +2380,31 @@
       <c r="B2" s="18">
         <v>3949783</v>
       </c>
-      <c r="C2" s="156">
-        <v>1</v>
-      </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="138">
+      <c r="C2" s="143">
+        <v>1</v>
+      </c>
+      <c r="D2" s="140"/>
+      <c r="E2" s="125">
         <v>8352</v>
       </c>
       <c r="F2" s="18">
         <v>95624615</v>
       </c>
-      <c r="G2" s="145">
+      <c r="G2" s="132">
         <v>22453</v>
       </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="140">
+      <c r="H2" s="150"/>
+      <c r="I2" s="127">
         <v>535717</v>
       </c>
       <c r="J2" s="57">
         <v>2851578003</v>
       </c>
-      <c r="K2" s="147">
+      <c r="K2" s="134">
         <v>14690</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="140">
+      <c r="L2" s="150"/>
+      <c r="M2" s="127">
         <v>6230452</v>
       </c>
       <c r="N2" s="57">
@@ -2533,31 +2413,31 @@
       <c r="O2" s="57">
         <v>149</v>
       </c>
-      <c r="P2" s="147">
+      <c r="P2" s="134">
         <v>341</v>
       </c>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="138">
+      <c r="Q2" s="140"/>
+      <c r="R2" s="125">
         <v>101526</v>
       </c>
       <c r="S2" s="18">
         <v>780286224</v>
       </c>
-      <c r="T2" s="145">
+      <c r="T2" s="132">
         <v>14351</v>
       </c>
-      <c r="U2" s="163"/>
-      <c r="V2" s="140">
+      <c r="U2" s="150"/>
+      <c r="V2" s="127">
         <v>85484</v>
       </c>
       <c r="W2" s="57">
         <v>1070356827</v>
       </c>
-      <c r="X2" s="147">
+      <c r="X2" s="134">
         <v>21638</v>
       </c>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="140">
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="127">
         <v>2567726</v>
       </c>
       <c r="AA2" s="57">
@@ -2566,7 +2446,7 @@
       <c r="AB2" s="18">
         <v>151</v>
       </c>
-      <c r="AC2" s="147">
+      <c r="AC2" s="134">
         <v>298</v>
       </c>
     </row>
@@ -2577,31 +2457,31 @@
       <c r="B3" s="17">
         <v>4833164</v>
       </c>
-      <c r="C3" s="157">
+      <c r="C3" s="144">
         <v>2</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="139">
+      <c r="D3" s="140"/>
+      <c r="E3" s="126">
         <v>47955</v>
       </c>
       <c r="F3" s="25">
         <v>468628329</v>
       </c>
-      <c r="G3" s="146">
+      <c r="G3" s="133">
         <v>18383</v>
       </c>
-      <c r="H3" s="163"/>
-      <c r="I3" s="139">
+      <c r="H3" s="150"/>
+      <c r="I3" s="126">
         <v>293209</v>
       </c>
       <c r="J3" s="25">
         <v>1633498830</v>
       </c>
-      <c r="K3" s="146">
+      <c r="K3" s="133">
         <v>14317</v>
       </c>
-      <c r="L3" s="163"/>
-      <c r="M3" s="139">
+      <c r="L3" s="150"/>
+      <c r="M3" s="126">
         <v>4568600</v>
       </c>
       <c r="N3" s="25">
@@ -2610,31 +2490,31 @@
       <c r="O3" s="25">
         <v>149</v>
       </c>
-      <c r="P3" s="146">
+      <c r="P3" s="133">
         <v>374</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="139">
+      <c r="Q3" s="140"/>
+      <c r="R3" s="126">
         <v>213402</v>
       </c>
       <c r="S3" s="25">
         <v>1666038163</v>
       </c>
-      <c r="T3" s="146">
+      <c r="T3" s="133">
         <v>14142</v>
       </c>
-      <c r="U3" s="163"/>
-      <c r="V3" s="139">
+      <c r="U3" s="150"/>
+      <c r="V3" s="126">
         <v>139899</v>
       </c>
       <c r="W3" s="25">
         <v>1009600962</v>
       </c>
-      <c r="X3" s="146">
+      <c r="X3" s="133">
         <v>18781</v>
       </c>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="139">
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="126">
         <v>3197176</v>
       </c>
       <c r="AA3" s="25">
@@ -2643,7 +2523,7 @@
       <c r="AB3" s="25">
         <v>151</v>
       </c>
-      <c r="AC3" s="146">
+      <c r="AC3" s="133">
         <v>307</v>
       </c>
     </row>
@@ -2654,31 +2534,31 @@
       <c r="B4" s="23">
         <v>5093568</v>
       </c>
-      <c r="C4" s="158">
+      <c r="C4" s="145">
         <v>3</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="140">
+      <c r="D4" s="140"/>
+      <c r="E4" s="127">
         <v>19042</v>
       </c>
       <c r="F4" s="57">
         <v>146423382</v>
       </c>
-      <c r="G4" s="147">
+      <c r="G4" s="134">
         <v>17307</v>
       </c>
-      <c r="H4" s="163"/>
-      <c r="I4" s="140">
+      <c r="H4" s="150"/>
+      <c r="I4" s="127">
         <v>206192</v>
       </c>
       <c r="J4" s="57">
         <v>931913873</v>
       </c>
-      <c r="K4" s="147">
+      <c r="K4" s="134">
         <v>13822</v>
       </c>
-      <c r="L4" s="163"/>
-      <c r="M4" s="140">
+      <c r="L4" s="150"/>
+      <c r="M4" s="127">
         <v>4093734</v>
       </c>
       <c r="N4" s="57">
@@ -2687,31 +2567,31 @@
       <c r="O4" s="57">
         <v>149</v>
       </c>
-      <c r="P4" s="147">
+      <c r="P4" s="134">
         <v>384</v>
       </c>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="140">
+      <c r="Q4" s="140"/>
+      <c r="R4" s="127">
         <v>128031</v>
       </c>
       <c r="S4" s="57">
         <v>987293009</v>
       </c>
-      <c r="T4" s="147">
+      <c r="T4" s="134">
         <v>15407</v>
       </c>
-      <c r="U4" s="163"/>
-      <c r="V4" s="140">
+      <c r="U4" s="150"/>
+      <c r="V4" s="127">
         <v>45191</v>
       </c>
       <c r="W4" s="57">
         <v>625579715</v>
       </c>
-      <c r="X4" s="147">
+      <c r="X4" s="134">
         <v>21856</v>
       </c>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="140">
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="127">
         <v>3204176</v>
       </c>
       <c r="AA4" s="57">
@@ -2720,7 +2600,7 @@
       <c r="AB4" s="57">
         <v>151</v>
       </c>
-      <c r="AC4" s="147">
+      <c r="AC4" s="134">
         <v>327</v>
       </c>
     </row>
@@ -2731,31 +2611,31 @@
       <c r="B5" s="17">
         <v>2125041</v>
       </c>
-      <c r="C5" s="157">
+      <c r="C5" s="144">
         <v>4</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="139">
+      <c r="D5" s="140"/>
+      <c r="E5" s="126">
         <v>408863</v>
       </c>
       <c r="F5" s="25">
         <v>1931725350</v>
       </c>
-      <c r="G5" s="146">
+      <c r="G5" s="133">
         <v>9827</v>
       </c>
-      <c r="H5" s="163"/>
-      <c r="I5" s="139">
+      <c r="H5" s="150"/>
+      <c r="I5" s="126">
         <v>2364379</v>
       </c>
       <c r="J5" s="25">
         <v>2629203714</v>
       </c>
-      <c r="K5" s="146">
+      <c r="K5" s="133">
         <v>1787</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="139">
+      <c r="L5" s="150"/>
+      <c r="M5" s="126">
         <v>3966996</v>
       </c>
       <c r="N5" s="25">
@@ -2764,31 +2644,31 @@
       <c r="O5" s="25">
         <v>149</v>
       </c>
-      <c r="P5" s="152">
+      <c r="P5" s="139">
         <v>377</v>
       </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="139">
+      <c r="Q5" s="140"/>
+      <c r="R5" s="126">
         <v>271823</v>
       </c>
       <c r="S5" s="25">
         <v>1704343789</v>
       </c>
-      <c r="T5" s="146">
+      <c r="T5" s="133">
         <v>10276</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="139">
+      <c r="U5" s="150"/>
+      <c r="V5" s="126">
         <v>220304</v>
       </c>
       <c r="W5" s="25">
         <v>1342021782</v>
       </c>
-      <c r="X5" s="146">
+      <c r="X5" s="133">
         <v>16260</v>
       </c>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="139">
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="126">
         <v>3161842</v>
       </c>
       <c r="AA5" s="25">
@@ -2797,7 +2677,7 @@
       <c r="AB5" s="25">
         <v>151</v>
       </c>
-      <c r="AC5" s="152">
+      <c r="AC5" s="139">
         <v>300</v>
       </c>
     </row>
@@ -2808,31 +2688,31 @@
       <c r="B6" s="39">
         <v>5995635</v>
       </c>
-      <c r="C6" s="159">
+      <c r="C6" s="146">
         <v>5</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="141">
+      <c r="D6" s="140"/>
+      <c r="E6" s="128">
         <v>9912</v>
       </c>
       <c r="F6" s="39">
         <v>64267933</v>
       </c>
-      <c r="G6" s="148">
+      <c r="G6" s="135">
         <v>17565</v>
       </c>
-      <c r="H6" s="163"/>
-      <c r="I6" s="141">
+      <c r="H6" s="150"/>
+      <c r="I6" s="128">
         <v>334608</v>
       </c>
       <c r="J6" s="39">
         <v>1682880665</v>
       </c>
-      <c r="K6" s="148">
+      <c r="K6" s="135">
         <v>12503</v>
       </c>
-      <c r="L6" s="163"/>
-      <c r="M6" s="141">
+      <c r="L6" s="150"/>
+      <c r="M6" s="128">
         <v>7275366</v>
       </c>
       <c r="N6" s="39">
@@ -2841,31 +2721,31 @@
       <c r="O6" s="39">
         <v>149</v>
       </c>
-      <c r="P6" s="148">
+      <c r="P6" s="135">
         <v>347</v>
       </c>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="141">
+      <c r="Q6" s="140"/>
+      <c r="R6" s="128">
         <v>105226</v>
       </c>
       <c r="S6" s="39">
         <v>808961843</v>
       </c>
-      <c r="T6" s="148">
+      <c r="T6" s="135">
         <v>14406</v>
       </c>
-      <c r="U6" s="163"/>
-      <c r="V6" s="141">
+      <c r="U6" s="150"/>
+      <c r="V6" s="128">
         <v>36750</v>
       </c>
       <c r="W6" s="39">
         <v>483128849</v>
       </c>
-      <c r="X6" s="148">
+      <c r="X6" s="135">
         <v>24765</v>
       </c>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="141">
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="128">
         <v>2933558</v>
       </c>
       <c r="AA6" s="39">
@@ -2874,66 +2754,66 @@
       <c r="AB6" s="39">
         <v>151</v>
       </c>
-      <c r="AC6" s="148">
+      <c r="AC6" s="135">
         <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="122"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="160">
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="147">
         <v>6</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="142">
+      <c r="D7" s="141"/>
+      <c r="E7" s="129">
         <v>111</v>
       </c>
-      <c r="F7" s="123">
+      <c r="F7" s="110">
         <v>659440</v>
       </c>
-      <c r="G7" s="149">
+      <c r="G7" s="136">
         <v>17187</v>
       </c>
-      <c r="H7" s="164"/>
-      <c r="I7" s="142">
+      <c r="H7" s="151"/>
+      <c r="I7" s="129">
         <v>25</v>
       </c>
-      <c r="J7" s="123">
+      <c r="J7" s="110">
         <v>73269</v>
       </c>
-      <c r="K7" s="149">
+      <c r="K7" s="136">
         <v>41887</v>
       </c>
-      <c r="L7" s="164"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="142">
+      <c r="L7" s="151"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="129">
         <v>233</v>
       </c>
-      <c r="S7" s="123">
+      <c r="S7" s="110">
         <v>1465473</v>
       </c>
-      <c r="T7" s="149">
+      <c r="T7" s="136">
         <v>12599</v>
       </c>
-      <c r="U7" s="164"/>
-      <c r="V7" s="142">
+      <c r="U7" s="151"/>
+      <c r="V7" s="129">
         <v>3</v>
       </c>
-      <c r="W7" s="123">
+      <c r="W7" s="110">
         <v>52449</v>
       </c>
-      <c r="X7" s="149">
+      <c r="X7" s="136">
         <v>44607</v>
       </c>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="149"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="136"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
@@ -2942,31 +2822,31 @@
       <c r="B8" s="17">
         <v>5952932</v>
       </c>
-      <c r="C8" s="157">
+      <c r="C8" s="144">
         <v>7</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="139">
+      <c r="D8" s="140"/>
+      <c r="E8" s="126">
         <v>29707</v>
       </c>
       <c r="F8" s="25">
         <v>297728009</v>
       </c>
-      <c r="G8" s="146">
+      <c r="G8" s="133">
         <v>19791</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="139">
+      <c r="H8" s="150"/>
+      <c r="I8" s="126">
         <v>219101</v>
       </c>
       <c r="J8" s="25">
         <v>1183379431</v>
       </c>
-      <c r="K8" s="146">
+      <c r="K8" s="133">
         <v>12829</v>
       </c>
-      <c r="L8" s="163"/>
-      <c r="M8" s="139">
+      <c r="L8" s="150"/>
+      <c r="M8" s="126">
         <v>3333156</v>
       </c>
       <c r="N8" s="25">
@@ -2975,31 +2855,31 @@
       <c r="O8" s="25">
         <v>149</v>
       </c>
-      <c r="P8" s="152">
+      <c r="P8" s="139">
         <v>331</v>
       </c>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="139">
+      <c r="Q8" s="140"/>
+      <c r="R8" s="126">
         <v>132640</v>
       </c>
       <c r="S8" s="25">
         <v>998133789</v>
       </c>
-      <c r="T8" s="146">
+      <c r="T8" s="133">
         <v>14587</v>
       </c>
-      <c r="U8" s="163"/>
-      <c r="V8" s="139">
+      <c r="U8" s="150"/>
+      <c r="V8" s="126">
         <v>167862</v>
       </c>
       <c r="W8" s="25">
         <v>1452069004</v>
       </c>
-      <c r="X8" s="146">
+      <c r="X8" s="133">
         <v>25814</v>
       </c>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="139">
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="126">
         <v>3318244</v>
       </c>
       <c r="AA8" s="25">
@@ -3008,7 +2888,7 @@
       <c r="AB8" s="25">
         <v>151</v>
       </c>
-      <c r="AC8" s="152">
+      <c r="AC8" s="139">
         <v>292</v>
       </c>
     </row>
@@ -3019,31 +2899,31 @@
       <c r="B9" s="39">
         <v>5883278</v>
       </c>
-      <c r="C9" s="159">
+      <c r="C9" s="146">
         <v>8</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="141">
+      <c r="D9" s="140"/>
+      <c r="E9" s="128">
         <v>97348</v>
       </c>
       <c r="F9" s="39">
         <v>617011257</v>
       </c>
-      <c r="G9" s="148">
+      <c r="G9" s="135">
         <v>16969</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="141">
+      <c r="H9" s="150"/>
+      <c r="I9" s="128">
         <v>1673324</v>
       </c>
       <c r="J9" s="39">
         <v>1543194770</v>
       </c>
-      <c r="K9" s="148">
+      <c r="K9" s="135">
         <v>1764</v>
       </c>
-      <c r="L9" s="163"/>
-      <c r="M9" s="141">
+      <c r="L9" s="150"/>
+      <c r="M9" s="128">
         <v>3171788</v>
       </c>
       <c r="N9" s="39">
@@ -3052,31 +2932,31 @@
       <c r="O9" s="39">
         <v>149</v>
       </c>
-      <c r="P9" s="148">
+      <c r="P9" s="135">
         <v>353</v>
       </c>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="141">
+      <c r="Q9" s="140"/>
+      <c r="R9" s="128">
         <v>138974</v>
       </c>
       <c r="S9" s="39">
         <v>699122054</v>
       </c>
-      <c r="T9" s="148">
+      <c r="T9" s="135">
         <v>9898</v>
       </c>
-      <c r="U9" s="163"/>
-      <c r="V9" s="141">
+      <c r="U9" s="150"/>
+      <c r="V9" s="128">
         <v>139058</v>
       </c>
       <c r="W9" s="39">
         <v>1091695992</v>
       </c>
-      <c r="X9" s="148">
+      <c r="X9" s="135">
         <v>20731</v>
       </c>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="141">
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="128">
         <v>2134582</v>
       </c>
       <c r="AA9" s="39">
@@ -3085,290 +2965,290 @@
       <c r="AB9" s="39">
         <v>151</v>
       </c>
-      <c r="AC9" s="148">
+      <c r="AC9" s="135">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="122"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="160">
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="147">
         <v>9</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="142">
+      <c r="D10" s="141"/>
+      <c r="E10" s="129">
         <v>108</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="110">
         <v>785266</v>
       </c>
-      <c r="G10" s="149">
+      <c r="G10" s="136">
         <v>17236</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="142">
+      <c r="H10" s="151"/>
+      <c r="I10" s="129">
         <v>5</v>
       </c>
-      <c r="J10" s="123">
+      <c r="J10" s="110">
         <v>6604</v>
       </c>
-      <c r="K10" s="149">
+      <c r="K10" s="136">
         <v>1185</v>
       </c>
-      <c r="L10" s="164"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="142">
+      <c r="L10" s="151"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="129">
         <v>214</v>
       </c>
-      <c r="S10" s="123">
+      <c r="S10" s="110">
         <v>1492685</v>
       </c>
-      <c r="T10" s="149">
+      <c r="T10" s="136">
         <v>16563</v>
       </c>
-      <c r="U10" s="164"/>
-      <c r="V10" s="142">
+      <c r="U10" s="151"/>
+      <c r="V10" s="129">
         <v>0</v>
       </c>
-      <c r="W10" s="123">
+      <c r="W10" s="110">
         <v>0</v>
       </c>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="149"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="136"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="124"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="161">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="148">
         <v>10</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="143">
+      <c r="D11" s="141"/>
+      <c r="E11" s="130">
         <v>27</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="112">
         <v>120516</v>
       </c>
-      <c r="G11" s="150">
+      <c r="G11" s="137">
         <v>15485</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="143">
-        <v>1</v>
-      </c>
-      <c r="J11" s="125">
+      <c r="H11" s="151"/>
+      <c r="I11" s="130">
+        <v>1</v>
+      </c>
+      <c r="J11" s="112">
         <v>1295</v>
       </c>
-      <c r="K11" s="150">
+      <c r="K11" s="137">
         <v>1295</v>
       </c>
-      <c r="L11" s="164"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="143">
+      <c r="L11" s="151"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="130">
         <v>70</v>
       </c>
-      <c r="S11" s="125">
+      <c r="S11" s="112">
         <v>505305</v>
       </c>
-      <c r="T11" s="150">
+      <c r="T11" s="137">
         <v>11547</v>
       </c>
-      <c r="U11" s="164"/>
-      <c r="V11" s="143">
-        <v>1</v>
-      </c>
-      <c r="W11" s="125">
+      <c r="U11" s="151"/>
+      <c r="V11" s="130">
+        <v>1</v>
+      </c>
+      <c r="W11" s="112">
         <v>21762</v>
       </c>
-      <c r="X11" s="150">
+      <c r="X11" s="137">
         <v>21762</v>
       </c>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="143"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="150"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="137"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="124"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="161">
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="148">
         <v>11</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="143">
+      <c r="D12" s="141"/>
+      <c r="E12" s="130">
         <v>71</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="112">
         <v>416642</v>
       </c>
-      <c r="G12" s="150">
+      <c r="G12" s="137">
         <v>12310</v>
       </c>
-      <c r="H12" s="164"/>
-      <c r="I12" s="143">
+      <c r="H12" s="151"/>
+      <c r="I12" s="130">
         <v>7</v>
       </c>
-      <c r="J12" s="125">
+      <c r="J12" s="112">
         <v>59286</v>
       </c>
-      <c r="K12" s="150">
+      <c r="K12" s="137">
         <v>51501</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="143">
+      <c r="L12" s="151"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="130">
         <v>81</v>
       </c>
-      <c r="S12" s="125">
+      <c r="S12" s="112">
         <v>528081</v>
       </c>
-      <c r="T12" s="150">
+      <c r="T12" s="137">
         <v>14143</v>
       </c>
-      <c r="U12" s="164"/>
-      <c r="V12" s="143">
+      <c r="U12" s="151"/>
+      <c r="V12" s="130">
         <v>2</v>
       </c>
-      <c r="W12" s="125">
+      <c r="W12" s="112">
         <v>4137</v>
       </c>
-      <c r="X12" s="150">
+      <c r="X12" s="137">
         <v>3861</v>
       </c>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="125"/>
-      <c r="AB12" s="125"/>
-      <c r="AC12" s="150"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="112"/>
+      <c r="AC12" s="137"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="124"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="161">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="148">
         <v>12</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="E13" s="143">
+      <c r="D13" s="141"/>
+      <c r="E13" s="130">
         <v>24</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="112">
         <v>186958</v>
       </c>
-      <c r="G13" s="150">
+      <c r="G13" s="137">
         <v>13260</v>
       </c>
-      <c r="H13" s="164"/>
-      <c r="I13" s="143">
+      <c r="H13" s="151"/>
+      <c r="I13" s="130">
         <v>7</v>
       </c>
-      <c r="J13" s="125">
+      <c r="J13" s="112">
         <v>18042</v>
       </c>
-      <c r="K13" s="150">
+      <c r="K13" s="137">
         <v>4731</v>
       </c>
-      <c r="L13" s="164"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="143">
+      <c r="L13" s="151"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="130">
         <v>39</v>
       </c>
-      <c r="S13" s="125">
+      <c r="S13" s="112">
         <v>309173</v>
       </c>
-      <c r="T13" s="150">
+      <c r="T13" s="137">
         <v>15373</v>
       </c>
-      <c r="U13" s="164"/>
-      <c r="V13" s="143">
+      <c r="U13" s="151"/>
+      <c r="V13" s="130">
         <v>0</v>
       </c>
-      <c r="W13" s="125">
+      <c r="W13" s="112">
         <v>0</v>
       </c>
-      <c r="X13" s="150"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="125"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="150"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="137"/>
     </row>
     <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="162" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="155"/>
-      <c r="E14" s="144">
+      <c r="D14" s="142"/>
+      <c r="E14" s="131">
         <v>133275</v>
       </c>
-      <c r="F14" s="127">
+      <c r="F14" s="114">
         <v>699736991</v>
       </c>
-      <c r="G14" s="151">
+      <c r="G14" s="138">
         <v>11194</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="144">
+      <c r="H14" s="151"/>
+      <c r="I14" s="131">
         <v>1476948</v>
       </c>
-      <c r="J14" s="127">
+      <c r="J14" s="114">
         <v>2760423083</v>
       </c>
-      <c r="K14" s="151">
+      <c r="K14" s="138">
         <v>5872</v>
       </c>
-      <c r="L14" s="164"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="144">
+      <c r="L14" s="151"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="131">
         <v>310608</v>
       </c>
-      <c r="S14" s="127">
+      <c r="S14" s="114">
         <v>1946250883</v>
       </c>
-      <c r="T14" s="151">
+      <c r="T14" s="138">
         <v>12071</v>
       </c>
-      <c r="U14" s="164"/>
-      <c r="V14" s="144">
+      <c r="U14" s="151"/>
+      <c r="V14" s="131">
         <v>137151</v>
       </c>
-      <c r="W14" s="127">
+      <c r="W14" s="114">
         <v>954735047</v>
       </c>
-      <c r="X14" s="151">
+      <c r="X14" s="138">
         <v>18494</v>
       </c>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="138"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3378,7 +3258,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570156CC-B0EE-794C-A697-7E52448428D9}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3399,7 +3279,7 @@
     <col min="13" max="13" width="3.33203125" style="32" customWidth="1"/>
     <col min="14" max="15" width="9.33203125" style="32" customWidth="1"/>
     <col min="16" max="16" width="3.33203125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="7" style="78" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="31" customFormat="1" ht="182" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,28 +3302,28 @@
         <v>15</v>
       </c>
       <c r="G1" s="26"/>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="71" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="33"/>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="73" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3468,7 +3348,7 @@
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="34">
-        <v>26.0356323720851</v>
+        <v>26.035632369999998</v>
       </c>
       <c r="I2" s="34">
         <f>H2/H$2</f>
@@ -3476,7 +3356,7 @@
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="34">
-        <v>799.82599621345105</v>
+        <v>799.82599619999996</v>
       </c>
       <c r="L2" s="34">
         <f>K2/K$2</f>
@@ -3484,14 +3364,14 @@
       </c>
       <c r="M2" s="34"/>
       <c r="N2" s="34">
-        <v>224.68919302155399</v>
+        <v>224.68919299999999</v>
       </c>
       <c r="O2" s="34">
         <f>N2/N$2</f>
         <v>1</v>
       </c>
       <c r="P2" s="34"/>
-      <c r="Q2" s="79"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
@@ -3514,30 +3394,30 @@
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="34">
-        <v>36.755360571996697</v>
+        <v>36.755360570000001</v>
       </c>
       <c r="I3" s="34">
         <f t="shared" ref="I3:I4" si="0">H3/H$2</f>
-        <v>1.4117329683685764</v>
+        <v>1.4117329684049462</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34">
-        <v>664.47993533157705</v>
+        <v>664.47993529999997</v>
       </c>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L4" si="1">K3/K$2</f>
-        <v>0.8307806178810998</v>
+        <v>0.83078061785559154</v>
       </c>
       <c r="M3" s="34"/>
       <c r="N3" s="34">
-        <v>181.28800977616501</v>
+        <v>181.2880098</v>
       </c>
       <c r="O3" s="34">
         <f t="shared" ref="O3:O4" si="2">N3/N$2</f>
-        <v>0.80683902656045592</v>
+        <v>0.80683902674393426</v>
       </c>
       <c r="P3" s="34"/>
-      <c r="Q3" s="79"/>
+      <c r="Q3" s="75"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -3560,30 +3440,30 @@
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="34">
-        <v>776.50970714050595</v>
+        <v>776.50970710000001</v>
       </c>
       <c r="I4" s="34">
         <f t="shared" si="0"/>
-        <v>29.824883684141454</v>
+        <v>29.824883684974235</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34">
-        <v>1070.0468904244799</v>
+        <v>1070.0468900000001</v>
       </c>
       <c r="L4" s="34">
         <f t="shared" si="1"/>
-        <v>1.3378496016512502</v>
+        <v>1.3378496011430343</v>
       </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34">
-        <v>2391.6388614675798</v>
+        <v>2391.6388609999999</v>
       </c>
       <c r="O4" s="34">
         <f t="shared" si="2"/>
-        <v>10.644209582603978</v>
+        <v>10.644209581544049</v>
       </c>
       <c r="P4" s="34"/>
-      <c r="Q4" s="79"/>
+      <c r="Q4" s="75"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
@@ -3606,7 +3486,7 @@
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="35">
-        <v>104.406836185697</v>
+        <v>104.4068362</v>
       </c>
       <c r="I5" s="35">
         <f>H5/H$5</f>
@@ -3614,7 +3494,7 @@
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35">
-        <v>368.79452352001101</v>
+        <v>368.79452350000003</v>
       </c>
       <c r="L5" s="35">
         <f>K5/K$5</f>
@@ -3622,14 +3502,14 @@
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="35">
-        <v>133.489371342738</v>
+        <v>133.48937129999999</v>
       </c>
       <c r="O5" s="35">
         <f>N5/N$5</f>
         <v>1</v>
       </c>
       <c r="P5" s="35"/>
-      <c r="Q5" s="80"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
@@ -3652,30 +3532,30 @@
       </c>
       <c r="G6" s="53"/>
       <c r="H6" s="36">
-        <v>348.452484671148</v>
+        <v>348.45248470000001</v>
       </c>
       <c r="I6" s="36">
         <f>H6/H$5</f>
-        <v>3.3374489391805122</v>
+        <v>3.3374489389996476</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36">
-        <v>386.95931484556002</v>
+        <v>386.95931480000002</v>
       </c>
       <c r="L6" s="36">
         <f>K6/K$5</f>
-        <v>1.0492545039773709</v>
+        <v>1.0492545039107664</v>
       </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36">
-        <v>179.25724524517901</v>
+        <v>179.2572452</v>
       </c>
       <c r="O6" s="36">
         <f>N6/N$5</f>
-        <v>1.3428578128885678</v>
+        <v>1.3428578129800512</v>
       </c>
       <c r="P6" s="36"/>
-      <c r="Q6" s="81"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
@@ -3698,30 +3578,30 @@
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="37">
-        <v>1169.9146761351401</v>
+        <v>1169.9146760000001</v>
       </c>
       <c r="I7" s="37">
         <f>H7/H$5</f>
-        <v>11.205345539389212</v>
+        <v>11.205345536559799</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37">
-        <v>445.46578437701697</v>
+        <v>445.46578440000002</v>
       </c>
       <c r="L7" s="37">
         <f>K7/K$5</f>
-        <v>1.2078969614982522</v>
+        <v>1.2078969616261126</v>
       </c>
       <c r="M7" s="37"/>
       <c r="N7" s="37">
-        <v>566.54443727135697</v>
+        <v>566.54443730000003</v>
       </c>
       <c r="O7" s="37">
         <f>N7/N$5</f>
-        <v>4.2441164534121372</v>
+        <v>4.244116454985507</v>
       </c>
       <c r="P7" s="37"/>
-      <c r="Q7" s="82"/>
+      <c r="Q7" s="78"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -3744,7 +3624,7 @@
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="34">
-        <v>31.440549783021901</v>
+        <v>31.440549780000001</v>
       </c>
       <c r="I8" s="34">
         <f t="shared" ref="I8:I13" si="3">H8/H$8</f>
@@ -3752,7 +3632,7 @@
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34">
-        <v>204.15483348169101</v>
+        <v>204.1548335</v>
       </c>
       <c r="L8" s="34">
         <f t="shared" ref="L8:L13" si="4">K8/K$8</f>
@@ -3760,14 +3640,14 @@
       </c>
       <c r="M8" s="34"/>
       <c r="N8" s="34">
-        <v>111.381062186897</v>
+        <v>111.3810622</v>
       </c>
       <c r="O8" s="34">
         <f t="shared" ref="O8:O13" si="5">N8/N$8</f>
         <v>1</v>
       </c>
       <c r="P8" s="34"/>
-      <c r="Q8" s="79"/>
+      <c r="Q8" s="75"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
@@ -3790,30 +3670,30 @@
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="34">
-        <v>34.073443283512098</v>
+        <v>34.073443279999999</v>
       </c>
       <c r="I9" s="34">
         <f t="shared" si="3"/>
-        <v>1.0837419675756426</v>
+        <v>1.0837419675681002</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="34">
-        <v>171.97479267207001</v>
+        <v>171.97479269999999</v>
       </c>
       <c r="L9" s="34">
         <f t="shared" si="4"/>
-        <v>0.84237433784536397</v>
+        <v>0.84237433790662619</v>
       </c>
       <c r="M9" s="34"/>
       <c r="N9" s="34">
-        <v>75.622920863983495</v>
+        <v>75.622920859999994</v>
       </c>
       <c r="O9" s="34">
         <f t="shared" si="5"/>
-        <v>0.67895672189845457</v>
+        <v>0.67895672178281663</v>
       </c>
       <c r="P9" s="34"/>
-      <c r="Q9" s="79"/>
+      <c r="Q9" s="75"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -3836,30 +3716,30 @@
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="34">
-        <v>51.970869396718697</v>
+        <v>51.970869399999998</v>
       </c>
       <c r="I10" s="34">
         <f t="shared" si="3"/>
-        <v>1.6529885690734105</v>
+        <v>1.6529885693366522</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="34">
-        <v>218.84598243120999</v>
+        <v>218.8459824</v>
       </c>
       <c r="L10" s="34">
         <f t="shared" si="4"/>
-        <v>1.0719608186540266</v>
+        <v>1.0719608184050171</v>
       </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34">
-        <v>103.375069973732</v>
+        <v>103.37506999999999</v>
       </c>
       <c r="O10" s="34">
         <f t="shared" si="5"/>
-        <v>0.92812070511833533</v>
+        <v>0.92812070524498902</v>
       </c>
       <c r="P10" s="34"/>
-      <c r="Q10" s="79"/>
+      <c r="Q10" s="75"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
@@ -3882,30 +3762,30 @@
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="34">
-        <v>444.44897959183601</v>
+        <v>444.44897959999997</v>
       </c>
       <c r="I11" s="34">
         <f t="shared" si="3"/>
-        <v>14.136170730444457</v>
+        <v>14.136170732062814</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34">
-        <v>599.47779111644604</v>
+        <v>599.47779109999999</v>
       </c>
       <c r="L11" s="34">
         <f t="shared" si="4"/>
-        <v>2.9363879409213611</v>
+        <v>2.9363879405774638</v>
       </c>
       <c r="M11" s="34"/>
       <c r="N11" s="34">
-        <v>1399.03529411764</v>
+        <v>1399.035294</v>
       </c>
       <c r="O11" s="34">
         <f t="shared" si="5"/>
-        <v>12.560800432752778</v>
+        <v>12.560800430218917</v>
       </c>
       <c r="P11" s="34"/>
-      <c r="Q11" s="79"/>
+      <c r="Q11" s="75"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
@@ -3928,30 +3808,30 @@
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="34">
-        <v>790.059409020217</v>
+        <v>790.05940899999996</v>
       </c>
       <c r="I12" s="34">
         <f t="shared" si="3"/>
-        <v>25.128676644415872</v>
+        <v>25.128676646188083</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="34">
-        <v>565.262208398133</v>
+        <v>565.26220839999996</v>
       </c>
       <c r="L12" s="34">
         <f t="shared" si="4"/>
-        <v>2.7687916997019166</v>
+        <v>2.7687916994627511</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34">
-        <v>2369.7819595645401</v>
+        <v>2369.7819599999998</v>
       </c>
       <c r="O12" s="34">
         <f t="shared" si="5"/>
-        <v>21.27634548490887</v>
+        <v>21.276345486315535</v>
       </c>
       <c r="P12" s="34"/>
-      <c r="Q12" s="79"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -3974,31 +3854,31 @@
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="34">
-        <v>732.84978902953503</v>
+        <v>732.84978899999999</v>
       </c>
       <c r="I13" s="34">
         <f t="shared" si="3"/>
-        <v>23.309064061763916</v>
+        <v>23.309064063064866</v>
       </c>
       <c r="J13" s="34"/>
       <c r="K13" s="34">
-        <v>593.88955673938801</v>
+        <v>593.88955675099999</v>
       </c>
       <c r="L13" s="34">
         <f t="shared" si="4"/>
-        <v>2.9090154105641055</v>
+        <v>2.909015410360098</v>
       </c>
       <c r="M13" s="34"/>
       <c r="N13" s="34">
-        <v>3516.25110490103</v>
+        <v>3516.2511049999998</v>
       </c>
       <c r="O13" s="34">
         <f t="shared" si="5"/>
-        <v>31.569559814403405</v>
+        <v>31.569559811578092</v>
       </c>
       <c r="P13" s="34"/>
-      <c r="Q13" s="79">
-        <v>3</v>
+      <c r="Q13" s="75">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -4022,7 +3902,7 @@
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="35">
-        <v>815.33149136794998</v>
+        <v>815.3314914</v>
       </c>
       <c r="I14" s="35">
         <f>H14/H$14</f>
@@ -4030,7 +3910,7 @@
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="35">
-        <v>1214.5554351953999</v>
+        <v>1214.555435</v>
       </c>
       <c r="L14" s="35">
         <f>K14/K$14</f>
@@ -4038,14 +3918,14 @@
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35">
-        <v>232.43317906974801</v>
+        <v>232.43317909999999</v>
       </c>
       <c r="O14" s="35">
         <f>N14/N$14</f>
         <v>1</v>
       </c>
       <c r="P14" s="35"/>
-      <c r="Q14" s="80"/>
+      <c r="Q14" s="76"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
@@ -4068,30 +3948,30 @@
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="36">
-        <v>4532.75074876897</v>
+        <v>4532.7507489999998</v>
       </c>
       <c r="I15" s="36">
         <f>H15/H$14</f>
-        <v>5.5593961434802353</v>
+        <v>5.5593961435450572</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36">
-        <v>4522.3950961977698</v>
+        <v>4522.3950960000002</v>
       </c>
       <c r="L15" s="36">
         <f>K15/K$14</f>
-        <v>3.7234982983466693</v>
+        <v>3.7234982987828795</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36">
-        <v>826.53238743083398</v>
+        <v>826.53238739999995</v>
       </c>
       <c r="O15" s="36">
         <f>N15/N$14</f>
-        <v>3.5560000114390298</v>
+        <v>3.5560000108435466</v>
       </c>
       <c r="P15" s="36"/>
-      <c r="Q15" s="81"/>
+      <c r="Q15" s="77"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
@@ -4114,30 +3994,30 @@
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="36">
-        <v>7542.1641944211196</v>
+        <v>7542.164194</v>
       </c>
       <c r="I16" s="36">
         <f>H16/H$14</f>
-        <v>9.2504266967132587</v>
+        <v>9.2504266958331307</v>
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36">
-        <v>17178.174269987801</v>
+        <v>17178.17427</v>
       </c>
       <c r="L16" s="36">
         <f>K16/K$14</f>
-        <v>14.14359013363943</v>
+        <v>14.143590135924919</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36">
-        <v>2594.4025562085999</v>
+        <v>2594.402556</v>
       </c>
       <c r="O16" s="36">
         <f>N16/N$14</f>
-        <v>11.161928630809104</v>
+        <v>11.161928628458879</v>
       </c>
       <c r="P16" s="36"/>
-      <c r="Q16" s="81"/>
+      <c r="Q16" s="77"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
@@ -4159,24 +4039,31 @@
         <v>16</v>
       </c>
       <c r="G17" s="53"/>
-      <c r="H17" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="108"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="108"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="81">
-        <v>1</v>
-      </c>
+      <c r="H17" s="164">
+        <v>25536.627840000001</v>
+      </c>
+      <c r="I17" s="36">
+        <f>H17/H$14</f>
+        <v>31.320546439523923</v>
+      </c>
+      <c r="J17" s="165"/>
+      <c r="K17" s="164">
+        <v>15289.248310000001</v>
+      </c>
+      <c r="L17" s="36">
+        <f>K17/K$14</f>
+        <v>12.588349505842029</v>
+      </c>
+      <c r="M17" s="165"/>
+      <c r="N17" s="164">
+        <v>2805.2244129999999</v>
+      </c>
+      <c r="O17" s="36">
+        <f>N17/N$14</f>
+        <v>12.068949983225524</v>
+      </c>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="166"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
@@ -4198,23 +4085,23 @@
         <v>16</v>
       </c>
       <c r="G18" s="53"/>
-      <c r="H18" s="109">
+      <c r="H18" s="103">
         <v>0</v>
       </c>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109">
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103">
         <v>0.14583333333333301</v>
       </c>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109">
-        <v>2.1097132034631998</v>
-      </c>
-      <c r="O18" s="109"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103">
+        <v>2.1097132030000001</v>
+      </c>
+      <c r="O18" s="103"/>
       <c r="P18" s="36"/>
-      <c r="Q18" s="81">
-        <v>2</v>
+      <c r="Q18" s="77">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -4237,23 +4124,23 @@
         <v>16</v>
       </c>
       <c r="G19" s="54"/>
-      <c r="H19" s="110">
+      <c r="H19" s="104">
         <v>0</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110">
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104">
         <v>0</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110">
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104">
         <v>0</v>
       </c>
-      <c r="O19" s="110"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="37"/>
-      <c r="Q19" s="82">
-        <v>2</v>
+      <c r="Q19" s="78">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4277,7 +4164,7 @@
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="34">
-        <v>10.2947699435844</v>
+        <v>10.29476994</v>
       </c>
       <c r="I20" s="34">
         <f>H20/H$20</f>
@@ -4285,7 +4172,7 @@
       </c>
       <c r="J20" s="34"/>
       <c r="K20" s="34">
-        <v>305.12105313545499</v>
+        <v>305.12105309999998</v>
       </c>
       <c r="L20" s="34">
         <f>K20/K$20</f>
@@ -4293,14 +4180,14 @@
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="34">
-        <v>162.46730375968201</v>
+        <v>162.4673038</v>
       </c>
       <c r="O20" s="34">
         <f>N20/N$20</f>
         <v>1</v>
       </c>
       <c r="P20" s="34"/>
-      <c r="Q20" s="79"/>
+      <c r="Q20" s="75"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -4323,30 +4210,30 @@
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="34">
-        <v>32.8187060716402</v>
+        <v>32.818706069999998</v>
       </c>
       <c r="I21" s="34">
         <f>H21/H$20</f>
-        <v>3.1879008711692967</v>
+        <v>3.187900872119926</v>
       </c>
       <c r="J21" s="34"/>
       <c r="K21" s="34">
-        <v>405.77175882801203</v>
+        <v>405.77175879999999</v>
       </c>
       <c r="L21" s="34">
         <f>K21/K$20</f>
-        <v>1.329871389267506</v>
+        <v>1.3298713893302305</v>
       </c>
       <c r="M21" s="34"/>
       <c r="N21" s="34">
-        <v>216.70106698280901</v>
+        <v>216.70106699999999</v>
       </c>
       <c r="O21" s="34">
         <f>N21/N$20</f>
-        <v>1.3338134010234353</v>
+        <v>1.3338134007982472</v>
       </c>
       <c r="P21" s="34"/>
-      <c r="Q21" s="79"/>
+      <c r="Q21" s="75"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
@@ -4369,30 +4256,30 @@
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="34">
-        <v>31.125701190313301</v>
+        <v>31.125701190000001</v>
       </c>
       <c r="I22" s="34">
         <f>H22/H$20</f>
-        <v>3.0234479605550129</v>
+        <v>3.0234479615772747</v>
       </c>
       <c r="J22" s="34"/>
       <c r="K22" s="34">
-        <v>226.07145300314599</v>
+        <v>226.07145299999999</v>
       </c>
       <c r="L22" s="34">
         <f>K22/K$20</f>
-        <v>0.74092380935373925</v>
+        <v>0.74092380942952374</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34">
-        <v>137.805069092899</v>
+        <v>137.8050691</v>
       </c>
       <c r="O22" s="34">
         <f>N22/N$20</f>
-        <v>0.84820185910598456</v>
+        <v>0.84820185893920153</v>
       </c>
       <c r="P22" s="34"/>
-      <c r="Q22" s="79"/>
+      <c r="Q22" s="75"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -4401,129 +4288,136 @@
       <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="5">
-        <v>9975</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0.437</v>
-      </c>
-      <c r="F23" s="50" t="s">
+      <c r="D23" s="7">
+        <v>4574</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0.37</v>
+      </c>
+      <c r="F23" s="51" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="50"/>
-      <c r="H23" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="115"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="115"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="79">
-        <v>1</v>
-      </c>
+      <c r="H23" s="34">
+        <v>1773.0491910000001</v>
+      </c>
+      <c r="I23" s="34">
+        <f>H23/H$20</f>
+        <v>172.22815092845096</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34">
+        <v>958.49212939999995</v>
+      </c>
+      <c r="L23" s="34">
+        <f>K23/K$20</f>
+        <v>3.1413503580359792</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34">
+        <v>7339.6082200000001</v>
+      </c>
+      <c r="O23" s="34">
+        <f>N23/N$20</f>
+        <v>45.175909541991182</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="75"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
-        <v>1</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7">
-        <v>4574</v>
-      </c>
-      <c r="E24" s="43">
-        <v>0.37</v>
-      </c>
-      <c r="F24" s="51" t="s">
+      <c r="A24" s="19">
+        <v>1</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5417255</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F24" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="34">
-        <v>1773.0491910800099</v>
-      </c>
-      <c r="I24" s="34">
-        <f>H24/H$20</f>
-        <v>172.22815087625699</v>
-      </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34">
-        <v>958.49212942719703</v>
-      </c>
-      <c r="L24" s="34">
-        <f>K24/K$20</f>
-        <v>3.1413503577600901</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34">
-        <v>7339.5942282466103</v>
-      </c>
-      <c r="O24" s="34">
-        <f>N24/N$20</f>
-        <v>45.175823432776191</v>
-      </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="79"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="35">
+        <v>51.611152089999997</v>
+      </c>
+      <c r="I24" s="35">
+        <f t="shared" ref="I24:I29" si="6">H24/H$24</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35">
+        <v>220.47971609999999</v>
+      </c>
+      <c r="L24" s="35">
+        <f t="shared" ref="L24:L29" si="7">K24/K$24</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35">
+        <v>75.780111520000005</v>
+      </c>
+      <c r="O24" s="35">
+        <f t="shared" ref="O24:O29" si="8">N24/N$24</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="76"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>1</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="11">
-        <v>5417255</v>
-      </c>
-      <c r="E25" s="44">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="F25" s="52" t="s">
+      <c r="C25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13">
+        <v>250980</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F25" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="35">
-        <v>51.611152088037997</v>
-      </c>
-      <c r="I25" s="35">
-        <f t="shared" ref="I25:I30" si="6">H25/H$25</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35">
-        <v>220.47971605117101</v>
-      </c>
-      <c r="L25" s="35">
-        <f t="shared" ref="L25:L30" si="7">K25/K$25</f>
-        <v>1</v>
-      </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35">
-        <v>75.780111520140395</v>
-      </c>
-      <c r="O25" s="35">
-        <f t="shared" ref="O25:O30" si="8">N25/N$25</f>
-        <v>1</v>
-      </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="80"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="36">
+        <v>69.526140859999998</v>
+      </c>
+      <c r="I25" s="36">
+        <f t="shared" si="6"/>
+        <v>1.347114684414711</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36">
+        <v>210.9456036</v>
+      </c>
+      <c r="L25" s="36">
+        <f t="shared" si="7"/>
+        <v>0.95675741665198932</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36">
+        <v>66.675477330000007</v>
+      </c>
+      <c r="O25" s="36">
+        <f t="shared" si="8"/>
+        <v>0.87985456860145828</v>
+      </c>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="77"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
@@ -4533,43 +4427,43 @@
         <v>17</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="13">
-        <v>250980</v>
+        <v>243620</v>
       </c>
       <c r="E26" s="45">
-        <v>0.45600000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="53"/>
       <c r="H26" s="36">
-        <v>69.526140857371601</v>
+        <v>62.559536219999998</v>
       </c>
       <c r="I26" s="36">
         <f t="shared" si="6"/>
-        <v>1.3471146844149946</v>
+        <v>1.2121321397923477</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="36">
-        <v>210.94560356469901</v>
+        <v>228.7381154</v>
       </c>
       <c r="L26" s="36">
         <f t="shared" si="7"/>
-        <v>0.95675741670376957</v>
+        <v>1.0374565036914978</v>
       </c>
       <c r="M26" s="36"/>
       <c r="N26" s="36">
-        <v>66.675477328416505</v>
+        <v>72.474348629999994</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="8"/>
-        <v>0.87985456857893229</v>
+        <v>0.95637690650366025</v>
       </c>
       <c r="P26" s="36"/>
-      <c r="Q26" s="81"/>
+      <c r="Q26" s="77"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
@@ -4579,43 +4473,43 @@
         <v>17</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" s="13">
-        <v>243620</v>
+        <v>31780</v>
       </c>
       <c r="E27" s="45">
-        <v>0.52500000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" s="53"/>
       <c r="H27" s="36">
-        <v>62.559536222759903</v>
+        <v>288.68624920000002</v>
       </c>
       <c r="I27" s="36">
         <f t="shared" si="6"/>
-        <v>1.212132139891902</v>
+        <v>5.5934858554714362</v>
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="36">
-        <v>228.738115380327</v>
+        <v>396.113562</v>
       </c>
       <c r="L27" s="36">
         <f t="shared" si="7"/>
-        <v>1.0374565038320318</v>
+        <v>1.796598657721149</v>
       </c>
       <c r="M27" s="36"/>
       <c r="N27" s="36">
-        <v>72.474348632998201</v>
+        <v>632.70657649999998</v>
       </c>
       <c r="O27" s="36">
         <f t="shared" si="8"/>
-        <v>0.95637690654145302</v>
+        <v>8.3492431432093515</v>
       </c>
       <c r="P27" s="36"/>
-      <c r="Q27" s="81"/>
+      <c r="Q27" s="77"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
@@ -4625,43 +4519,43 @@
         <v>17</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="13">
-        <v>31780</v>
+        <v>5783</v>
       </c>
       <c r="E28" s="45">
-        <v>0.33800000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="53"/>
       <c r="H28" s="36">
-        <v>288.686249213341</v>
+        <v>2404.0657099999999</v>
       </c>
       <c r="I28" s="36">
         <f t="shared" si="6"/>
-        <v>5.5934858559425624</v>
+        <v>46.580353521420491</v>
       </c>
       <c r="J28" s="36"/>
       <c r="K28" s="36">
-        <v>396.11356198867202</v>
+        <v>1028.2484870000001</v>
       </c>
       <c r="L28" s="36">
         <f t="shared" si="7"/>
-        <v>1.7965986580676576</v>
+        <v>4.6636874592746276</v>
       </c>
       <c r="M28" s="36"/>
       <c r="N28" s="36">
-        <v>632.70657646318398</v>
+        <v>886.62891230000002</v>
       </c>
       <c r="O28" s="36">
         <f t="shared" si="8"/>
-        <v>8.3492431427080565</v>
+        <v>11.700021212900953</v>
       </c>
       <c r="P28" s="36"/>
-      <c r="Q28" s="81"/>
+      <c r="Q28" s="77"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
@@ -4670,136 +4564,136 @@
       <c r="B29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="13">
-        <v>5783</v>
-      </c>
-      <c r="E29" s="45">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="F29" s="53" t="s">
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="15">
+        <v>3514</v>
+      </c>
+      <c r="E29" s="46">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="36">
-        <v>2404.0657098391798</v>
-      </c>
-      <c r="I29" s="36">
+      <c r="G29" s="54"/>
+      <c r="H29" s="37">
+        <v>1410.4058050000001</v>
+      </c>
+      <c r="I29" s="37">
         <f t="shared" si="6"/>
-        <v>46.580353520075249</v>
-      </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36">
-        <v>1028.24848694449</v>
-      </c>
-      <c r="L29" s="36">
+        <v>27.327539647642851</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37">
+        <v>719.13745019999999</v>
+      </c>
+      <c r="L29" s="37">
         <f t="shared" si="7"/>
-        <v>4.6636874600557103</v>
-      </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36">
-        <v>886.62891232924005</v>
-      </c>
-      <c r="O29" s="36">
+        <v>3.2616943767916982</v>
+      </c>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37">
+        <v>1196.743882</v>
+      </c>
+      <c r="O29" s="37">
         <f t="shared" si="8"/>
-        <v>11.700021213265133</v>
-      </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="81"/>
+        <v>15.79232146793758</v>
+      </c>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="78"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>1</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="15">
-        <v>3514</v>
-      </c>
-      <c r="E30" s="46">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F30" s="54" t="s">
+      <c r="A30" s="21">
+        <v>1</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5518076</v>
+      </c>
+      <c r="E30" s="47">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="37">
-        <v>1410.40580535002</v>
-      </c>
-      <c r="I30" s="37">
-        <f t="shared" si="6"/>
-        <v>27.327539655463575</v>
-      </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37">
-        <v>719.13745019920304</v>
-      </c>
-      <c r="L30" s="37">
-        <f t="shared" si="7"/>
-        <v>3.261694377510441</v>
-      </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37">
-        <v>1196.7438816163899</v>
-      </c>
-      <c r="O30" s="37">
-        <f t="shared" si="8"/>
-        <v>15.792321462846175</v>
-      </c>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="82"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="34">
+        <v>64.440735669999995</v>
+      </c>
+      <c r="I30" s="34">
+        <f>H30/H$30</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34">
+        <v>197.2411007</v>
+      </c>
+      <c r="L30" s="34">
+        <f>K30/K$30</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34">
+        <v>51.216258439999997</v>
+      </c>
+      <c r="O30" s="34">
+        <f>N30/N$30</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="75"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>1</v>
-      </c>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="22">
+        <v>1</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="9">
-        <v>5518076</v>
-      </c>
-      <c r="E31" s="47">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="F31" s="55" t="s">
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>184477</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F31" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="50"/>
       <c r="H31" s="34">
-        <v>64.440735667986601</v>
+        <v>214.61337080000001</v>
       </c>
       <c r="I31" s="34">
-        <f>H31/H$31</f>
-        <v>1</v>
+        <f>H31/H$30</f>
+        <v>3.3303991422294081</v>
       </c>
       <c r="J31" s="34"/>
       <c r="K31" s="34">
-        <v>197.24110072219199</v>
+        <v>1753.9008799999999</v>
       </c>
       <c r="L31" s="34">
-        <f>K31/K$31</f>
-        <v>1</v>
+        <f>K31/K$30</f>
+        <v>8.8921673716861385</v>
       </c>
       <c r="M31" s="34"/>
       <c r="N31" s="34">
-        <v>51.216258442913997</v>
+        <v>233.0980672</v>
       </c>
       <c r="O31" s="34">
-        <f>N31/N$31</f>
-        <v>1</v>
+        <f>N31/N$30</f>
+        <v>4.5512513857894383</v>
       </c>
       <c r="P31" s="34"/>
-      <c r="Q31" s="79"/>
+      <c r="Q31" s="75"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
@@ -4809,43 +4703,43 @@
         <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="5">
-        <v>184477</v>
+        <v>161385</v>
       </c>
       <c r="E32" s="42">
-        <v>0.52900000000000003</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="F32" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="34">
-        <v>214.61337077127999</v>
+        <v>101.4085446</v>
       </c>
       <c r="I32" s="34">
-        <f>H32/H$31</f>
-        <v>3.3303991418877823</v>
+        <f>H32/H$30</f>
+        <v>1.5736714291921119</v>
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34">
-        <v>1753.9008798449299</v>
+        <v>546.82364140000004</v>
       </c>
       <c r="L32" s="34">
-        <f>K32/K$31</f>
-        <v>8.8921673698994681</v>
+        <f>K32/K$30</f>
+        <v>2.7723615385401263</v>
       </c>
       <c r="M32" s="34"/>
       <c r="N32" s="34">
-        <v>233.09806721281399</v>
+        <v>95.960130079999999</v>
       </c>
       <c r="O32" s="34">
-        <f>N32/N$31</f>
-        <v>4.5512513857806844</v>
+        <f>N32/N$30</f>
+        <v>1.8736263249768155</v>
       </c>
       <c r="P32" s="34"/>
-      <c r="Q32" s="79"/>
+      <c r="Q32" s="75"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
@@ -4855,137 +4749,137 @@
         <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" s="5">
-        <v>161385</v>
+        <v>17406</v>
       </c>
       <c r="E33" s="42">
-        <v>0.52100000000000002</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="F33" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="50"/>
-      <c r="H33" s="34">
-        <v>101.408544634508</v>
-      </c>
-      <c r="I33" s="34">
-        <f>H33/H$31</f>
-        <v>1.5736714297767798</v>
-      </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34">
-        <v>546.823641438864</v>
-      </c>
-      <c r="L33" s="34">
-        <f>K33/K$31</f>
-        <v>2.7723615384252405</v>
-      </c>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34">
-        <v>95.960130080853602</v>
-      </c>
-      <c r="O33" s="34">
-        <f>N33/N$31</f>
-        <v>1.8736263248868803</v>
-      </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="79"/>
+      <c r="H33" s="66">
+        <v>13797.05458</v>
+      </c>
+      <c r="I33" s="66">
+        <f>H33/H$30</f>
+        <v>214.10454794703929</v>
+      </c>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66">
+        <v>8569.6046972999993</v>
+      </c>
+      <c r="L33" s="66">
+        <f>K33/K$30</f>
+        <v>43.44735791316743</v>
+      </c>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66">
+        <v>2765.6253280000001</v>
+      </c>
+      <c r="O33" s="66">
+        <f>N33/N$30</f>
+        <v>53.998972440361662</v>
+      </c>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="79">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
-        <v>1</v>
-      </c>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="72">
+        <v>1</v>
+      </c>
+      <c r="B34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="5">
-        <v>17406</v>
-      </c>
-      <c r="E34" s="42">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="F34" s="50" t="s">
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1934</v>
+      </c>
+      <c r="E34" s="43">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F34" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="50"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="67">
-        <v>13797.054583552401</v>
+        <v>38948.718200000003</v>
       </c>
       <c r="I34" s="67">
-        <f>H34/H$31</f>
-        <v>214.10454800885546</v>
+        <f>H34/H$30</f>
+        <v>604.41144557156804</v>
       </c>
       <c r="J34" s="67"/>
       <c r="K34" s="67">
-        <v>8569.6046969930194</v>
+        <v>7475.6416749999999</v>
       </c>
       <c r="L34" s="67">
-        <f>K34/K$31</f>
-        <v>43.447357906722715</v>
+        <f>K34/K$30</f>
+        <v>37.901034056640711</v>
       </c>
       <c r="M34" s="67"/>
       <c r="N34" s="67">
-        <v>2765.6253279477</v>
+        <v>7862.1923470000002</v>
       </c>
       <c r="O34" s="67">
-        <f>N34/N$31</f>
-        <v>53.998972436268176</v>
+        <f>N34/N$30</f>
+        <v>153.50969763264888</v>
       </c>
       <c r="P34" s="67"/>
-      <c r="Q34" s="83">
+      <c r="Q34" s="80"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="20">
+        <v>2</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="76">
-        <v>1</v>
-      </c>
-      <c r="B35" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1934</v>
-      </c>
-      <c r="E35" s="43">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F35" s="51" t="s">
+      <c r="D35" s="13">
+        <v>3798646</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.39</v>
+      </c>
+      <c r="F35" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="68">
-        <v>38948.718200620402</v>
-      </c>
-      <c r="I35" s="68">
-        <f>H35/H$31</f>
-        <v>604.41144560007979</v>
-      </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68">
-        <v>7475.6416752843797</v>
-      </c>
-      <c r="L35" s="68">
-        <f>K35/K$31</f>
-        <v>37.901034053818179</v>
-      </c>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68">
-        <v>7862.18821096173</v>
-      </c>
-      <c r="O35" s="68">
-        <f>N35/N$31</f>
-        <v>153.50961686756131</v>
-      </c>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="84"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="58">
+        <v>243.5557895</v>
+      </c>
+      <c r="I35" s="58">
+        <f>H35/H$35</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58">
+        <v>300.29527419999999</v>
+      </c>
+      <c r="L35" s="58">
+        <f>K35/K$35</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58">
+        <v>94.957059110000003</v>
+      </c>
+      <c r="O35" s="58">
+        <f>N35/N$35</f>
+        <v>1</v>
+      </c>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="81"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
@@ -4995,43 +4889,43 @@
         <v>7</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="13">
-        <v>3798646</v>
+        <v>145059</v>
       </c>
       <c r="E36" s="45">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="F36" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="53"/>
-      <c r="H36" s="59">
-        <v>243.55578953761301</v>
-      </c>
-      <c r="I36" s="59">
-        <f>H36/H$36</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59">
-        <v>300.295274207901</v>
-      </c>
-      <c r="L36" s="59">
-        <f>K36/K$36</f>
-        <v>1</v>
-      </c>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59">
-        <v>94.957059113989899</v>
-      </c>
-      <c r="O36" s="59">
-        <f>N36/N$36</f>
-        <v>1</v>
-      </c>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="85"/>
+      <c r="H36" s="58">
+        <v>76.956735910000006</v>
+      </c>
+      <c r="I36" s="58">
+        <f>H36/H$35</f>
+        <v>0.31597169612755194</v>
+      </c>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58">
+        <v>84.454310849999999</v>
+      </c>
+      <c r="L36" s="58">
+        <f>K36/K$35</f>
+        <v>0.28123756217939178</v>
+      </c>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58">
+        <v>26.54222802</v>
+      </c>
+      <c r="O36" s="58">
+        <f>N36/N$35</f>
+        <v>0.27951821874825539</v>
+      </c>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="81"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
@@ -5040,136 +4934,136 @@
       <c r="B37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="15">
+        <v>6078</v>
+      </c>
+      <c r="E37" s="46">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="53"/>
+      <c r="H37" s="58">
+        <v>217.923001</v>
+      </c>
+      <c r="I37" s="58">
+        <f>H37/H$35</f>
+        <v>0.89475598772411857</v>
+      </c>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58">
+        <v>69.730997040000005</v>
+      </c>
+      <c r="L37" s="58">
+        <f>K37/K$35</f>
+        <v>0.23220810659031013</v>
+      </c>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58">
+        <v>195.00855540000001</v>
+      </c>
+      <c r="O37" s="58">
+        <f>N37/N$35</f>
+        <v>2.0536499047858938</v>
+      </c>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="81"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>2</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9">
+        <v>4758908</v>
+      </c>
+      <c r="E38" s="47">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="55"/>
+      <c r="H38" s="65">
+        <v>363.15438970000002</v>
+      </c>
+      <c r="I38" s="65">
+        <f>H38/H$38</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65">
+        <v>214.0740064</v>
+      </c>
+      <c r="L38" s="65">
+        <f>K38/K$38</f>
+        <v>1</v>
+      </c>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65">
+        <v>88.782167720000004</v>
+      </c>
+      <c r="O38" s="65">
+        <f>N38/N$38</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="82"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
+        <v>2</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="13">
-        <v>145059</v>
-      </c>
-      <c r="E37" s="45">
-        <v>0.41</v>
-      </c>
-      <c r="F37" s="53" t="s">
+      <c r="D39" s="5">
+        <v>64962</v>
+      </c>
+      <c r="E39" s="42">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F39" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="59">
-        <v>76.956735914504094</v>
-      </c>
-      <c r="I37" s="59">
-        <f>H37/H$36</f>
-        <v>0.31597169609724857</v>
-      </c>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59">
-        <v>84.454310848659105</v>
-      </c>
-      <c r="L37" s="59">
-        <f>K37/K$36</f>
-        <v>0.28123756216752693</v>
-      </c>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59">
-        <v>26.5422280245011</v>
-      </c>
-      <c r="O37" s="59">
-        <f>N37/N$36</f>
-        <v>0.27951821878391209</v>
-      </c>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="85"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
-        <v>2</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="15">
-        <v>6078</v>
-      </c>
-      <c r="E38" s="46">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="59">
-        <v>217.92300098716601</v>
-      </c>
-      <c r="I38" s="59">
-        <f>H38/H$36</f>
-        <v>0.89475598753324459</v>
-      </c>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59">
-        <v>69.730997038499495</v>
-      </c>
-      <c r="L38" s="59">
-        <f>K38/K$36</f>
-        <v>0.23220810657920377</v>
-      </c>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59">
-        <v>195.00855544587</v>
-      </c>
-      <c r="O38" s="59">
-        <f>N38/N$36</f>
-        <v>2.0536499051826644</v>
-      </c>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="85"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
-        <v>2</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="9">
-        <v>4758908</v>
-      </c>
-      <c r="E39" s="47">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="66">
-        <v>363.15438968320501</v>
+        <v>1374.487844</v>
       </c>
       <c r="I39" s="66">
-        <f>H39/H$39</f>
-        <v>1</v>
+        <f>H39/H$38</f>
+        <v>3.7848581291705088</v>
       </c>
       <c r="J39" s="66"/>
       <c r="K39" s="66">
-        <v>214.074006423643</v>
+        <v>132.47793139999999</v>
       </c>
       <c r="L39" s="66">
-        <f>K39/K$39</f>
-        <v>1</v>
+        <f>K39/K$38</f>
+        <v>0.6188417436933622</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66">
-        <v>88.782167715170203</v>
+        <v>145.7733796</v>
       </c>
       <c r="O39" s="66">
-        <f>N39/N$39</f>
-        <v>1</v>
+        <f>N39/N$38</f>
+        <v>1.6419218334445056</v>
       </c>
       <c r="P39" s="66"/>
-      <c r="Q39" s="86"/>
+      <c r="Q39" s="79"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
@@ -5178,136 +5072,136 @@
       <c r="B40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5">
-        <v>64962</v>
-      </c>
-      <c r="E40" s="42">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7">
+        <v>9294</v>
+      </c>
+      <c r="E40" s="43">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F40" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="67">
-        <v>1374.4878437689999</v>
+        <v>2219.3035289999998</v>
       </c>
       <c r="I40" s="67">
-        <f>H40/H$39</f>
-        <v>3.7848581287094563</v>
+        <f>H40/H$38</f>
+        <v>6.1111846419737761</v>
       </c>
       <c r="J40" s="67"/>
       <c r="K40" s="67">
-        <v>132.47793138592499</v>
+        <v>278.90391649999998</v>
       </c>
       <c r="L40" s="67">
-        <f>K40/K$39</f>
-        <v>0.61884174355926713</v>
+        <f>K40/K$38</f>
+        <v>1.3028387761327009</v>
       </c>
       <c r="M40" s="67"/>
       <c r="N40" s="67">
-        <v>145.77337958016199</v>
+        <v>460.66935660000001</v>
       </c>
       <c r="O40" s="67">
-        <f>N40/N$39</f>
-        <v>1.6419218333103811</v>
+        <f>N40/N$38</f>
+        <v>5.1887599551843877</v>
       </c>
       <c r="P40" s="67"/>
-      <c r="Q40" s="83"/>
+      <c r="Q40" s="80"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="22">
+      <c r="A41" s="19">
         <v>2</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="7">
-        <v>9294</v>
-      </c>
-      <c r="E41" s="43">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="F41" s="51" t="s">
+      <c r="B41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11">
+        <v>4837926</v>
+      </c>
+      <c r="E41" s="44">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F41" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="68">
-        <v>2219.3035291585902</v>
-      </c>
-      <c r="I41" s="68">
-        <f>H41/H$39</f>
-        <v>6.1111846426931065</v>
-      </c>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68">
-        <v>278.90391650527198</v>
-      </c>
-      <c r="L41" s="68">
-        <f>K41/K$39</f>
-        <v>1.3028387760134383</v>
-      </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68">
-        <v>460.66935657413302</v>
-      </c>
-      <c r="O41" s="68">
-        <f>N41/N$39</f>
-        <v>5.1887599551753061</v>
-      </c>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="84"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="58">
+        <v>230.8710203</v>
+      </c>
+      <c r="I41" s="58">
+        <f t="shared" ref="I41:I46" si="9">H41/H$41</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58">
+        <v>141.09149300000001</v>
+      </c>
+      <c r="L41" s="58">
+        <f t="shared" ref="L41:L46" si="10">K41/K$41</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58">
+        <v>89.242141270000005</v>
+      </c>
+      <c r="O41" s="58">
+        <f t="shared" ref="O41:O46" si="11">N41/N$41</f>
+        <v>1</v>
+      </c>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="81"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
+      <c r="A42" s="20">
         <v>2</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11">
-        <v>4837926</v>
-      </c>
-      <c r="E42" s="44">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F42" s="52" t="s">
+      <c r="C42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="13">
+        <v>136482</v>
+      </c>
+      <c r="E42" s="45">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F42" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="53"/>
-      <c r="H42" s="59">
-        <v>230.871020252758</v>
-      </c>
-      <c r="I42" s="59">
-        <f t="shared" ref="I42:I47" si="9">H42/H$42</f>
-        <v>1</v>
-      </c>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59">
-        <v>141.09149299051401</v>
-      </c>
-      <c r="L42" s="59">
-        <f t="shared" ref="L42:L47" si="10">K42/K$42</f>
-        <v>1</v>
-      </c>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59">
-        <v>89.242141271274207</v>
-      </c>
-      <c r="O42" s="59">
-        <f t="shared" ref="O42:O47" si="11">N42/N$42</f>
-        <v>1</v>
-      </c>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="85"/>
+      <c r="H42" s="58">
+        <v>199.1903552</v>
+      </c>
+      <c r="I42" s="58">
+        <f t="shared" si="9"/>
+        <v>0.86277764502953513</v>
+      </c>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58">
+        <v>53.499566600000001</v>
+      </c>
+      <c r="L42" s="58">
+        <f t="shared" si="10"/>
+        <v>0.37918350328889067</v>
+      </c>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58">
+        <v>50.001534460000002</v>
+      </c>
+      <c r="O42" s="58">
+        <f t="shared" si="11"/>
+        <v>0.56029061773317979</v>
+      </c>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="81"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
@@ -5317,43 +5211,43 @@
         <v>12</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="13">
-        <v>136482</v>
+        <v>108411</v>
       </c>
       <c r="E43" s="45">
-        <v>0.52400000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="F43" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="53"/>
-      <c r="H43" s="59">
-        <v>199.190355151571</v>
-      </c>
-      <c r="I43" s="59">
+      <c r="H43" s="58">
+        <v>320.83247210000002</v>
+      </c>
+      <c r="I43" s="58">
         <f t="shared" si="9"/>
-        <v>0.8627776449963146</v>
-      </c>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59">
-        <v>53.499566602633102</v>
-      </c>
-      <c r="L43" s="59">
+        <v>1.389661082985217</v>
+      </c>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58">
+        <v>46.032252509999999</v>
+      </c>
+      <c r="L43" s="58">
         <f t="shared" si="10"/>
-        <v>0.37918350333304668</v>
-      </c>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59">
-        <v>50.001534460947298</v>
-      </c>
-      <c r="O43" s="59">
+        <v>0.32625817142639491</v>
+      </c>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58">
+        <v>62.251754730000002</v>
+      </c>
+      <c r="O43" s="58">
         <f t="shared" si="11"/>
-        <v>0.5602906177357948</v>
-      </c>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="85"/>
+        <v>0.69756007469227765</v>
+      </c>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="81"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
@@ -5363,43 +5257,43 @@
         <v>12</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" s="13">
-        <v>108411</v>
+        <v>4665</v>
       </c>
       <c r="E44" s="45">
-        <v>0.53100000000000003</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="F44" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="53"/>
-      <c r="H44" s="59">
-        <v>320.83247211815802</v>
-      </c>
-      <c r="I44" s="59">
+      <c r="H44" s="58">
+        <v>1103.859064</v>
+      </c>
+      <c r="I44" s="58">
         <f t="shared" si="9"/>
-        <v>1.3896610833482266</v>
-      </c>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59">
-        <v>46.032252508289197</v>
-      </c>
-      <c r="L44" s="59">
+        <v>4.7812803121223961</v>
+      </c>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58">
+        <v>39.289315729999998</v>
+      </c>
+      <c r="L44" s="58">
         <f t="shared" si="10"/>
-        <v>0.32625817143620472</v>
-      </c>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59">
-        <v>62.251754725918197</v>
-      </c>
-      <c r="O44" s="59">
+        <v>0.27846693584849935</v>
+      </c>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58">
+        <v>1010.327011</v>
+      </c>
+      <c r="O44" s="58">
         <f t="shared" si="11"/>
-        <v>0.69756007463657943</v>
-      </c>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="85"/>
+        <v>11.321187463927824</v>
+      </c>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="81"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="20">
@@ -5409,43 +5303,43 @@
         <v>12</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="13">
-        <v>4665</v>
+        <v>3715</v>
       </c>
       <c r="E45" s="45">
-        <v>0.51100000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="F45" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="53"/>
-      <c r="H45" s="59">
-        <v>1103.8590636254501</v>
-      </c>
-      <c r="I45" s="59">
+      <c r="H45" s="58">
+        <v>2307.1819599999999</v>
+      </c>
+      <c r="I45" s="58">
         <f t="shared" si="9"/>
-        <v>4.7812803114784312</v>
-      </c>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59">
-        <v>39.289315726290504</v>
-      </c>
-      <c r="L45" s="59">
+        <v>9.9933805334337151</v>
+      </c>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58">
+        <v>32.111975119999997</v>
+      </c>
+      <c r="L45" s="58">
         <f t="shared" si="10"/>
-        <v>0.27846693584093007</v>
-      </c>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59">
-        <v>1010.32701080432</v>
-      </c>
-      <c r="O45" s="59">
+        <v>0.22759681988764549</v>
+      </c>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58">
+        <v>1567.172006</v>
+      </c>
+      <c r="O45" s="58">
         <f t="shared" si="11"/>
-        <v>11.321187461573494</v>
-      </c>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="85"/>
+        <v>17.560896496852958</v>
+      </c>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="81"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
@@ -5454,138 +5348,138 @@
       <c r="B46" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="13">
-        <v>3715</v>
-      </c>
-      <c r="E46" s="45">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="F46" s="53" t="s">
+      <c r="C46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="15">
+        <v>2369</v>
+      </c>
+      <c r="E46" s="46">
+        <v>0.499</v>
+      </c>
+      <c r="F46" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="53"/>
-      <c r="H46" s="59">
-        <v>2307.1819595645402</v>
-      </c>
-      <c r="I46" s="59">
+      <c r="H46" s="58">
+        <v>2649.4722980000001</v>
+      </c>
+      <c r="I46" s="58">
         <f t="shared" si="9"/>
-        <v>9.9933805335924504</v>
-      </c>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59">
-        <v>32.1119751166407</v>
-      </c>
-      <c r="L46" s="59">
+        <v>11.475984705907241</v>
+      </c>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58">
+        <v>24.844303799999999</v>
+      </c>
+      <c r="L46" s="58">
         <f t="shared" si="10"/>
-        <v>0.22759681987913816</v>
-      </c>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59">
-        <v>1567.1720062208301</v>
-      </c>
-      <c r="O46" s="59">
+        <v>0.17608647602871419</v>
+      </c>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58">
+        <v>2152.8534979999999</v>
+      </c>
+      <c r="O46" s="58">
         <f t="shared" si="11"/>
-        <v>17.56089649907673</v>
-      </c>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="85"/>
+        <v>24.123731987633423</v>
+      </c>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="20">
+      <c r="A47" s="21">
         <v>2</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="15">
-        <v>2369</v>
-      </c>
-      <c r="E47" s="46">
-        <v>0.499</v>
-      </c>
-      <c r="F47" s="54" t="s">
+      <c r="B47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2051882</v>
+      </c>
+      <c r="E47" s="47">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F47" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="59">
-        <v>2649.4722981264599</v>
-      </c>
-      <c r="I47" s="59">
-        <f t="shared" si="9"/>
-        <v>11.475984708803265</v>
-      </c>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59">
-        <v>24.844303797468299</v>
-      </c>
-      <c r="L47" s="59">
-        <f t="shared" si="10"/>
-        <v>0.17608647602260935</v>
-      </c>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59">
-        <v>2152.85349762135</v>
-      </c>
-      <c r="O47" s="59">
-        <f t="shared" si="11"/>
-        <v>24.123731983046035</v>
-      </c>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="85">
-        <v>3</v>
-      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="65">
+        <v>597.79049029999999</v>
+      </c>
+      <c r="I47" s="65">
+        <f>H47/H$47</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65">
+        <v>581.09536179999998</v>
+      </c>
+      <c r="L47" s="65">
+        <f>K47/K$47</f>
+        <v>1</v>
+      </c>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65">
+        <v>155.8212652</v>
+      </c>
+      <c r="O47" s="65">
+        <f>N47/N$47</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="82"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="21">
+      <c r="A48" s="22">
         <v>2</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="9">
-        <v>2051882</v>
-      </c>
-      <c r="E48" s="47">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F48" s="55" t="s">
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5">
+        <v>39398</v>
+      </c>
+      <c r="E48" s="42">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="55"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="66">
-        <v>597.79049029104601</v>
+        <v>2643.065486</v>
       </c>
       <c r="I48" s="66">
-        <f>H48/H$48</f>
-        <v>1</v>
+        <f>H48/H$47</f>
+        <v>4.4213909871225665</v>
       </c>
       <c r="J48" s="66"/>
       <c r="K48" s="66">
-        <v>581.09536180603902</v>
+        <v>642.99733490000006</v>
       </c>
       <c r="L48" s="66">
-        <f>K48/K$48</f>
-        <v>1</v>
+        <f>K48/K$47</f>
+        <v>1.1065263589581109</v>
       </c>
       <c r="M48" s="66"/>
       <c r="N48" s="66">
-        <v>155.82126516940099</v>
+        <v>391.10541139999998</v>
       </c>
       <c r="O48" s="66">
-        <f>N48/N$48</f>
-        <v>1</v>
+        <f>N48/N$47</f>
+        <v>2.5099617237609233</v>
       </c>
       <c r="P48" s="66"/>
-      <c r="Q48" s="86"/>
+      <c r="Q48" s="79"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
@@ -5595,43 +5489,43 @@
         <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="5">
-        <v>39398</v>
+        <v>10719</v>
       </c>
       <c r="E49" s="42">
-        <v>0.36099999999999999</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="F49" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="50"/>
-      <c r="H49" s="67">
-        <v>2643.0654855576399</v>
-      </c>
-      <c r="I49" s="67">
-        <f>H49/H$48</f>
-        <v>4.4213909864488006</v>
-      </c>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67">
-        <v>642.997334890096</v>
-      </c>
-      <c r="L49" s="67">
-        <f>K49/K$48</f>
-        <v>1.1065263589295675</v>
-      </c>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67">
-        <v>391.10541144220502</v>
-      </c>
-      <c r="O49" s="67">
-        <f>N49/N$48</f>
-        <v>2.5099617245246661</v>
-      </c>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="83"/>
+      <c r="H49" s="66">
+        <v>14502.741770000001</v>
+      </c>
+      <c r="I49" s="66">
+        <f>H49/H$47</f>
+        <v>24.260576247577688</v>
+      </c>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66">
+        <v>1019.1577569999999</v>
+      </c>
+      <c r="L49" s="66">
+        <f>K49/K$47</f>
+        <v>1.7538562927830961</v>
+      </c>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66">
+        <v>2372.5406290000001</v>
+      </c>
+      <c r="O49" s="66">
+        <f>N49/N$47</f>
+        <v>15.226038794864053</v>
+      </c>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="79"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
@@ -5641,43 +5535,43 @@
         <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" s="5">
-        <v>10719</v>
+        <v>9975</v>
       </c>
       <c r="E50" s="42">
-        <v>0.29199999999999998</v>
+        <v>0.437</v>
       </c>
       <c r="F50" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="50"/>
-      <c r="H50" s="67">
-        <v>14502.7417669558</v>
-      </c>
-      <c r="I50" s="67">
-        <f>H50/H$48</f>
-        <v>24.260576242848654</v>
-      </c>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67">
-        <v>1019.15775725347</v>
-      </c>
-      <c r="L50" s="67">
-        <f>K50/K$48</f>
-        <v>1.7538562932010626</v>
-      </c>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67">
-        <v>2372.54062878999</v>
-      </c>
-      <c r="O50" s="67">
-        <f>N50/N$48</f>
-        <v>15.226038796506266</v>
-      </c>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="83"/>
+      <c r="H50" s="167">
+        <v>20669.93548</v>
+      </c>
+      <c r="I50" s="66">
+        <f>H50/H$47</f>
+        <v>34.577223651762736</v>
+      </c>
+      <c r="J50" s="168"/>
+      <c r="K50" s="167">
+        <v>2836.9639590000002</v>
+      </c>
+      <c r="L50" s="66">
+        <f>K50/K$47</f>
+        <v>4.8820970627131244</v>
+      </c>
+      <c r="M50" s="168"/>
+      <c r="N50" s="167">
+        <v>3315.9745119999998</v>
+      </c>
+      <c r="O50" s="66">
+        <f>N50/N$47</f>
+        <v>21.280628852190837</v>
+      </c>
+      <c r="P50" s="167"/>
+      <c r="Q50" s="169"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
@@ -5687,36 +5581,43 @@
         <v>13</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5">
-        <v>9975</v>
+        <v>7392</v>
       </c>
       <c r="E51" s="42">
-        <v>0.437</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="F51" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="50"/>
-      <c r="H51" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="113"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="L51" s="113"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="O51" s="113"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="83">
-        <v>1</v>
-      </c>
+      <c r="H51" s="66">
+        <v>337.79044909999999</v>
+      </c>
+      <c r="I51" s="66">
+        <f>H51/H$47</f>
+        <v>0.56506494261974716</v>
+      </c>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66">
+        <v>16.356331170000001</v>
+      </c>
+      <c r="L51" s="66">
+        <f>K51/K$47</f>
+        <v>2.8147413049959061E-2</v>
+      </c>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66">
+        <v>43.190205630000001</v>
+      </c>
+      <c r="O51" s="66">
+        <f>N51/N$47</f>
+        <v>0.27717786513005416</v>
+      </c>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="79"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
@@ -5725,136 +5626,136 @@
       <c r="B52" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="5">
-        <v>7392</v>
-      </c>
-      <c r="E52" s="42">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="F52" s="50" t="s">
+      <c r="C52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="7">
+        <v>5675</v>
+      </c>
+      <c r="E52" s="43">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F52" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="50"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="67">
-        <v>337.79044913419898</v>
+        <v>546.37039649999997</v>
       </c>
       <c r="I52" s="67">
-        <f>H52/H$48</f>
-        <v>0.56506494268541996</v>
+        <f>H52/H$47</f>
+        <v>0.9139830849865227</v>
       </c>
       <c r="J52" s="67"/>
       <c r="K52" s="67">
-        <v>16.356331168831101</v>
+        <v>12.35594714</v>
       </c>
       <c r="L52" s="67">
-        <f>K52/K$48</f>
-        <v>2.8147413047654991E-2</v>
+        <f>K52/K$47</f>
+        <v>2.1263200418131439E-2</v>
       </c>
       <c r="M52" s="67"/>
       <c r="N52" s="67">
-        <v>43.190205627705602</v>
+        <v>79.194537440000005</v>
       </c>
       <c r="O52" s="67">
-        <f>N52/N$48</f>
-        <v>0.27717786516975973</v>
+        <f>N52/N$47</f>
+        <v>0.50823959963585252</v>
       </c>
       <c r="P52" s="67"/>
-      <c r="Q52" s="83"/>
+      <c r="Q52" s="80"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="22">
+      <c r="A53" s="19">
         <v>2</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="7">
-        <v>5675</v>
-      </c>
-      <c r="E53" s="43">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="F53" s="51" t="s">
+      <c r="B53" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11">
+        <v>5804453</v>
+      </c>
+      <c r="E53" s="44">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F53" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="68">
-        <v>546.37039647577001</v>
-      </c>
-      <c r="I53" s="68">
-        <f>H53/H$48</f>
-        <v>0.91398308495968028</v>
-      </c>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68">
-        <v>12.355947136563801</v>
-      </c>
-      <c r="L53" s="68">
-        <f>K53/K$48</f>
-        <v>2.1263200411997148E-2</v>
-      </c>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68">
-        <v>79.1945374449339</v>
-      </c>
-      <c r="O53" s="68">
-        <f>N53/N$48</f>
-        <v>0.50823959976732069</v>
-      </c>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="84"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="58">
+        <v>174.861795</v>
+      </c>
+      <c r="I53" s="58">
+        <f>H53/H$53</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58">
+        <v>101.5149548</v>
+      </c>
+      <c r="L53" s="58">
+        <f>K53/K$53</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58">
+        <v>68.534494710000004</v>
+      </c>
+      <c r="O53" s="58">
+        <f>N53/N$53</f>
+        <v>1</v>
+      </c>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="81"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="19">
+      <c r="A54" s="20">
         <v>2</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="11">
-        <v>5804453</v>
-      </c>
-      <c r="E54" s="44">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="F54" s="52" t="s">
+      <c r="C54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="13">
+        <v>118161</v>
+      </c>
+      <c r="E54" s="45">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F54" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="53"/>
-      <c r="H54" s="59">
-        <v>174.861795032571</v>
-      </c>
-      <c r="I54" s="59">
-        <f>H54/H$54</f>
-        <v>1</v>
-      </c>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59">
-        <v>101.51495480980699</v>
-      </c>
-      <c r="L54" s="59">
-        <f>K54/K$54</f>
-        <v>1</v>
-      </c>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59">
-        <v>68.534494705601702</v>
-      </c>
-      <c r="O54" s="59">
-        <f>N54/N$54</f>
-        <v>1</v>
-      </c>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="85"/>
+      <c r="H54" s="58">
+        <v>271.34387329999998</v>
+      </c>
+      <c r="I54" s="58">
+        <f>H54/H$53</f>
+        <v>1.551761911742928</v>
+      </c>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58">
+        <v>55.269616390000003</v>
+      </c>
+      <c r="L54" s="58">
+        <f>K54/K$53</f>
+        <v>0.54444802245038293</v>
+      </c>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58">
+        <v>66.379337789999994</v>
+      </c>
+      <c r="O54" s="58">
+        <f>N54/N$53</f>
+        <v>0.96855369067621433</v>
+      </c>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="81"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
@@ -5864,43 +5765,43 @@
         <v>14</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="13">
-        <v>118161</v>
+        <v>58472</v>
       </c>
       <c r="E55" s="45">
-        <v>0.52300000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="F55" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="53"/>
-      <c r="H55" s="59">
-        <v>271.34387331696098</v>
-      </c>
-      <c r="I55" s="59">
-        <f>H55/H$54</f>
-        <v>1.5517619115508825</v>
-      </c>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59">
-        <v>55.269616394275502</v>
-      </c>
-      <c r="L55" s="59">
-        <f>K55/K$54</f>
-        <v>0.54444802243990265</v>
-      </c>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59">
-        <v>66.379337793208506</v>
-      </c>
-      <c r="O55" s="59">
-        <f>N55/N$54</f>
-        <v>0.96855369078518871</v>
-      </c>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="85"/>
+      <c r="H55" s="58">
+        <v>149.2626898</v>
+      </c>
+      <c r="I55" s="58">
+        <f>H55/H$53</f>
+        <v>0.85360378349084198</v>
+      </c>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58">
+        <v>19.699120950000001</v>
+      </c>
+      <c r="L55" s="58">
+        <f>K55/K$53</f>
+        <v>0.19405141822513033</v>
+      </c>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58">
+        <v>29.41252223</v>
+      </c>
+      <c r="O55" s="58">
+        <f>N55/N$53</f>
+        <v>0.42916377153515894</v>
+      </c>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="81"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
@@ -5909,175 +5810,182 @@
       <c r="B56" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="15">
+        <v>4574</v>
+      </c>
+      <c r="E56" s="46">
+        <v>0.37</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="53"/>
+      <c r="H56" s="58">
+        <v>1144.26585</v>
+      </c>
+      <c r="I56" s="58">
+        <f>H56/H$53</f>
+        <v>6.5438299429558064</v>
+      </c>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58">
+        <v>101.4864451</v>
+      </c>
+      <c r="L56" s="58">
+        <f>K56/K$53</f>
+        <v>0.99971915763489061</v>
+      </c>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58">
+        <v>1069.0485349999999</v>
+      </c>
+      <c r="O56" s="58">
+        <f>N56/N$53</f>
+        <v>15.598692884854858</v>
+      </c>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="81"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="21">
+        <v>2</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9">
+        <v>5417255</v>
+      </c>
+      <c r="E57" s="47">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="55"/>
+      <c r="H57" s="65">
+        <v>219.1897644</v>
+      </c>
+      <c r="I57" s="65">
+        <f t="shared" ref="I57:I62" si="12">H57/H$57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65">
+        <v>296.75099460000001</v>
+      </c>
+      <c r="L57" s="65">
+        <f t="shared" ref="L57:L62" si="13">K57/K$57</f>
+        <v>1</v>
+      </c>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65">
+        <v>80.038454119999997</v>
+      </c>
+      <c r="O57" s="65">
+        <f t="shared" ref="O57:O62" si="14">N57/N$57</f>
+        <v>1</v>
+      </c>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="82"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
+        <v>2</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="5">
+        <v>250980</v>
+      </c>
+      <c r="E58" s="42">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="50"/>
+      <c r="H58" s="66">
+        <v>136.9907082</v>
+      </c>
+      <c r="I58" s="66">
+        <f t="shared" si="12"/>
+        <v>0.62498679431948878</v>
+      </c>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66">
+        <v>110.6715269</v>
+      </c>
+      <c r="L58" s="66">
+        <f t="shared" si="13"/>
+        <v>0.37294408077444741</v>
+      </c>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66">
+        <v>41.364738750000001</v>
+      </c>
+      <c r="O58" s="66">
+        <f t="shared" si="14"/>
+        <v>0.51681081556101405</v>
+      </c>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="79"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
+        <v>2</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="13">
-        <v>58472</v>
-      </c>
-      <c r="E56" s="45">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="F56" s="53" t="s">
+      <c r="D59" s="5">
+        <v>243620</v>
+      </c>
+      <c r="E59" s="42">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F59" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="59">
-        <v>149.26268983444999</v>
-      </c>
-      <c r="I56" s="59">
-        <f>H56/H$54</f>
-        <v>0.85360378352885635</v>
-      </c>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59">
-        <v>19.699120946777899</v>
-      </c>
-      <c r="L56" s="59">
-        <f>K56/K$54</f>
-        <v>0.19405141817464355</v>
-      </c>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59">
-        <v>29.412522232863498</v>
-      </c>
-      <c r="O56" s="59">
-        <f>N56/N$54</f>
-        <v>0.42916377160448299</v>
-      </c>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="85"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="20">
-        <v>2</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="13">
-        <v>9975</v>
-      </c>
-      <c r="E57" s="45">
-        <v>0.437</v>
-      </c>
-      <c r="F57" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="53"/>
-      <c r="H57" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" s="111"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="L57" s="111"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="O57" s="111"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="20">
-        <v>2</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="15">
-        <v>4574</v>
-      </c>
-      <c r="E58" s="46">
-        <v>0.37</v>
-      </c>
-      <c r="F58" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="59">
-        <v>1144.26585045911</v>
-      </c>
-      <c r="I58" s="59">
-        <f>H58/H$54</f>
-        <v>6.5438299443624661</v>
-      </c>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59">
-        <v>101.48644512461701</v>
-      </c>
-      <c r="L58" s="59">
-        <f>K58/K$54</f>
-        <v>0.99971915778080778</v>
-      </c>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59">
-        <v>1069.04744206383</v>
-      </c>
-      <c r="O58" s="59">
-        <f>N58/N$54</f>
-        <v>15.598676938613963</v>
-      </c>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="85"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="21">
-        <v>2</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="9">
-        <v>5417255</v>
-      </c>
-      <c r="E59" s="47">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="F59" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="55"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="66">
-        <v>219.189764426144</v>
+        <v>150.1272567</v>
       </c>
       <c r="I59" s="66">
-        <f t="shared" ref="I59:I64" si="12">H59/H$59</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.68491910245422027</v>
       </c>
       <c r="J59" s="66"/>
       <c r="K59" s="66">
-        <v>296.75099459234002</v>
+        <v>160.86113570000001</v>
       </c>
       <c r="L59" s="66">
-        <f t="shared" ref="L59:L64" si="13">K59/K$59</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0.542074461845797</v>
       </c>
       <c r="M59" s="66"/>
       <c r="N59" s="66">
-        <v>80.038454117219104</v>
+        <v>52.478047310000001</v>
       </c>
       <c r="O59" s="66">
-        <f t="shared" ref="O59:O64" si="14">N59/N$59</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.65566043081392789</v>
       </c>
       <c r="P59" s="66"/>
-      <c r="Q59" s="86"/>
+      <c r="Q59" s="79"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
@@ -6087,43 +5995,43 @@
         <v>17</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" s="5">
-        <v>250980</v>
+        <v>31780</v>
       </c>
       <c r="E60" s="42">
-        <v>0.45600000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="F60" s="50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" s="50"/>
-      <c r="H60" s="67">
-        <v>136.990708168563</v>
-      </c>
-      <c r="I60" s="67">
+      <c r="H60" s="66">
+        <v>953.63005029999999</v>
+      </c>
+      <c r="I60" s="66">
         <f t="shared" si="12"/>
-        <v>0.62498679410151947</v>
-      </c>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67">
-        <v>110.67152688485</v>
-      </c>
-      <c r="L60" s="67">
+        <v>4.3507052115796698</v>
+      </c>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66">
+        <v>239.71834490000001</v>
+      </c>
+      <c r="L60" s="66">
         <f t="shared" si="13"/>
-        <v>0.37294408073302121</v>
-      </c>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67">
-        <v>41.364738753163898</v>
-      </c>
-      <c r="O60" s="67">
+        <v>0.8078097437318581</v>
+      </c>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66">
+        <v>399.10113280000002</v>
+      </c>
+      <c r="O60" s="66">
         <f t="shared" si="14"/>
-        <v>0.51681081561850006</v>
-      </c>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="83"/>
+        <v>4.9863673304039073</v>
+      </c>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="79"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="22">
@@ -6133,43 +6041,43 @@
         <v>17</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D61" s="5">
-        <v>243620</v>
+        <v>5783</v>
       </c>
       <c r="E61" s="42">
-        <v>0.52500000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F61" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="50"/>
-      <c r="H61" s="67">
-        <v>150.12725674975499</v>
-      </c>
-      <c r="I61" s="67">
+      <c r="H61" s="66">
+        <v>2942.0133150000001</v>
+      </c>
+      <c r="I61" s="66">
         <f t="shared" si="12"/>
-        <v>0.68491910259952116</v>
-      </c>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67">
-        <v>160.86113570337099</v>
-      </c>
-      <c r="L61" s="67">
+        <v>13.42222034433648</v>
+      </c>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66">
+        <v>312.9991354</v>
+      </c>
+      <c r="L61" s="66">
         <f t="shared" si="13"/>
-        <v>0.54207446187114905</v>
-      </c>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67">
-        <v>52.478047308950899</v>
-      </c>
-      <c r="O61" s="67">
+        <v>1.0547534501843923</v>
+      </c>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66">
+        <v>749.06259729999999</v>
+      </c>
+      <c r="O61" s="66">
         <f t="shared" si="14"/>
-        <v>0.65566043082360104</v>
-      </c>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="83"/>
+        <v>9.3587839187516781</v>
+      </c>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="79"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
@@ -6178,182 +6086,182 @@
       <c r="B62" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="5">
-        <v>31780</v>
-      </c>
-      <c r="E62" s="42">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="50"/>
+      <c r="C62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3514</v>
+      </c>
+      <c r="E62" s="43">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="51"/>
       <c r="H62" s="67">
-        <v>953.630050346129</v>
+        <v>1927.2068870000001</v>
       </c>
       <c r="I62" s="67">
         <f t="shared" si="12"/>
-        <v>4.3507052112711895</v>
+        <v>8.7924127856765928</v>
       </c>
       <c r="J62" s="67"/>
       <c r="K62" s="67">
-        <v>239.71834487098801</v>
+        <v>329.99317020000001</v>
       </c>
       <c r="L62" s="67">
         <f t="shared" si="13"/>
-        <v>0.80780974365494451</v>
+        <v>1.1120204353310026</v>
       </c>
       <c r="M62" s="67"/>
       <c r="N62" s="67">
-        <v>399.10113278791601</v>
+        <v>1133.0455320000001</v>
       </c>
       <c r="O62" s="67">
         <f t="shared" si="14"/>
-        <v>4.9863673304261784</v>
+        <v>14.156264566295201</v>
       </c>
       <c r="P62" s="67"/>
-      <c r="Q62" s="83"/>
+      <c r="Q62" s="80"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
+      <c r="A63" s="19">
         <v>2</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="5">
-        <v>5783</v>
-      </c>
-      <c r="E63" s="42">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="F63" s="50" t="s">
+      <c r="B63" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="11">
+        <v>5518076</v>
+      </c>
+      <c r="E63" s="44">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="50"/>
-      <c r="H63" s="67">
-        <v>2942.0133148884602</v>
-      </c>
-      <c r="I63" s="67">
-        <f t="shared" si="12"/>
-        <v>13.422220342226664</v>
-      </c>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67">
-        <v>312.99913539685201</v>
-      </c>
-      <c r="L63" s="67">
-        <f t="shared" si="13"/>
-        <v>1.0547534502010103</v>
-      </c>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67">
-        <v>749.06259726785402</v>
-      </c>
-      <c r="O63" s="67">
-        <f t="shared" si="14"/>
-        <v>9.3587839186752131</v>
-      </c>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="83"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="58">
+        <v>95.199023580000002</v>
+      </c>
+      <c r="I63" s="58">
+        <f>H63/H$63</f>
+        <v>1</v>
+      </c>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58">
+        <v>159.96850190000001</v>
+      </c>
+      <c r="L63" s="58">
+        <f>K63/K$63</f>
+        <v>1</v>
+      </c>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58">
+        <v>39.537010940000002</v>
+      </c>
+      <c r="O63" s="58">
+        <f>N63/N$63</f>
+        <v>1</v>
+      </c>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="81"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="22">
+      <c r="A64" s="20">
         <v>2</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="7">
-        <v>3514</v>
-      </c>
-      <c r="E64" s="43">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F64" s="51" t="s">
+      <c r="B64" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="13">
+        <v>184477</v>
+      </c>
+      <c r="E64" s="45">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F64" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="51"/>
-      <c r="H64" s="68">
-        <v>1927.20688673875</v>
-      </c>
-      <c r="I64" s="68">
-        <f t="shared" si="12"/>
-        <v>8.7924127834359815</v>
-      </c>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68">
-        <v>329.99317017643699</v>
-      </c>
-      <c r="L64" s="68">
-        <f t="shared" si="13"/>
-        <v>1.1120204352803036</v>
-      </c>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68">
-        <v>1133.0455321570801</v>
-      </c>
-      <c r="O64" s="68">
-        <f t="shared" si="14"/>
-        <v>14.156264568749609</v>
-      </c>
-      <c r="P64" s="68"/>
-      <c r="Q64" s="84"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="58">
+        <v>317.59873329999999</v>
+      </c>
+      <c r="I64" s="58">
+        <f>H64/H$63</f>
+        <v>3.3361553654288016</v>
+      </c>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58">
+        <v>854.67347619999998</v>
+      </c>
+      <c r="L64" s="58">
+        <f>K64/K$63</f>
+        <v>5.3427610188803047</v>
+      </c>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58">
+        <v>131.3569315</v>
+      </c>
+      <c r="O64" s="58">
+        <f>N64/N$63</f>
+        <v>3.3223789147678042</v>
+      </c>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="81"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="19">
+      <c r="A65" s="20">
         <v>2</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="11">
-        <v>5518076</v>
-      </c>
-      <c r="E65" s="44">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="F65" s="52" t="s">
+      <c r="C65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="13">
+        <v>161385</v>
+      </c>
+      <c r="E65" s="45">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F65" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="53"/>
-      <c r="H65" s="59">
-        <v>95.199023576647505</v>
-      </c>
-      <c r="I65" s="59">
-        <f>H65/H$65</f>
-        <v>1</v>
-      </c>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59">
-        <v>159.96850187865701</v>
-      </c>
-      <c r="L65" s="59">
-        <f>K65/K$65</f>
-        <v>1</v>
-      </c>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59">
-        <v>39.537010936898803</v>
-      </c>
-      <c r="O65" s="59">
-        <f>N65/N$65</f>
-        <v>1</v>
-      </c>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="85"/>
+      <c r="H65" s="58">
+        <v>126.4291568</v>
+      </c>
+      <c r="I65" s="58">
+        <f>H65/H$63</f>
+        <v>1.3280509825161801</v>
+      </c>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58">
+        <v>251.28423219999999</v>
+      </c>
+      <c r="L65" s="58">
+        <f>K65/K$63</f>
+        <v>1.5708356908729666</v>
+      </c>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58">
+        <v>60.811217749999997</v>
+      </c>
+      <c r="O65" s="58">
+        <f>N65/N$63</f>
+        <v>1.5380833377182963</v>
+      </c>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="81"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
@@ -6363,183 +6271,91 @@
         <v>19</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D66" s="13">
-        <v>184477</v>
+        <v>17406</v>
       </c>
       <c r="E66" s="45">
-        <v>0.52900000000000003</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="F66" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="53"/>
-      <c r="H66" s="59">
-        <v>317.598733278559</v>
-      </c>
-      <c r="I66" s="59">
-        <f>H66/H$65</f>
-        <v>3.3361553653210634</v>
-      </c>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59">
-        <v>854.67347622504201</v>
-      </c>
-      <c r="L66" s="59">
-        <f>K66/K$65</f>
-        <v>5.3427610197496795</v>
-      </c>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59">
-        <v>131.35693147100801</v>
-      </c>
-      <c r="O66" s="59">
-        <f>N66/N$65</f>
-        <v>3.322378914295117</v>
-      </c>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="85"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="20">
+      <c r="H66" s="58">
+        <v>10321.17592</v>
+      </c>
+      <c r="I66" s="58">
+        <f>H66/H$63</f>
+        <v>108.4168254239147</v>
+      </c>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58">
+        <v>3758.8923329999998</v>
+      </c>
+      <c r="L66" s="58">
+        <f>K66/K$63</f>
+        <v>23.49770291247567</v>
+      </c>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58">
+        <v>2513.6598749999998</v>
+      </c>
+      <c r="O66" s="58">
+        <f>N66/N$63</f>
+        <v>63.577387749788244</v>
+      </c>
+      <c r="P66" s="58"/>
+      <c r="Q66" s="81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="59">
         <v>2</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="13">
-        <v>161385</v>
-      </c>
-      <c r="E67" s="45">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="F67" s="53" t="s">
+      <c r="C67" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="61">
+        <v>1934</v>
+      </c>
+      <c r="E67" s="62">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F67" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="53"/>
-      <c r="H67" s="59">
-        <v>126.42915681205599</v>
-      </c>
-      <c r="I67" s="59">
-        <f>H67/H$65</f>
-        <v>1.3280509826895881</v>
-      </c>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59">
-        <v>251.28423216544701</v>
-      </c>
-      <c r="L67" s="59">
-        <f>K67/K$65</f>
-        <v>1.5708356908665488</v>
-      </c>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59">
-        <v>60.811217754798903</v>
-      </c>
-      <c r="O67" s="59">
-        <f>N67/N$65</f>
-        <v>1.5380833379603178</v>
-      </c>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="85"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="20">
-        <v>2</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="13">
-        <v>17406</v>
-      </c>
-      <c r="E68" s="45">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="F68" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="53"/>
-      <c r="H68" s="59">
-        <v>10321.175922137099</v>
-      </c>
-      <c r="I68" s="59">
-        <f>H68/H$65</f>
-        <v>108.41682545018143</v>
-      </c>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59">
-        <v>3758.8923321460502</v>
-      </c>
-      <c r="L68" s="59">
-        <f>K68/K$65</f>
-        <v>23.497702910272498</v>
-      </c>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59">
-        <v>2513.6598748726801</v>
-      </c>
-      <c r="O68" s="59">
-        <f>N68/N$65</f>
-        <v>63.577387751554852</v>
-      </c>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60">
-        <v>2</v>
-      </c>
-      <c r="B69" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="62">
-        <v>1934</v>
-      </c>
-      <c r="E69" s="63">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F69" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="64"/>
-      <c r="H69" s="65">
-        <v>11371.6618407445</v>
-      </c>
-      <c r="I69" s="65">
-        <f>H69/H$65</f>
-        <v>119.45145457914118</v>
-      </c>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65">
-        <v>989.57290589451895</v>
-      </c>
-      <c r="L69" s="65">
-        <f>K69/K$65</f>
-        <v>6.1860484674986367</v>
-      </c>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65">
-        <v>5410.4891416752798</v>
-      </c>
-      <c r="O69" s="65">
-        <f>N69/N$65</f>
-        <v>136.84618572482472</v>
-      </c>
-      <c r="P69" s="65"/>
-      <c r="Q69" s="87"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="64">
+        <v>11371.661840000001</v>
+      </c>
+      <c r="I67" s="64">
+        <f>H67/H$63</f>
+        <v>119.45145456711417</v>
+      </c>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64">
+        <v>989.57290590000002</v>
+      </c>
+      <c r="L67" s="64">
+        <f>K67/K$63</f>
+        <v>6.1860484667075575</v>
+      </c>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64">
+        <v>5410.4891420000004</v>
+      </c>
+      <c r="O67" s="64">
+        <f>N67/N$63</f>
+        <v>136.84618572230389</v>
+      </c>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6549,7 +6365,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A101B099-DDED-4845-A32C-10E60988ADF6}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6560,43 +6376,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="102" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="106">
-        <v>1</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="117">
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="105">
+        <v>1</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="105">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="117">
+      <c r="B3" s="106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107">
         <v>3</v>
       </c>
-      <c r="B4" s="119" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120">
-        <v>4</v>
-      </c>
-      <c r="B5" s="121" t="s">
-        <v>73</v>
+      <c r="B4" s="108" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6606,1425 +6414,1134 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D58F08-71C4-B940-847D-1372352C8926}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.1640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="176" customFormat="1" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:13" s="161" customFormat="1" ht="61" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="158" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="159" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="159" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="159" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="156" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="157" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="154" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="154" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="156" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="157" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="154" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="B20" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="157" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="157" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="B21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="B22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="B23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="B24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="157" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="B25" s="157" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="157" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="157" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="157" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="B26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="173" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="174">
-        <v>0</v>
-      </c>
-      <c r="C2" s="174">
-        <v>1</v>
-      </c>
-      <c r="D2" s="174">
-        <v>1</v>
-      </c>
-      <c r="E2" s="174" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="174" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="170">
-        <v>1</v>
-      </c>
-      <c r="C3" s="170">
-        <v>4</v>
-      </c>
-      <c r="D3" s="170">
-        <v>5</v>
-      </c>
-      <c r="E3" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="170" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="170" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="170" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="170" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="170" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="168">
-        <v>0</v>
-      </c>
-      <c r="C4" s="168">
-        <v>0</v>
-      </c>
-      <c r="D4" s="168">
-        <v>0</v>
-      </c>
-      <c r="E4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="170">
-        <v>1</v>
-      </c>
-      <c r="C5" s="170">
-        <v>1</v>
-      </c>
-      <c r="D5" s="170">
-        <v>1</v>
-      </c>
-      <c r="E5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="170" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="170" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="167" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="168">
-        <v>0</v>
-      </c>
-      <c r="C6" s="168">
-        <v>0</v>
-      </c>
-      <c r="D6" s="168">
-        <v>0</v>
-      </c>
-      <c r="E6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="167" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="168">
-        <v>0</v>
-      </c>
-      <c r="C7" s="168">
-        <v>0</v>
-      </c>
-      <c r="D7" s="168">
-        <v>0</v>
-      </c>
-      <c r="E7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="167" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="168">
-        <v>0</v>
-      </c>
-      <c r="C8" s="168">
-        <v>0</v>
-      </c>
-      <c r="D8" s="168">
-        <v>0</v>
-      </c>
-      <c r="E8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="167" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="168">
-        <v>0</v>
-      </c>
-      <c r="C9" s="168">
-        <v>0</v>
-      </c>
-      <c r="D9" s="168">
-        <v>0</v>
-      </c>
-      <c r="E9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="167" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="168">
-        <v>0</v>
-      </c>
-      <c r="C10" s="168">
-        <v>0</v>
-      </c>
-      <c r="D10" s="168">
-        <v>0</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="167" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="168">
-        <v>0</v>
-      </c>
-      <c r="C11" s="168">
-        <v>0</v>
-      </c>
-      <c r="D11" s="168">
-        <v>0</v>
-      </c>
-      <c r="E11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="167" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="168">
-        <v>0</v>
-      </c>
-      <c r="C12" s="168">
-        <v>0</v>
-      </c>
-      <c r="D12" s="168">
-        <v>0</v>
-      </c>
-      <c r="E12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="169" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="170">
-        <v>0</v>
-      </c>
-      <c r="C13" s="170">
-        <v>1</v>
-      </c>
-      <c r="D13" s="170">
-        <v>1</v>
-      </c>
-      <c r="E13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" s="170" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="167" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="168">
-        <v>0</v>
-      </c>
-      <c r="C14" s="168">
-        <v>0</v>
-      </c>
-      <c r="D14" s="168">
-        <v>0</v>
-      </c>
-      <c r="E14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="167" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="168">
-        <v>0</v>
-      </c>
-      <c r="C15" s="168">
-        <v>0</v>
-      </c>
-      <c r="D15" s="168">
-        <v>0</v>
-      </c>
-      <c r="E15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="167" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="168">
-        <v>0</v>
-      </c>
-      <c r="C16" s="168">
-        <v>0</v>
-      </c>
-      <c r="D16" s="168">
-        <v>0</v>
-      </c>
-      <c r="E16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="169" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="170">
-        <v>0</v>
-      </c>
-      <c r="C17" s="170">
-        <v>1</v>
-      </c>
-      <c r="D17" s="170">
-        <v>1</v>
-      </c>
-      <c r="E17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="170" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="168">
-        <v>0</v>
-      </c>
-      <c r="C18" s="168">
-        <v>0</v>
-      </c>
-      <c r="D18" s="168">
-        <v>0</v>
-      </c>
-      <c r="E18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="167" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="168">
-        <v>0</v>
-      </c>
-      <c r="C19" s="168">
-        <v>0</v>
-      </c>
-      <c r="D19" s="168">
-        <v>0</v>
-      </c>
-      <c r="E19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="167" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="168">
-        <v>0</v>
-      </c>
-      <c r="C20" s="168">
-        <v>0</v>
-      </c>
-      <c r="D20" s="168">
-        <v>0</v>
-      </c>
-      <c r="E20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="167" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="168">
-        <v>0</v>
-      </c>
-      <c r="C21" s="168">
-        <v>0</v>
-      </c>
-      <c r="D21" s="168">
-        <v>0</v>
-      </c>
-      <c r="E21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="167" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="168">
-        <v>0</v>
-      </c>
-      <c r="C22" s="168">
-        <v>0</v>
-      </c>
-      <c r="D22" s="168">
-        <v>0</v>
-      </c>
-      <c r="E22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P22" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="169" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="170">
-        <v>1</v>
-      </c>
-      <c r="C23" s="170">
-        <v>8</v>
-      </c>
-      <c r="D23" s="170">
-        <v>11</v>
-      </c>
-      <c r="E23" s="170" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="170" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="170" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="170" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="170" t="s">
-        <v>89</v>
-      </c>
-      <c r="O23" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="P23" s="170" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="168">
-        <v>0</v>
-      </c>
-      <c r="C24" s="168">
-        <v>0</v>
-      </c>
-      <c r="D24" s="168">
-        <v>0</v>
-      </c>
-      <c r="E24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="167" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="168">
-        <v>0</v>
-      </c>
-      <c r="C25" s="168">
-        <v>0</v>
-      </c>
-      <c r="D25" s="168">
-        <v>0</v>
-      </c>
-      <c r="E25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="167" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="168">
-        <v>0</v>
-      </c>
-      <c r="C26" s="168">
-        <v>0</v>
-      </c>
-      <c r="D26" s="168">
-        <v>0</v>
-      </c>
-      <c r="E26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="O26" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="P26" s="168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="169" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="170">
-        <v>2</v>
-      </c>
-      <c r="C27" s="170">
-        <v>5</v>
-      </c>
-      <c r="D27" s="170">
-        <v>5</v>
-      </c>
-      <c r="E27" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="170" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="M27" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="P27" s="170" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="171" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="172">
-        <v>0</v>
-      </c>
-      <c r="C28" s="172">
-        <v>1</v>
-      </c>
-      <c r="D28" s="172">
-        <v>1</v>
-      </c>
-      <c r="E28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="172" t="s">
-        <v>99</v>
-      </c>
-      <c r="M28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="N28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="O28" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="172" t="s">
-        <v>81</v>
+      <c r="B27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="163" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:M27">
+    <sortCondition descending="1" ref="A24:A27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/Paper_GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44FBEC0-9B3A-E841-AE48-3138C650F3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69644BBD-8AC0-3B48-9A2D-1A3462807957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6240" yWindow="-26900" windowWidth="29500" windowHeight="23660" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="4220" yWindow="-21980" windowWidth="36660" windowHeight="20680" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Notes" sheetId="4" r:id="rId5"/>
     <sheet name="Kleborate results" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2123,13 +2123,13 @@
       </c>
       <c r="K2" s="89"/>
       <c r="L2" s="89">
-        <v>6.6381580000000004E-6</v>
+        <v>6.6413250000000003E-6</v>
       </c>
       <c r="M2" s="89">
-        <v>2.2154E-2</v>
+        <v>2.2162669570000001E-2</v>
       </c>
       <c r="N2" s="89">
-        <v>2.2160639999999999E-2</v>
+        <v>2.2169310894E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2163,13 +2163,13 @@
       </c>
       <c r="K3" s="97"/>
       <c r="L3" s="97">
-        <v>6.252016E-6</v>
+        <v>6.2536349999999996E-6</v>
       </c>
       <c r="M3" s="97">
-        <v>2.9251929999999999E-2</v>
+        <v>2.9236994002999998E-2</v>
       </c>
       <c r="N3" s="97">
-        <v>2.925819E-2</v>
+        <v>2.9243247638E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2203,13 +2203,13 @@
       </c>
       <c r="K4" s="93"/>
       <c r="L4" s="93">
-        <v>5.6571279999999995E-4</v>
+        <v>5.6321759999999996E-4</v>
       </c>
       <c r="M4" s="93">
-        <v>3.3300320000000001E-3</v>
+        <v>3.336257E-3</v>
       </c>
       <c r="N4" s="93">
-        <v>3.8957449999999999E-3</v>
+        <v>3.8994746000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2243,13 +2243,13 @@
       </c>
       <c r="K5" s="101"/>
       <c r="L5" s="101">
-        <v>5.8573369999999998E-4</v>
+        <v>5.8569959999999995E-4</v>
       </c>
       <c r="M5" s="101">
-        <v>3.8229289999999999E-2</v>
+        <v>3.8117327300000003E-2</v>
       </c>
       <c r="N5" s="101">
-        <v>3.881503E-2</v>
+        <v>3.87030269E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5413,7 +5413,7 @@
         <v>597.79049029999999</v>
       </c>
       <c r="I47" s="65">
-        <f>H47/H$47</f>
+        <f t="shared" ref="I47:I52" si="12">H47/H$47</f>
         <v>1</v>
       </c>
       <c r="J47" s="65"/>
@@ -5421,7 +5421,7 @@
         <v>581.09536179999998</v>
       </c>
       <c r="L47" s="65">
-        <f>K47/K$47</f>
+        <f t="shared" ref="L47:L52" si="13">K47/K$47</f>
         <v>1</v>
       </c>
       <c r="M47" s="65"/>
@@ -5429,7 +5429,7 @@
         <v>155.8212652</v>
       </c>
       <c r="O47" s="65">
-        <f>N47/N$47</f>
+        <f t="shared" ref="O47:O52" si="14">N47/N$47</f>
         <v>1</v>
       </c>
       <c r="P47" s="65"/>
@@ -5459,7 +5459,7 @@
         <v>2643.065486</v>
       </c>
       <c r="I48" s="66">
-        <f>H48/H$47</f>
+        <f t="shared" si="12"/>
         <v>4.4213909871225665</v>
       </c>
       <c r="J48" s="66"/>
@@ -5467,7 +5467,7 @@
         <v>642.99733490000006</v>
       </c>
       <c r="L48" s="66">
-        <f>K48/K$47</f>
+        <f t="shared" si="13"/>
         <v>1.1065263589581109</v>
       </c>
       <c r="M48" s="66"/>
@@ -5475,7 +5475,7 @@
         <v>391.10541139999998</v>
       </c>
       <c r="O48" s="66">
-        <f>N48/N$47</f>
+        <f t="shared" si="14"/>
         <v>2.5099617237609233</v>
       </c>
       <c r="P48" s="66"/>
@@ -5505,7 +5505,7 @@
         <v>14502.741770000001</v>
       </c>
       <c r="I49" s="66">
-        <f>H49/H$47</f>
+        <f t="shared" si="12"/>
         <v>24.260576247577688</v>
       </c>
       <c r="J49" s="66"/>
@@ -5513,7 +5513,7 @@
         <v>1019.1577569999999</v>
       </c>
       <c r="L49" s="66">
-        <f>K49/K$47</f>
+        <f t="shared" si="13"/>
         <v>1.7538562927830961</v>
       </c>
       <c r="M49" s="66"/>
@@ -5521,7 +5521,7 @@
         <v>2372.5406290000001</v>
       </c>
       <c r="O49" s="66">
-        <f>N49/N$47</f>
+        <f t="shared" si="14"/>
         <v>15.226038794864053</v>
       </c>
       <c r="P49" s="66"/>
@@ -5551,7 +5551,7 @@
         <v>20669.93548</v>
       </c>
       <c r="I50" s="66">
-        <f>H50/H$47</f>
+        <f t="shared" si="12"/>
         <v>34.577223651762736</v>
       </c>
       <c r="J50" s="168"/>
@@ -5559,7 +5559,7 @@
         <v>2836.9639590000002</v>
       </c>
       <c r="L50" s="66">
-        <f>K50/K$47</f>
+        <f t="shared" si="13"/>
         <v>4.8820970627131244</v>
       </c>
       <c r="M50" s="168"/>
@@ -5567,7 +5567,7 @@
         <v>3315.9745119999998</v>
       </c>
       <c r="O50" s="66">
-        <f>N50/N$47</f>
+        <f t="shared" si="14"/>
         <v>21.280628852190837</v>
       </c>
       <c r="P50" s="167"/>
@@ -5597,7 +5597,7 @@
         <v>337.79044909999999</v>
       </c>
       <c r="I51" s="66">
-        <f>H51/H$47</f>
+        <f t="shared" si="12"/>
         <v>0.56506494261974716</v>
       </c>
       <c r="J51" s="66"/>
@@ -5605,7 +5605,7 @@
         <v>16.356331170000001</v>
       </c>
       <c r="L51" s="66">
-        <f>K51/K$47</f>
+        <f t="shared" si="13"/>
         <v>2.8147413049959061E-2</v>
       </c>
       <c r="M51" s="66"/>
@@ -5613,7 +5613,7 @@
         <v>43.190205630000001</v>
       </c>
       <c r="O51" s="66">
-        <f>N51/N$47</f>
+        <f t="shared" si="14"/>
         <v>0.27717786513005416</v>
       </c>
       <c r="P51" s="66"/>
@@ -5643,7 +5643,7 @@
         <v>546.37039649999997</v>
       </c>
       <c r="I52" s="67">
-        <f>H52/H$47</f>
+        <f t="shared" si="12"/>
         <v>0.9139830849865227</v>
       </c>
       <c r="J52" s="67"/>
@@ -5651,7 +5651,7 @@
         <v>12.35594714</v>
       </c>
       <c r="L52" s="67">
-        <f>K52/K$47</f>
+        <f t="shared" si="13"/>
         <v>2.1263200418131439E-2</v>
       </c>
       <c r="M52" s="67"/>
@@ -5659,7 +5659,7 @@
         <v>79.194537440000005</v>
       </c>
       <c r="O52" s="67">
-        <f>N52/N$47</f>
+        <f t="shared" si="14"/>
         <v>0.50823959963585252</v>
       </c>
       <c r="P52" s="67"/>
@@ -5873,7 +5873,7 @@
         <v>219.1897644</v>
       </c>
       <c r="I57" s="65">
-        <f t="shared" ref="I57:I62" si="12">H57/H$57</f>
+        <f t="shared" ref="I57:I62" si="15">H57/H$57</f>
         <v>1</v>
       </c>
       <c r="J57" s="65"/>
@@ -5881,7 +5881,7 @@
         <v>296.75099460000001</v>
       </c>
       <c r="L57" s="65">
-        <f t="shared" ref="L57:L62" si="13">K57/K$57</f>
+        <f t="shared" ref="L57:L62" si="16">K57/K$57</f>
         <v>1</v>
       </c>
       <c r="M57" s="65"/>
@@ -5889,7 +5889,7 @@
         <v>80.038454119999997</v>
       </c>
       <c r="O57" s="65">
-        <f t="shared" ref="O57:O62" si="14">N57/N$57</f>
+        <f t="shared" ref="O57:O62" si="17">N57/N$57</f>
         <v>1</v>
       </c>
       <c r="P57" s="65"/>
@@ -5919,7 +5919,7 @@
         <v>136.9907082</v>
       </c>
       <c r="I58" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.62498679431948878</v>
       </c>
       <c r="J58" s="66"/>
@@ -5927,7 +5927,7 @@
         <v>110.6715269</v>
       </c>
       <c r="L58" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.37294408077444741</v>
       </c>
       <c r="M58" s="66"/>
@@ -5935,7 +5935,7 @@
         <v>41.364738750000001</v>
       </c>
       <c r="O58" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.51681081556101405</v>
       </c>
       <c r="P58" s="66"/>
@@ -5965,7 +5965,7 @@
         <v>150.1272567</v>
       </c>
       <c r="I59" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.68491910245422027</v>
       </c>
       <c r="J59" s="66"/>
@@ -5973,7 +5973,7 @@
         <v>160.86113570000001</v>
       </c>
       <c r="L59" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.542074461845797</v>
       </c>
       <c r="M59" s="66"/>
@@ -5981,7 +5981,7 @@
         <v>52.478047310000001</v>
       </c>
       <c r="O59" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.65566043081392789</v>
       </c>
       <c r="P59" s="66"/>
@@ -6011,7 +6011,7 @@
         <v>953.63005029999999</v>
       </c>
       <c r="I60" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.3507052115796698</v>
       </c>
       <c r="J60" s="66"/>
@@ -6019,7 +6019,7 @@
         <v>239.71834490000001</v>
       </c>
       <c r="L60" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.8078097437318581</v>
       </c>
       <c r="M60" s="66"/>
@@ -6027,7 +6027,7 @@
         <v>399.10113280000002</v>
       </c>
       <c r="O60" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.9863673304039073</v>
       </c>
       <c r="P60" s="66"/>
@@ -6057,7 +6057,7 @@
         <v>2942.0133150000001</v>
       </c>
       <c r="I61" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13.42222034433648</v>
       </c>
       <c r="J61" s="66"/>
@@ -6065,7 +6065,7 @@
         <v>312.9991354</v>
       </c>
       <c r="L61" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0547534501843923</v>
       </c>
       <c r="M61" s="66"/>
@@ -6073,7 +6073,7 @@
         <v>749.06259729999999</v>
       </c>
       <c r="O61" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.3587839187516781</v>
       </c>
       <c r="P61" s="66"/>
@@ -6103,7 +6103,7 @@
         <v>1927.2068870000001</v>
       </c>
       <c r="I62" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.7924127856765928</v>
       </c>
       <c r="J62" s="67"/>
@@ -6111,7 +6111,7 @@
         <v>329.99317020000001</v>
       </c>
       <c r="L62" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1120204353310026</v>
       </c>
       <c r="M62" s="67"/>
@@ -6119,7 +6119,7 @@
         <v>1133.0455320000001</v>
       </c>
       <c r="O62" s="67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.156264566295201</v>
       </c>
       <c r="P62" s="67"/>

--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/Paper_GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC9B28-4192-C54E-AD65-AEA6C92C0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D3E23C-C351-F54C-BA60-E51619BF5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="-23060" windowWidth="36660" windowHeight="20680" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="-2080" yWindow="-24220" windowWidth="32300" windowHeight="18360" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Per-replicon" sheetId="2" r:id="rId4"/>
     <sheet name="Notes" sheetId="4" r:id="rId5"/>
     <sheet name="Kleborate results" sheetId="7" r:id="rId6"/>
+    <sheet name="VFDB results" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -174,8 +175,44 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CAC5974E-5C99-DB4C-8189-AE97AB6E0F6D}</author>
+    <author>tc={7CEFEBAB-9B83-C745-BF75-805FEBD85366}</author>
+    <author>tc={DA3071C9-2F63-2C4D-B3D3-E66F9310A038}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CAC5974E-5C99-DB4C-8189-AE97AB6E0F6D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The VFDB core dataset includes genes associated with experimentally verified VFs only.</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{7CEFEBAB-9B83-C745-BF75-805FEBD85366}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The VFDB full dataset covers all genes related to known and predicted VFs in the database.</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="2" shapeId="0" xr:uid="{DA3071C9-2F63-2C4D-B3D3-E66F9310A038}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This plasmid’s only hit was an IS in the VFDB full dataset. Since an IS on its own is unlikely to cause virulence, we did not classify this genome as containing virulence determinants.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="174">
   <si>
     <t>Genome</t>
   </si>
@@ -986,6 +1023,122 @@
   <si>
     <t>Mean co. of var. (Illumina):</t>
   </si>
+  <si>
+    <t>VFDB core (set A) hits</t>
+  </si>
+  <si>
+    <t>VFDB full (set B) hits</t>
+  </si>
+  <si>
+    <t>VFG038010(gi:384141331) (ABZJ_00085)
+IS4 family transposase ORF 1
+[Capsule (CVF775)]
+[Acinetobacter baumannii MDR-ZJ06]
+100% coverage, 100% identity</t>
+  </si>
+  <si>
+    <t>VFG038025(gi:384141332) (ABZJ_00086)
+IS4 family transposase ORF 2
+[Capsule (CVF775)]
+[Acinetobacter baumannii MDR-ZJ06]
+100% coverage, 100% identity</t>
+  </si>
+  <si>
+    <t>VFG048371 (A225_4837)
+Fimbriae usher protein StcC
+[Type 3 fimbriae (CVF848)]
+[Klebsiella oxytoca E718]
+100% coverage, 97.2% identity</t>
+  </si>
+  <si>
+    <t>VFG048382 (KOX_01860)
+hypothetical protein
+[Type 3 fimbriae (CVF848)]
+[Klebsiella oxytoca KCTC 1686]
+100% coverage, 93.0% identity</t>
+  </si>
+  <si>
+    <t>VFG048392 (KOX_01865)
+MrkA fimbrial protein
+[Type 3 fimbriae (CVF848)]
+[Klebsiella oxytoca KCTC 1686]
+91.0% coverage, 89.2% identity</t>
+  </si>
+  <si>
+    <t>VFG048351 (A225_4835)
+fimbrial-like protein
+[Type 3 fimbriae (CVF848)]
+[Klebsiella oxytoca E718]
+99.7% coverage, 98.3% identity</t>
+  </si>
+  <si>
+    <t>VFG048361 (A225_4836)
+fimbrial-like protein
+[Type 3 fimbriae (CVF848)]
+[Klebsiella oxytoca E718]
+100% coverage, 87.3% identity</t>
+  </si>
+  <si>
+    <t>VFG048392 (KOX_01865)
+MrkA fimbrial protein
+[Type 3 fimbriae (CVF848)]
+[Klebsiella oxytoca KCTC 1686]
+100% coverage, 99.7% identity</t>
+  </si>
+  <si>
+    <t>VFG043627(gb|YP_002921128)
+(mrkA) type 3 fimbrial major pilin subunit MrkA
+[Type 3 fimbriae (VF0567)]
+[Klebsiella pneumoniae subsp. pneumoniae NTUH-K2044]
+100% coverage, 87.4% identity</t>
+  </si>
+  <si>
+    <t>VFG043627(gb|YP_002921128)
+(mrkA) type 3 fimbrial major pilin subunit MrkA
+[Type 3 fimbriae (VF0567)]
+[Klebsiella pneumoniae subsp. pneumoniae NTUH-K2044]
+90.0% coverage, 83.8% identity</t>
+  </si>
+  <si>
+    <t>VFG043626(gb|YP_002921127)
+(mrkB) fimbrial chaperone protein mrkB precursor
+[Type 3 fimbriae (VF0567)]
+[Klebsiella pneumoniae subsp. pneumoniae NTUH-K2044]
+100% coverage, 83.9% identity</t>
+  </si>
+  <si>
+    <t>VFG043625(gb|YP_002921126)
+(mrkC) fimbrial biogenesis outer membrane usher protein mrkC precursor
+[Type 3 fimbriae (VF0567)]
+[Klebsiella pneumoniae subsp. pneumoniae NTUH-K2044]
+99.9% coverage, 83.9% identity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VFDB results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet contains the VFDB gene search results for each plasmid, with results for both the core and full datasets (database date: 28 May 2021). Any plasmid which contains at least one virulence gene is highlighted in yellow.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -997,7 +1150,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1072,6 +1225,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1105,7 +1264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1351,11 +1510,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1823,6 +2000,60 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2201,9 +2432,23 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2021-06-04T05:39:12.69" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{CAC5974E-5C99-DB4C-8189-AE97AB6E0F6D}">
+    <text>The VFDB core dataset includes genes associated with experimentally verified VFs only.</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2021-06-04T05:39:29.82" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{7CEFEBAB-9B83-C745-BF75-805FEBD85366}">
+    <text>The VFDB full dataset covers all genes related to known and predicted VFs in the database.</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2021-06-04T05:30:29.68" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{DA3071C9-2F63-2C4D-B3D3-E66F9310A038}">
+    <text>This plasmid’s only hit was an IS in the VFDB full dataset. Since an IS on its own is unlikely to cause virulence, we did not classify this genome as containing virulence determinants.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0DFF7C-C846-D14B-915D-C0573D580EBA}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2230,6 +2475,11 @@
     <row r="7" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="88" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3633,7 +3883,7 @@
         <v>4.9399004582697099</v>
       </c>
       <c r="J2" s="143">
-        <f>I2/H2</f>
+        <f t="shared" ref="J2:J17" si="0">I2/H2</f>
         <v>0.18973614268581371</v>
       </c>
       <c r="K2" s="144">
@@ -3643,11 +3893,11 @@
         <v>29</v>
       </c>
       <c r="M2" s="144">
-        <f>L2-K2</f>
+        <f t="shared" ref="M2:M17" si="1">L2-K2</f>
         <v>6</v>
       </c>
       <c r="N2" s="184">
-        <f>M2/H2</f>
+        <f t="shared" ref="N2:N17" si="2">M2/H2</f>
         <v>0.23045339996863692</v>
       </c>
       <c r="O2" s="143">
@@ -3662,7 +3912,7 @@
         <v>51.591190113408899</v>
       </c>
       <c r="S2" s="143">
-        <f>R2/Q2</f>
+        <f t="shared" ref="S2:S17" si="3">R2/Q2</f>
         <v>6.4503017354425041E-2</v>
       </c>
       <c r="T2" s="144">
@@ -3672,11 +3922,11 @@
         <v>836</v>
       </c>
       <c r="V2" s="144">
-        <f>U2-T2</f>
+        <f t="shared" ref="V2:V17" si="4">U2-T2</f>
         <v>73</v>
       </c>
       <c r="W2" s="184">
-        <f>V2/Q2</f>
+        <f t="shared" ref="W2:W17" si="5">V2/Q2</f>
         <v>9.1269851626260515E-2</v>
       </c>
       <c r="X2" s="143">
@@ -3691,7 +3941,7 @@
         <v>27.9535048389493</v>
       </c>
       <c r="AB2" s="143">
-        <f>AA2/Z2</f>
+        <f t="shared" ref="AB2:AB17" si="6">AA2/Z2</f>
         <v>0.12440965435729391</v>
       </c>
       <c r="AC2" s="144">
@@ -3701,11 +3951,11 @@
         <v>243</v>
       </c>
       <c r="AE2" s="144">
-        <f>AD2-AC2</f>
+        <f t="shared" ref="AE2:AE33" si="7">AD2-AC2</f>
         <v>38</v>
       </c>
       <c r="AF2" s="184">
-        <f>AE2/Z2</f>
+        <f t="shared" ref="AF2:AF17" si="8">AE2/Z2</f>
         <v>0.169122508709175</v>
       </c>
       <c r="AG2" s="143">
@@ -3742,7 +3992,7 @@
         <v>4.7283943799072103</v>
       </c>
       <c r="J3" s="143">
-        <f>I3/H3</f>
+        <f t="shared" si="0"/>
         <v>0.12864502773417386</v>
       </c>
       <c r="K3" s="144">
@@ -3752,11 +4002,11 @@
         <v>40</v>
       </c>
       <c r="M3" s="144">
-        <f>L3-K3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N3" s="184">
-        <f>M3/H3</f>
+        <f t="shared" si="2"/>
         <v>0.19044841055683867</v>
       </c>
       <c r="O3" s="143">
@@ -3771,7 +4021,7 @@
         <v>28.298944116324598</v>
       </c>
       <c r="S3" s="143">
-        <f>R3/Q3</f>
+        <f t="shared" si="3"/>
         <v>4.25881093061872E-2</v>
       </c>
       <c r="T3" s="144">
@@ -3781,11 +4031,11 @@
         <v>680</v>
       </c>
       <c r="V3" s="144">
-        <f>U3-T3</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="W3" s="184">
-        <f>V3/Q3</f>
+        <f t="shared" si="5"/>
         <v>5.1167835466167461E-2</v>
       </c>
       <c r="X3" s="143">
@@ -3800,7 +4050,7 @@
         <v>22.555473250844599</v>
       </c>
       <c r="AB3" s="143">
-        <f>AA3/Z3</f>
+        <f t="shared" si="6"/>
         <v>0.12441789876632316</v>
       </c>
       <c r="AC3" s="144">
@@ -3810,15 +4060,15 @@
         <v>196</v>
       </c>
       <c r="AE3" s="144">
-        <f>AD3-AC3</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="AF3" s="184">
-        <f>AE3/Z3</f>
+        <f t="shared" si="8"/>
         <v>0.17099862276716329</v>
       </c>
       <c r="AG3" s="143">
-        <f t="shared" ref="AG3:AG4" si="0">Z3/Z$2</f>
+        <f t="shared" ref="AG3:AG4" si="9">Z3/Z$2</f>
         <v>0.80683902674393426</v>
       </c>
       <c r="AH3" s="143"/>
@@ -3851,7 +4101,7 @@
         <v>34.687506748818798</v>
       </c>
       <c r="J4" s="143">
-        <f>I4/H4</f>
+        <f t="shared" si="0"/>
         <v>4.4671053602619921E-2</v>
       </c>
       <c r="K4" s="144">
@@ -3861,11 +4111,11 @@
         <v>810</v>
       </c>
       <c r="M4" s="144">
-        <f>L4-K4</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="N4" s="184">
-        <f>M4/H4</f>
+        <f t="shared" si="2"/>
         <v>7.9844462256046925E-2</v>
       </c>
       <c r="O4" s="143">
@@ -3880,7 +4130,7 @@
         <v>37.008143761362497</v>
       </c>
       <c r="S4" s="143">
-        <f>R4/Q4</f>
+        <f t="shared" si="3"/>
         <v>3.4585534622097257E-2</v>
       </c>
       <c r="T4" s="144">
@@ -3890,11 +4140,11 @@
         <v>1095</v>
       </c>
       <c r="V4" s="144">
-        <f>U4-T4</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="W4" s="184">
-        <f>V4/Q4</f>
+        <f t="shared" si="5"/>
         <v>4.2054231847727719E-2</v>
       </c>
       <c r="X4" s="143">
@@ -3909,7 +4159,7 @@
         <v>255.62966888149001</v>
       </c>
       <c r="AB4" s="143">
-        <f>AA4/Z4</f>
+        <f t="shared" si="6"/>
         <v>0.10688472789516612</v>
       </c>
       <c r="AC4" s="144">
@@ -3919,15 +4169,15 @@
         <v>2549</v>
       </c>
       <c r="AE4" s="144">
-        <f>AD4-AC4</f>
+        <f t="shared" si="7"/>
         <v>312</v>
       </c>
       <c r="AF4" s="184">
-        <f>AE4/Z4</f>
+        <f t="shared" si="8"/>
         <v>0.13045447834442092</v>
       </c>
       <c r="AG4" s="143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>10.644209581544049</v>
       </c>
       <c r="AH4" s="143"/>
@@ -3960,7 +4210,7 @@
         <v>13.910061547856699</v>
       </c>
       <c r="J5" s="146">
-        <f>I5/H5</f>
+        <f t="shared" si="0"/>
         <v>0.13322941345728373</v>
       </c>
       <c r="K5" s="147">
@@ -3970,11 +4220,11 @@
         <v>114</v>
       </c>
       <c r="M5" s="147">
-        <f>L5-K5</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="N5" s="185">
-        <f>M5/H5</f>
+        <f t="shared" si="2"/>
         <v>0.18198042093339478</v>
       </c>
       <c r="O5" s="146">
@@ -3989,7 +4239,7 @@
         <v>38.725792432819802</v>
       </c>
       <c r="S5" s="146">
-        <f>R5/Q5</f>
+        <f t="shared" si="3"/>
         <v>0.10500641946983738</v>
       </c>
       <c r="T5" s="147">
@@ -3999,11 +4249,11 @@
         <v>392</v>
       </c>
       <c r="V5" s="147">
-        <f>U5-T5</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="W5" s="185">
-        <f>V5/Q5</f>
+        <f t="shared" si="5"/>
         <v>0.13015377653784491</v>
       </c>
       <c r="X5" s="146">
@@ -4018,7 +4268,7 @@
         <v>20.327194316352902</v>
       </c>
       <c r="AB5" s="146">
-        <f>AA5/Z5</f>
+        <f t="shared" si="6"/>
         <v>0.15227575138300845</v>
       </c>
       <c r="AC5" s="147">
@@ -4028,11 +4278,11 @@
         <v>147</v>
       </c>
       <c r="AE5" s="147">
-        <f>AD5-AC5</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="AF5" s="185">
-        <f>AE5/Z5</f>
+        <f t="shared" si="8"/>
         <v>0.20975452747525228</v>
       </c>
       <c r="AG5" s="146">
@@ -4069,7 +4319,7 @@
         <v>23.343204501361601</v>
       </c>
       <c r="J6" s="149">
-        <f>I6/H6</f>
+        <f t="shared" si="0"/>
         <v>6.6991069159569691E-2</v>
       </c>
       <c r="K6" s="150">
@@ -4079,11 +4329,11 @@
         <v>372</v>
       </c>
       <c r="M6" s="150">
-        <f>L6-K6</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="N6" s="186">
-        <f>M6/H6</f>
+        <f t="shared" si="2"/>
         <v>0.1205329330228765</v>
       </c>
       <c r="O6" s="149">
@@ -4098,7 +4348,7 @@
         <v>16.8196321222498</v>
       </c>
       <c r="S6" s="149">
-        <f>R6/Q6</f>
+        <f t="shared" si="3"/>
         <v>4.3466151295370757E-2</v>
       </c>
       <c r="T6" s="150">
@@ -4108,11 +4358,11 @@
         <v>396</v>
       </c>
       <c r="V6" s="150">
-        <f>U6-T6</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="W6" s="186">
-        <f>V6/Q6</f>
+        <f t="shared" si="5"/>
         <v>5.1685020194789738E-2</v>
       </c>
       <c r="X6" s="149">
@@ -4127,7 +4377,7 @@
         <v>25.804561942346499</v>
       </c>
       <c r="AB6" s="149">
-        <f>AA6/Z6</f>
+        <f t="shared" si="6"/>
         <v>0.14395268606050463</v>
       </c>
       <c r="AC6" s="150">
@@ -4137,11 +4387,11 @@
         <v>195</v>
       </c>
       <c r="AE6" s="150">
-        <f>AD6-AC6</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AF6" s="186">
-        <f>AE6/Z6</f>
+        <f t="shared" si="8"/>
         <v>0.17851440238466859</v>
       </c>
       <c r="AG6" s="149">
@@ -4178,7 +4428,7 @@
         <v>36.660633940781302</v>
       </c>
       <c r="J7" s="152">
-        <f>I7/H7</f>
+        <f t="shared" si="0"/>
         <v>3.1336160399428395E-2</v>
       </c>
       <c r="K7" s="153">
@@ -4188,11 +4438,11 @@
         <v>1199</v>
       </c>
       <c r="M7" s="153">
-        <f>L7-K7</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="N7" s="187">
-        <f>M7/H7</f>
+        <f t="shared" si="2"/>
         <v>4.7011975427172087E-2</v>
       </c>
       <c r="O7" s="152">
@@ -4207,7 +4457,7 @@
         <v>21.299634861195599</v>
       </c>
       <c r="S7" s="152">
-        <f>R7/Q7</f>
+        <f t="shared" si="3"/>
         <v>4.7814300462793523E-2</v>
       </c>
       <c r="T7" s="153">
@@ -4217,11 +4467,11 @@
         <v>459</v>
       </c>
       <c r="V7" s="153">
-        <f>U7-T7</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="W7" s="187">
-        <f>V7/Q7</f>
+        <f t="shared" si="5"/>
         <v>5.3876191708698153E-2</v>
       </c>
       <c r="X7" s="152">
@@ -4236,7 +4486,7 @@
         <v>62.266721776954697</v>
       </c>
       <c r="AB7" s="152">
-        <f>AA7/Z7</f>
+        <f t="shared" si="6"/>
         <v>0.10990615682981783</v>
       </c>
       <c r="AC7" s="153">
@@ -4246,11 +4496,11 @@
         <v>606</v>
       </c>
       <c r="AE7" s="153">
-        <f>AD7-AC7</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="AF7" s="187">
-        <f>AE7/Z7</f>
+        <f t="shared" si="8"/>
         <v>0.13238149571714097</v>
       </c>
       <c r="AG7" s="152">
@@ -4287,7 +4537,7 @@
         <v>6.8699093823975996</v>
       </c>
       <c r="J8" s="143">
-        <f>I8/H8</f>
+        <f t="shared" si="0"/>
         <v>0.21850474722829732</v>
       </c>
       <c r="K8" s="144">
@@ -4297,15 +4547,15 @@
         <v>36</v>
       </c>
       <c r="M8" s="144">
-        <f>L8-K8</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N8" s="184">
-        <f>M8/H8</f>
+        <f t="shared" si="2"/>
         <v>0.31806059594928621</v>
       </c>
       <c r="O8" s="143">
-        <f>H8/H$8</f>
+        <f t="shared" ref="O8:O13" si="10">H8/H$8</f>
         <v>1</v>
       </c>
       <c r="P8" s="143"/>
@@ -4316,7 +4566,7 @@
         <v>30.708598677822501</v>
       </c>
       <c r="S8" s="143">
-        <f>R8/Q8</f>
+        <f t="shared" si="3"/>
         <v>0.15041818090396816</v>
       </c>
       <c r="T8" s="144">
@@ -4326,15 +4576,15 @@
         <v>227</v>
       </c>
       <c r="V8" s="144">
-        <f>U8-T8</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="W8" s="184">
-        <f>V8/Q8</f>
+        <f t="shared" si="5"/>
         <v>0.22531918158087597</v>
       </c>
       <c r="X8" s="143">
-        <f>Q8/Q$8</f>
+        <f t="shared" ref="X8:X13" si="11">Q8/Q$8</f>
         <v>1</v>
       </c>
       <c r="Y8" s="143"/>
@@ -4345,7 +4595,7 @@
         <v>21.437349825705301</v>
       </c>
       <c r="AB8" s="143">
-        <f>AA8/Z8</f>
+        <f t="shared" si="6"/>
         <v>0.19246853461687763</v>
       </c>
       <c r="AC8" s="144">
@@ -4355,15 +4605,15 @@
         <v>126</v>
       </c>
       <c r="AE8" s="144">
-        <f>AD8-AC8</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AF8" s="184">
-        <f>AE8/Z8</f>
+        <f t="shared" si="8"/>
         <v>0.26934560873670677</v>
       </c>
       <c r="AG8" s="143">
-        <f t="shared" ref="AG8:AG13" si="1">Z8/Z$8</f>
+        <f t="shared" ref="AG8:AG13" si="12">Z8/Z$8</f>
         <v>1</v>
       </c>
       <c r="AH8" s="143"/>
@@ -4396,7 +4646,7 @@
         <v>5.1702113710878397</v>
       </c>
       <c r="J9" s="143">
-        <f>I9/H9</f>
+        <f t="shared" si="0"/>
         <v>0.15173727317786476</v>
       </c>
       <c r="K9" s="144">
@@ -4406,15 +4656,15 @@
         <v>39</v>
       </c>
       <c r="M9" s="144">
-        <f>L9-K9</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N9" s="184">
-        <f>M9/H9</f>
+        <f t="shared" si="2"/>
         <v>0.26413532457057859</v>
       </c>
       <c r="O9" s="143">
-        <f>H9/H$8</f>
+        <f t="shared" si="10"/>
         <v>1.0837419675681002</v>
       </c>
       <c r="P9" s="143"/>
@@ -4425,7 +4675,7 @@
         <v>18.5984830276448</v>
       </c>
       <c r="S9" s="143">
-        <f>R9/Q9</f>
+        <f t="shared" si="3"/>
         <v>0.10814656459617759</v>
       </c>
       <c r="T9" s="144">
@@ -4435,15 +4685,15 @@
         <v>180</v>
       </c>
       <c r="V9" s="144">
-        <f>U9-T9</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="W9" s="184">
-        <f>V9/Q9</f>
+        <f t="shared" si="5"/>
         <v>0.11629611343616407</v>
       </c>
       <c r="X9" s="143">
-        <f>Q9/Q$8</f>
+        <f t="shared" si="11"/>
         <v>0.84237433790662619</v>
       </c>
       <c r="Y9" s="143"/>
@@ -4454,7 +4704,7 @@
         <v>12.687365405864499</v>
       </c>
       <c r="AB9" s="143">
-        <f>AA9/Z9</f>
+        <f t="shared" si="6"/>
         <v>0.16777142778381307</v>
       </c>
       <c r="AC9" s="144">
@@ -4464,15 +4714,15 @@
         <v>84</v>
       </c>
       <c r="AE9" s="144">
-        <f>AD9-AC9</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="AF9" s="184">
-        <f>AE9/Z9</f>
+        <f t="shared" si="8"/>
         <v>0.22479956879041926</v>
       </c>
       <c r="AG9" s="143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.67895672178281663</v>
       </c>
       <c r="AH9" s="143"/>
@@ -4505,7 +4755,7 @@
         <v>5.6184948318871797</v>
       </c>
       <c r="J10" s="143">
-        <f>I10/H10</f>
+        <f t="shared" si="0"/>
         <v>0.10810854035640166</v>
       </c>
       <c r="K10" s="144">
@@ -4515,15 +4765,15 @@
         <v>56</v>
       </c>
       <c r="M10" s="144">
-        <f>L10-K10</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N10" s="184">
-        <f>M10/H10</f>
+        <f t="shared" si="2"/>
         <v>0.15393238736160147</v>
       </c>
       <c r="O10" s="143">
-        <f>H10/H$8</f>
+        <f t="shared" si="10"/>
         <v>1.6529885693366522</v>
       </c>
       <c r="P10" s="143"/>
@@ -4534,7 +4784,7 @@
         <v>14.8401150740847</v>
       </c>
       <c r="S10" s="143">
-        <f>R10/Q10</f>
+        <f t="shared" si="3"/>
         <v>6.781077226704757E-2</v>
       </c>
       <c r="T10" s="144">
@@ -4544,15 +4794,15 @@
         <v>228</v>
       </c>
       <c r="V10" s="144">
-        <f>U10-T10</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="W10" s="184">
-        <f>V10/Q10</f>
+        <f t="shared" si="5"/>
         <v>9.1388472297584206E-2</v>
       </c>
       <c r="X10" s="143">
-        <f>Q10/Q$8</f>
+        <f t="shared" si="11"/>
         <v>1.0719608184050171</v>
       </c>
       <c r="Y10" s="143"/>
@@ -4563,7 +4813,7 @@
         <v>16.065600219932101</v>
       </c>
       <c r="AB10" s="143">
-        <f>AA10/Z10</f>
+        <f t="shared" si="6"/>
         <v>0.15541077960026631</v>
       </c>
       <c r="AC10" s="144">
@@ -4573,15 +4823,15 @@
         <v>114</v>
       </c>
       <c r="AE10" s="144">
-        <f>AD10-AC10</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="AF10" s="184">
-        <f>AE10/Z10</f>
+        <f t="shared" si="8"/>
         <v>0.21281726822530811</v>
       </c>
       <c r="AG10" s="143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.92812070524498902</v>
       </c>
       <c r="AH10" s="143"/>
@@ -4614,7 +4864,7 @@
         <v>20.1695169993089</v>
       </c>
       <c r="J11" s="143">
-        <f>I11/H11</f>
+        <f t="shared" si="0"/>
         <v>4.5380950176691331E-2</v>
       </c>
       <c r="K11" s="144">
@@ -4624,15 +4874,15 @@
         <v>464</v>
       </c>
       <c r="M11" s="144">
-        <f>L11-K11</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="N11" s="184">
-        <f>M11/H11</f>
+        <f t="shared" si="2"/>
         <v>8.7749104599361763E-2</v>
       </c>
       <c r="O11" s="143">
-        <f>H11/H$8</f>
+        <f t="shared" si="10"/>
         <v>14.136170732062814</v>
       </c>
       <c r="P11" s="143"/>
@@ -4643,7 +4893,7 @@
         <v>50.734284524802099</v>
       </c>
       <c r="S11" s="143">
-        <f>R11/Q11</f>
+        <f t="shared" si="3"/>
         <v>8.4630799135541321E-2</v>
       </c>
       <c r="T11" s="144">
@@ -4653,15 +4903,15 @@
         <v>646</v>
       </c>
       <c r="V11" s="144">
-        <f>U11-T11</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="W11" s="184">
-        <f>V11/Q11</f>
+        <f t="shared" si="5"/>
         <v>0.17014808807651924</v>
       </c>
       <c r="X11" s="143">
-        <f>Q11/Q$8</f>
+        <f t="shared" si="11"/>
         <v>2.9363879405774638</v>
       </c>
       <c r="Y11" s="143"/>
@@ -4672,7 +4922,7 @@
         <v>151.50765683513899</v>
       </c>
       <c r="AB11" s="143">
-        <f>AA11/Z11</f>
+        <f t="shared" si="6"/>
         <v>0.10829437790805226</v>
       </c>
       <c r="AC11" s="144">
@@ -4682,15 +4932,15 @@
         <v>1499</v>
       </c>
       <c r="AE11" s="144">
-        <f>AD11-AC11</f>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="AF11" s="184">
-        <f>AE11/Z11</f>
+        <f t="shared" si="8"/>
         <v>0.13866698062014723</v>
       </c>
       <c r="AG11" s="143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>12.560800430218917</v>
       </c>
       <c r="AH11" s="143"/>
@@ -4723,7 +4973,7 @@
         <v>10.8592519014764</v>
       </c>
       <c r="J12" s="143">
-        <f>I12/H12</f>
+        <f t="shared" si="0"/>
         <v>1.3744854852398068E-2</v>
       </c>
       <c r="K12" s="144">
@@ -4733,15 +4983,15 @@
         <v>800</v>
       </c>
       <c r="M12" s="144">
-        <f>L12-K12</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="N12" s="184">
-        <f>M12/H12</f>
+        <f t="shared" si="2"/>
         <v>1.8985914007385741E-2</v>
       </c>
       <c r="O12" s="143">
-        <f>H12/H$8</f>
+        <f t="shared" si="10"/>
         <v>25.128676646188083</v>
       </c>
       <c r="P12" s="143"/>
@@ -4752,7 +5002,7 @@
         <v>19.319247943638199</v>
       </c>
       <c r="S12" s="143">
-        <f>R12/Q12</f>
+        <f t="shared" si="3"/>
         <v>3.4177497905480358E-2</v>
       </c>
       <c r="T12" s="144">
@@ -4762,15 +5012,15 @@
         <v>581</v>
       </c>
       <c r="V12" s="144">
-        <f>U12-T12</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="W12" s="184">
-        <f>V12/Q12</f>
+        <f t="shared" si="5"/>
         <v>5.8379986331313354E-2</v>
       </c>
       <c r="X12" s="143">
-        <f>Q12/Q$8</f>
+        <f t="shared" si="11"/>
         <v>2.7687916994627511</v>
       </c>
       <c r="Y12" s="143"/>
@@ -4781,7 +5031,7 @@
         <v>266.02212160427899</v>
       </c>
       <c r="AB12" s="143">
-        <f>AA12/Z12</f>
+        <f t="shared" si="6"/>
         <v>0.11225594847733544</v>
       </c>
       <c r="AC12" s="144">
@@ -4791,15 +5041,15 @@
         <v>2581</v>
       </c>
       <c r="AE12" s="144">
-        <f>AD12-AC12</f>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="AF12" s="184">
-        <f>AE12/Z12</f>
+        <f t="shared" si="8"/>
         <v>0.16415012290835398</v>
       </c>
       <c r="AG12" s="143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>21.276345486315535</v>
       </c>
       <c r="AH12" s="143"/>
@@ -4832,7 +5082,7 @@
         <v>10.0758735132749</v>
       </c>
       <c r="J13" s="143">
-        <f>I13/H13</f>
+        <f t="shared" si="0"/>
         <v>1.3748893244581258E-2</v>
       </c>
       <c r="K13" s="144">
@@ -4842,15 +5092,15 @@
         <v>740</v>
       </c>
       <c r="M13" s="144">
-        <f>L13-K13</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N13" s="184">
-        <f>M13/H13</f>
+        <f t="shared" si="2"/>
         <v>1.7738969424742512E-2</v>
       </c>
       <c r="O13" s="143">
-        <f>H13/H$8</f>
+        <f t="shared" si="10"/>
         <v>23.309064063064866</v>
       </c>
       <c r="P13" s="143"/>
@@ -4861,7 +5111,7 @@
         <v>25.632315834124501</v>
       </c>
       <c r="S13" s="143">
-        <f>R13/Q13</f>
+        <f t="shared" si="3"/>
         <v>4.3160071671156458E-2</v>
       </c>
       <c r="T13" s="144">
@@ -4871,15 +5121,15 @@
         <v>614</v>
       </c>
       <c r="V13" s="144">
-        <f>U13-T13</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="W13" s="184">
-        <f>V13/Q13</f>
+        <f t="shared" si="5"/>
         <v>7.2404034573769427E-2</v>
       </c>
       <c r="X13" s="143">
-        <f>Q13/Q$8</f>
+        <f t="shared" si="11"/>
         <v>2.909015410360098</v>
       </c>
       <c r="Y13" s="143"/>
@@ -4890,7 +5140,7 @@
         <v>636.59808220147295</v>
       </c>
       <c r="AB13" s="143">
-        <f>AA13/Z13</f>
+        <f t="shared" si="6"/>
         <v>0.18104454522495569</v>
       </c>
       <c r="AC13" s="144">
@@ -4900,15 +5150,15 @@
         <v>3920</v>
       </c>
       <c r="AE13" s="144">
-        <f>AD13-AC13</f>
+        <f t="shared" si="7"/>
         <v>752</v>
       </c>
       <c r="AF13" s="184">
-        <f>AE13/Z13</f>
+        <f t="shared" si="8"/>
         <v>0.21386413471173302</v>
       </c>
       <c r="AG13" s="143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>31.569559811578092</v>
       </c>
       <c r="AH13" s="143"/>
@@ -4943,7 +5193,7 @@
         <v>59.335912955932301</v>
       </c>
       <c r="J14" s="146">
-        <f>I14/H14</f>
+        <f t="shared" si="0"/>
         <v>7.2775200739575288E-2</v>
       </c>
       <c r="K14" s="147">
@@ -4953,11 +5203,11 @@
         <v>852</v>
       </c>
       <c r="M14" s="147">
-        <f>L14-K14</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="N14" s="185">
-        <f>M14/H14</f>
+        <f t="shared" si="2"/>
         <v>8.3401660204780848E-2</v>
       </c>
       <c r="O14" s="146">
@@ -4972,7 +5222,7 @@
         <v>183.59773543499401</v>
       </c>
       <c r="S14" s="146">
-        <f>R14/Q14</f>
+        <f t="shared" si="3"/>
         <v>0.15116455794789968</v>
       </c>
       <c r="T14" s="147">
@@ -4982,11 +5232,11 @@
         <v>1300</v>
       </c>
       <c r="V14" s="147">
-        <f>U14-T14</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="W14" s="185">
-        <f>V14/Q14</f>
+        <f t="shared" si="5"/>
         <v>0.1605525728844151</v>
       </c>
       <c r="X14" s="146">
@@ -5001,7 +5251,7 @@
         <v>35.168226046545399</v>
       </c>
       <c r="AB14" s="146">
-        <f>AA14/Z14</f>
+        <f t="shared" si="6"/>
         <v>0.15130467252016089</v>
       </c>
       <c r="AC14" s="147">
@@ -5011,11 +5261,11 @@
         <v>253</v>
       </c>
       <c r="AE14" s="147">
-        <f>AD14-AC14</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AF14" s="185">
-        <f>AE14/Z14</f>
+        <f t="shared" si="8"/>
         <v>0.19360402922785649</v>
       </c>
       <c r="AG14" s="146">
@@ -5052,7 +5302,7 @@
         <v>100.107927436555</v>
       </c>
       <c r="J15" s="149">
-        <f>I15/H15</f>
+        <f t="shared" si="0"/>
         <v>2.2085469283445704E-2</v>
       </c>
       <c r="K15" s="150">
@@ -5062,11 +5312,11 @@
         <v>4616</v>
       </c>
       <c r="M15" s="150">
-        <f>L15-K15</f>
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="N15" s="186">
-        <f>M15/H15</f>
+        <f t="shared" si="2"/>
         <v>3.3533721225137675E-2</v>
       </c>
       <c r="O15" s="149">
@@ -5081,7 +5331,7 @@
         <v>671.65862415923903</v>
       </c>
       <c r="S15" s="149">
-        <f>R15/Q15</f>
+        <f t="shared" si="3"/>
         <v>0.14851834258207833</v>
       </c>
       <c r="T15" s="150">
@@ -5091,11 +5341,11 @@
         <v>5078</v>
       </c>
       <c r="V15" s="150">
-        <f>U15-T15</f>
+        <f t="shared" si="4"/>
         <v>1041</v>
       </c>
       <c r="W15" s="186">
-        <f>V15/Q15</f>
+        <f t="shared" si="5"/>
         <v>0.23018776066707461</v>
       </c>
       <c r="X15" s="149">
@@ -5110,7 +5360,7 @@
         <v>105.86450324365001</v>
       </c>
       <c r="AB15" s="149">
-        <f>AA15/Z15</f>
+        <f t="shared" si="6"/>
         <v>0.12808270414746245</v>
       </c>
       <c r="AC15" s="150">
@@ -5120,11 +5370,11 @@
         <v>892</v>
       </c>
       <c r="AE15" s="150">
-        <f>AD15-AC15</f>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="AF15" s="186">
-        <f>AE15/Z15</f>
+        <f t="shared" si="8"/>
         <v>0.16696260437428567</v>
       </c>
       <c r="AG15" s="149">
@@ -5161,7 +5411,7 @@
         <v>194.96877444782299</v>
       </c>
       <c r="J16" s="149">
-        <f>I16/H16</f>
+        <f t="shared" si="0"/>
         <v>2.5850507816168475E-2</v>
       </c>
       <c r="K16" s="150">
@@ -5171,11 +5421,11 @@
         <v>7703</v>
       </c>
       <c r="M16" s="150">
-        <f>L16-K16</f>
+        <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="N16" s="186">
-        <f>M16/H16</f>
+        <f t="shared" si="2"/>
         <v>4.4151783418466373E-2</v>
       </c>
       <c r="O16" s="149">
@@ -5190,7 +5440,7 @@
         <v>2015.4551476014601</v>
       </c>
       <c r="S16" s="149">
-        <f>R16/Q16</f>
+        <f t="shared" si="3"/>
         <v>0.11732650489646361</v>
       </c>
       <c r="T16" s="150">
@@ -5200,11 +5450,11 @@
         <v>18456</v>
       </c>
       <c r="V16" s="150">
-        <f>U16-T16</f>
+        <f t="shared" si="4"/>
         <v>2845</v>
       </c>
       <c r="W16" s="186">
-        <f>V16/Q16</f>
+        <f t="shared" si="5"/>
         <v>0.16561713458504809</v>
       </c>
       <c r="X16" s="149">
@@ -5219,7 +5469,7 @@
         <v>300.31309406403602</v>
       </c>
       <c r="AB16" s="149">
-        <f>AA16/Z16</f>
+        <f t="shared" si="6"/>
         <v>0.11575423920605944</v>
       </c>
       <c r="AC16" s="150">
@@ -5229,11 +5479,11 @@
         <v>2776</v>
       </c>
       <c r="AE16" s="150">
-        <f>AD16-AC16</f>
+        <f t="shared" si="7"/>
         <v>359</v>
       </c>
       <c r="AF16" s="186">
-        <f>AE16/Z16</f>
+        <f t="shared" si="8"/>
         <v>0.13837482512871838</v>
       </c>
       <c r="AG16" s="149">
@@ -5270,7 +5520,7 @@
         <v>386.90999398206498</v>
       </c>
       <c r="J17" s="155">
-        <f>I17/H17</f>
+        <f t="shared" si="0"/>
         <v>1.515117800228963E-2</v>
       </c>
       <c r="K17" s="156">
@@ -5280,11 +5530,11 @@
         <v>25921</v>
       </c>
       <c r="M17" s="156">
-        <f>L17-K17</f>
+        <f t="shared" si="1"/>
         <v>742</v>
       </c>
       <c r="N17" s="188">
-        <f>M17/H17</f>
+        <f t="shared" si="2"/>
         <v>2.9056303152045309E-2</v>
       </c>
       <c r="O17" s="149">
@@ -5299,7 +5549,7 @@
         <v>1586.55876677992</v>
       </c>
       <c r="S17" s="155">
-        <f>R17/Q17</f>
+        <f t="shared" si="3"/>
         <v>0.10376957287967023</v>
       </c>
       <c r="T17" s="156">
@@ -5309,11 +5559,11 @@
         <v>16532</v>
       </c>
       <c r="V17" s="156">
-        <f>U17-T17</f>
+        <f t="shared" si="4"/>
         <v>2509</v>
       </c>
       <c r="W17" s="188">
-        <f>V17/Q17</f>
+        <f t="shared" si="5"/>
         <v>0.16410224682916408</v>
       </c>
       <c r="X17" s="149">
@@ -5328,7 +5578,7 @@
         <v>293.91071040962498</v>
       </c>
       <c r="AB17" s="155">
-        <f>AA17/Z17</f>
+        <f t="shared" si="6"/>
         <v>0.10477261963341718</v>
       </c>
       <c r="AC17" s="156">
@@ -5338,11 +5588,11 @@
         <v>3016</v>
       </c>
       <c r="AE17" s="156">
-        <f>AD17-AC17</f>
+        <f t="shared" si="7"/>
         <v>421</v>
       </c>
       <c r="AF17" s="188">
-        <f>AE17/Z17</f>
+        <f t="shared" si="8"/>
         <v>0.15007711969459464</v>
       </c>
       <c r="AG17" s="149">
@@ -5406,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="159">
-        <f>AD18-AC18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF18" s="189"/>
@@ -5470,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="161">
-        <f>AD19-AC19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF19" s="190"/>
@@ -5507,7 +5757,7 @@
         <v>3.5705195539773098</v>
       </c>
       <c r="J20" s="143">
-        <f>I20/H20</f>
+        <f t="shared" ref="J20:J67" si="13">I20/H20</f>
         <v>0.3468284939621788</v>
       </c>
       <c r="K20" s="144">
@@ -5517,11 +5767,11 @@
         <v>13</v>
       </c>
       <c r="M20" s="144">
-        <f>L20-K20</f>
+        <f t="shared" ref="M20:M67" si="14">L20-K20</f>
         <v>5</v>
       </c>
       <c r="N20" s="184">
-        <f>M20/H20</f>
+        <f t="shared" ref="N20:N67" si="15">M20/H20</f>
         <v>0.48568351008725891</v>
       </c>
       <c r="O20" s="143">
@@ -5536,7 +5786,7 @@
         <v>54.194141514803697</v>
       </c>
       <c r="S20" s="143">
-        <f>R20/Q20</f>
+        <f t="shared" ref="S20:S67" si="16">R20/Q20</f>
         <v>0.17761521522096405</v>
       </c>
       <c r="T20" s="144">
@@ -5546,11 +5796,11 @@
         <v>327</v>
       </c>
       <c r="V20" s="144">
-        <f>U20-T20</f>
+        <f t="shared" ref="V20:V67" si="17">U20-T20</f>
         <v>53</v>
       </c>
       <c r="W20" s="184">
-        <f>V20/Q20</f>
+        <f t="shared" ref="W20:W67" si="18">V20/Q20</f>
         <v>0.17370155045522162</v>
       </c>
       <c r="X20" s="143">
@@ -5565,7 +5815,7 @@
         <v>24.864621526251</v>
       </c>
       <c r="AB20" s="143">
-        <f>AA20/Z20</f>
+        <f t="shared" ref="AB20:AB67" si="19">AA20/Z20</f>
         <v>0.15304384909876864</v>
       </c>
       <c r="AC20" s="144">
@@ -5575,11 +5825,11 @@
         <v>179</v>
       </c>
       <c r="AE20" s="144">
-        <f>AD20-AC20</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="AF20" s="184">
-        <f>AE20/Z20</f>
+        <f t="shared" ref="AF20:AF67" si="20">AE20/Z20</f>
         <v>0.20927287647891649</v>
       </c>
       <c r="AG20" s="143">
@@ -5616,7 +5866,7 @@
         <v>8.7099183187242808</v>
       </c>
       <c r="J21" s="143">
-        <f>I21/H21</f>
+        <f t="shared" si="13"/>
         <v>0.2653949336133678</v>
       </c>
       <c r="K21" s="144">
@@ -5626,11 +5876,11 @@
         <v>40</v>
       </c>
       <c r="M21" s="144">
-        <f>L21-K21</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="N21" s="184">
-        <f>M21/H21</f>
+        <f t="shared" si="15"/>
         <v>0.42658598331509423</v>
       </c>
       <c r="O21" s="143">
@@ -5645,7 +5895,7 @@
         <v>16.8679864615737</v>
       </c>
       <c r="S21" s="143">
-        <f>R21/Q21</f>
+        <f t="shared" si="16"/>
         <v>4.1570134184443643E-2</v>
       </c>
       <c r="T21" s="144">
@@ -5655,11 +5905,11 @@
         <v>417</v>
       </c>
       <c r="V21" s="144">
-        <f>U21-T21</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="W21" s="184">
-        <f>V21/Q21</f>
+        <f t="shared" si="18"/>
         <v>5.421767169075839E-2</v>
       </c>
       <c r="X21" s="143">
@@ -5674,7 +5924,7 @@
         <v>25.3764677241718</v>
       </c>
       <c r="AB21" s="143">
-        <f>AA21/Z21</f>
+        <f t="shared" si="19"/>
         <v>0.11710356610367682</v>
       </c>
       <c r="AC21" s="144">
@@ -5684,11 +5934,11 @@
         <v>233</v>
       </c>
       <c r="AE21" s="144">
-        <f>AD21-AC21</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="AF21" s="184">
-        <f>AE21/Z21</f>
+        <f t="shared" si="20"/>
         <v>0.15228351413701161</v>
       </c>
       <c r="AG21" s="143">
@@ -5725,7 +5975,7 @@
         <v>4.34926590436989</v>
       </c>
       <c r="J22" s="143">
-        <f>I22/H22</f>
+        <f t="shared" si="13"/>
         <v>0.13973230282655327</v>
       </c>
       <c r="K22" s="144">
@@ -5735,11 +5985,11 @@
         <v>35</v>
       </c>
       <c r="M22" s="144">
-        <f>L22-K22</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="N22" s="184">
-        <f>M22/H22</f>
+        <f t="shared" si="15"/>
         <v>0.2248945319262059</v>
       </c>
       <c r="O22" s="143">
@@ -5754,7 +6004,7 @@
         <v>18.843296431694998</v>
       </c>
       <c r="S22" s="143">
-        <f>R22/Q22</f>
+        <f t="shared" si="16"/>
         <v>8.3351065256766402E-2</v>
       </c>
       <c r="T22" s="144">
@@ -5764,11 +6014,11 @@
         <v>240</v>
       </c>
       <c r="V22" s="144">
-        <f>U22-T22</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="W22" s="184">
-        <f>V22/Q22</f>
+        <f t="shared" si="18"/>
         <v>0.11058450621804072</v>
       </c>
       <c r="X22" s="143">
@@ -5783,7 +6033,7 @@
         <v>18.183926017893899</v>
       </c>
       <c r="AB22" s="143">
-        <f>AA22/Z22</f>
+        <f t="shared" si="19"/>
         <v>0.13195397046460244</v>
       </c>
       <c r="AC22" s="144">
@@ -5793,11 +6043,11 @@
         <v>149</v>
       </c>
       <c r="AE22" s="144">
-        <f>AD22-AC22</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="AF22" s="184">
-        <f>AE22/Z22</f>
+        <f t="shared" si="20"/>
         <v>0.17415905058313999</v>
       </c>
       <c r="AG22" s="143">
@@ -5834,7 +6084,7 @@
         <v>70.1989206538681</v>
       </c>
       <c r="J23" s="143">
-        <f>I23/H23</f>
+        <f t="shared" si="13"/>
         <v>3.959220139531261E-2</v>
       </c>
       <c r="K23" s="144">
@@ -5844,11 +6094,11 @@
         <v>1845</v>
       </c>
       <c r="M23" s="144">
-        <f>L23-K23</f>
+        <f t="shared" si="14"/>
         <v>136</v>
       </c>
       <c r="N23" s="184">
-        <f>M23/H23</f>
+        <f t="shared" si="15"/>
         <v>7.6704019657399342E-2</v>
       </c>
       <c r="O23" s="143">
@@ -5863,7 +6113,7 @@
         <v>30.416775559521501</v>
       </c>
       <c r="S23" s="143">
-        <f>R23/Q23</f>
+        <f t="shared" si="16"/>
         <v>3.1733985732946911E-2</v>
       </c>
       <c r="T23" s="144">
@@ -5873,11 +6123,11 @@
         <v>981</v>
       </c>
       <c r="V23" s="144">
-        <f>U23-T23</f>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="W23" s="184">
-        <f>V23/Q23</f>
+        <f t="shared" si="18"/>
         <v>5.1121963860749887E-2</v>
       </c>
       <c r="X23" s="143">
@@ -5892,7 +6142,7 @@
         <v>617.22998621111901</v>
       </c>
       <c r="AB23" s="143">
-        <f>AA23/Z23</f>
+        <f t="shared" si="19"/>
         <v>8.4095767472874589E-2</v>
       </c>
       <c r="AC23" s="144">
@@ -5902,11 +6152,11 @@
         <v>7795</v>
       </c>
       <c r="AE23" s="144">
-        <f>AD23-AC23</f>
+        <f t="shared" si="7"/>
         <v>715</v>
       </c>
       <c r="AF23" s="184">
-        <f>AE23/Z23</f>
+        <f t="shared" si="20"/>
         <v>9.7416643854595281E-2</v>
       </c>
       <c r="AG23" s="143">
@@ -5943,7 +6193,7 @@
         <v>9.8005917048280207</v>
       </c>
       <c r="J24" s="146">
-        <f>I24/H24</f>
+        <f t="shared" si="13"/>
         <v>0.18989290701625222</v>
       </c>
       <c r="K24" s="147">
@@ -5953,15 +6203,15 @@
         <v>58</v>
       </c>
       <c r="M24" s="147">
-        <f>L24-K24</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="N24" s="185">
-        <f>M24/H24</f>
+        <f t="shared" si="15"/>
         <v>0.25188354596949281</v>
       </c>
       <c r="O24" s="146">
-        <f>H24/H$24</f>
+        <f t="shared" ref="O24:O29" si="21">H24/H$24</f>
         <v>1</v>
       </c>
       <c r="P24" s="146"/>
@@ -5972,7 +6222,7 @@
         <v>29.496931567539399</v>
       </c>
       <c r="S24" s="146">
-        <f>R24/Q24</f>
+        <f t="shared" si="16"/>
         <v>0.13378523924695584</v>
       </c>
       <c r="T24" s="147">
@@ -5982,15 +6232,15 @@
         <v>242</v>
       </c>
       <c r="V24" s="147">
-        <f>U24-T24</f>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="W24" s="185">
-        <f>V24/Q24</f>
+        <f t="shared" si="18"/>
         <v>0.19502927870469985</v>
       </c>
       <c r="X24" s="146">
-        <f>Q24/Q$24</f>
+        <f t="shared" ref="X24:X29" si="22">Q24/Q$24</f>
         <v>1</v>
       </c>
       <c r="Y24" s="146"/>
@@ -6001,7 +6251,7 @@
         <v>14.3624940172033</v>
       </c>
       <c r="AB24" s="146">
-        <f>AA24/Z24</f>
+        <f t="shared" si="19"/>
         <v>0.18952854158063265</v>
       </c>
       <c r="AC24" s="147">
@@ -6011,15 +6261,15 @@
         <v>85</v>
       </c>
       <c r="AE24" s="147">
-        <f>AD24-AC24</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="AF24" s="185">
-        <f>AE24/Z24</f>
+        <f t="shared" si="20"/>
         <v>0.2507254161929478</v>
       </c>
       <c r="AG24" s="146">
-        <f t="shared" ref="AG24:AG29" si="2">Z24/Z$24</f>
+        <f t="shared" ref="AG24:AG29" si="23">Z24/Z$24</f>
         <v>1</v>
       </c>
       <c r="AH24" s="146"/>
@@ -6052,7 +6302,7 @@
         <v>7.6067550597663196</v>
       </c>
       <c r="J25" s="149">
-        <f>I25/H25</f>
+        <f t="shared" si="13"/>
         <v>0.10940856152340626</v>
       </c>
       <c r="K25" s="150">
@@ -6062,15 +6312,15 @@
         <v>74</v>
       </c>
       <c r="M25" s="150">
-        <f>L25-K25</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="N25" s="186">
-        <f>M25/H25</f>
+        <f t="shared" si="15"/>
         <v>0.14383079337218374</v>
       </c>
       <c r="O25" s="149">
-        <f>H25/H$24</f>
+        <f t="shared" si="21"/>
         <v>1.347114684414711</v>
       </c>
       <c r="P25" s="149"/>
@@ -6081,7 +6331,7 @@
         <v>18.485622533946898</v>
       </c>
       <c r="S25" s="149">
-        <f>R25/Q25</f>
+        <f t="shared" si="16"/>
         <v>8.7632177293439917E-2</v>
       </c>
       <c r="T25" s="150">
@@ -6091,15 +6341,15 @@
         <v>225</v>
       </c>
       <c r="V25" s="150">
-        <f>U25-T25</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="W25" s="186">
-        <f>V25/Q25</f>
+        <f t="shared" si="18"/>
         <v>0.1374762000491391</v>
       </c>
       <c r="X25" s="149">
-        <f>Q25/Q$24</f>
+        <f t="shared" si="22"/>
         <v>0.95675741665198932</v>
       </c>
       <c r="Y25" s="149"/>
@@ -6110,7 +6360,7 @@
         <v>11.5792848935228</v>
       </c>
       <c r="AB25" s="149">
-        <f>AA25/Z25</f>
+        <f t="shared" si="19"/>
         <v>0.17366632167045334</v>
       </c>
       <c r="AC25" s="150">
@@ -6120,15 +6370,15 @@
         <v>74</v>
       </c>
       <c r="AE25" s="150">
-        <f>AD25-AC25</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AF25" s="186">
-        <f>AE25/Z25</f>
+        <f t="shared" si="20"/>
         <v>0.22497026794063746</v>
       </c>
       <c r="AG25" s="149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.87985456860145828</v>
       </c>
       <c r="AH25" s="149"/>
@@ -6161,7 +6411,7 @@
         <v>9.1634995199790197</v>
       </c>
       <c r="J26" s="149">
-        <f>I26/H26</f>
+        <f t="shared" si="13"/>
         <v>0.14647646184195162</v>
       </c>
       <c r="K26" s="150">
@@ -6171,15 +6421,15 @@
         <v>68</v>
       </c>
       <c r="M26" s="150">
-        <f>L26-K26</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="N26" s="186">
-        <f>M26/H26</f>
+        <f t="shared" si="15"/>
         <v>0.15984773232386984</v>
       </c>
       <c r="O26" s="149">
-        <f>H26/H$24</f>
+        <f t="shared" si="21"/>
         <v>1.2121321397923477</v>
       </c>
       <c r="P26" s="149"/>
@@ -6190,7 +6440,7 @@
         <v>17.368762111134401</v>
       </c>
       <c r="S26" s="149">
-        <f>R26/Q26</f>
+        <f t="shared" si="16"/>
         <v>7.5932959755138391E-2</v>
       </c>
       <c r="T26" s="150">
@@ -6200,15 +6450,15 @@
         <v>241</v>
       </c>
       <c r="V26" s="150">
-        <f>U26-T26</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="W26" s="186">
-        <f>V26/Q26</f>
+        <f t="shared" si="18"/>
         <v>0.10055167220285667</v>
       </c>
       <c r="X26" s="149">
-        <f>Q26/Q$24</f>
+        <f t="shared" si="22"/>
         <v>1.0374565036914978</v>
       </c>
       <c r="Y26" s="149"/>
@@ -6219,7 +6469,7 @@
         <v>11.767535241481999</v>
       </c>
       <c r="AB26" s="149">
-        <f>AA26/Z26</f>
+        <f t="shared" si="19"/>
         <v>0.16236827876243862</v>
       </c>
       <c r="AC26" s="150">
@@ -6229,15 +6479,15 @@
         <v>80</v>
       </c>
       <c r="AE26" s="150">
-        <f>AD26-AC26</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AF26" s="186">
-        <f>AE26/Z26</f>
+        <f t="shared" si="20"/>
         <v>0.22076776545704571</v>
       </c>
       <c r="AG26" s="149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.95637690650366025</v>
       </c>
       <c r="AH26" s="149"/>
@@ -6270,7 +6520,7 @@
         <v>58.286574182066602</v>
       </c>
       <c r="J27" s="149">
-        <f>I27/H27</f>
+        <f t="shared" si="13"/>
         <v>0.20190284207713</v>
       </c>
       <c r="K27" s="150">
@@ -6280,15 +6530,15 @@
         <v>339</v>
       </c>
       <c r="M27" s="150">
-        <f>L27-K27</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="N27" s="186">
-        <f>M27/H27</f>
+        <f t="shared" si="15"/>
         <v>0.31868507854096984</v>
       </c>
       <c r="O27" s="149">
-        <f>H27/H$24</f>
+        <f t="shared" si="21"/>
         <v>5.5934858554714362</v>
       </c>
       <c r="P27" s="149"/>
@@ -6299,7 +6549,7 @@
         <v>12.3016758977554</v>
       </c>
       <c r="S27" s="149">
-        <f>R27/Q27</f>
+        <f t="shared" si="16"/>
         <v>3.1055932131289665E-2</v>
       </c>
       <c r="T27" s="150">
@@ -6309,15 +6559,15 @@
         <v>404</v>
       </c>
       <c r="V27" s="150">
-        <f>U27-T27</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="W27" s="186">
-        <f>V27/Q27</f>
+        <f t="shared" si="18"/>
         <v>3.5343399830374905E-2</v>
       </c>
       <c r="X27" s="149">
-        <f>Q27/Q$24</f>
+        <f t="shared" si="22"/>
         <v>1.796598657721149</v>
       </c>
       <c r="Y27" s="149"/>
@@ -6328,7 +6578,7 @@
         <v>105.10287558811299</v>
       </c>
       <c r="AB27" s="149">
-        <f>AA27/Z27</f>
+        <f t="shared" si="19"/>
         <v>0.16611630018059881</v>
       </c>
       <c r="AC27" s="150">
@@ -6338,15 +6588,15 @@
         <v>678</v>
       </c>
       <c r="AE27" s="150">
-        <f>AD27-AC27</f>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="AF27" s="186">
-        <f>AE27/Z27</f>
+        <f t="shared" si="20"/>
         <v>0.17859779587734378</v>
       </c>
       <c r="AG27" s="149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>8.3492431432093515</v>
       </c>
       <c r="AH27" s="149"/>
@@ -6379,7 +6629,7 @@
         <v>12.197151301521499</v>
       </c>
       <c r="J28" s="149">
-        <f>I28/H28</f>
+        <f t="shared" si="13"/>
         <v>5.0735515467759404E-3</v>
       </c>
       <c r="K28" s="150">
@@ -6389,15 +6639,15 @@
         <v>2413</v>
       </c>
       <c r="M28" s="150">
-        <f>L28-K28</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="N28" s="186">
-        <f>M28/H28</f>
+        <f t="shared" si="15"/>
         <v>7.4873161432846193E-3</v>
       </c>
       <c r="O28" s="149">
-        <f>H28/H$24</f>
+        <f t="shared" si="21"/>
         <v>46.580353521420491</v>
       </c>
       <c r="P28" s="149"/>
@@ -6408,7 +6658,7 @@
         <v>20.702793523542699</v>
       </c>
       <c r="S28" s="149">
-        <f>R28/Q28</f>
+        <f t="shared" si="16"/>
         <v>2.0134037428972844E-2</v>
       </c>
       <c r="T28" s="150">
@@ -6418,15 +6668,15 @@
         <v>1042</v>
       </c>
       <c r="V28" s="150">
-        <f>U28-T28</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="W28" s="186">
-        <f>V28/Q28</f>
+        <f t="shared" si="18"/>
         <v>2.6258244326500039E-2</v>
       </c>
       <c r="X28" s="149">
-        <f>Q28/Q$24</f>
+        <f t="shared" si="22"/>
         <v>4.6636874592746276</v>
       </c>
       <c r="Y28" s="149"/>
@@ -6437,7 +6687,7 @@
         <v>104.080422206712</v>
       </c>
       <c r="AB28" s="149">
-        <f>AA28/Z28</f>
+        <f t="shared" si="19"/>
         <v>0.11738893325361729</v>
       </c>
       <c r="AC28" s="150">
@@ -6447,15 +6697,15 @@
         <v>940</v>
       </c>
       <c r="AE28" s="150">
-        <f>AD28-AC28</f>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="AF28" s="186">
-        <f>AE28/Z28</f>
+        <f t="shared" si="20"/>
         <v>0.12293756552247276</v>
       </c>
       <c r="AG28" s="149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>11.700021212900953</v>
       </c>
       <c r="AH28" s="149"/>
@@ -6488,7 +6738,7 @@
         <v>19.2693857978586</v>
       </c>
       <c r="J29" s="152">
-        <f>I29/H29</f>
+        <f t="shared" si="13"/>
         <v>1.3662298984836211E-2</v>
       </c>
       <c r="K29" s="153">
@@ -6498,15 +6748,15 @@
         <v>1430</v>
       </c>
       <c r="M29" s="153">
-        <f>L29-K29</f>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="N29" s="187">
-        <f>M29/H29</f>
+        <f t="shared" si="15"/>
         <v>2.6233584595888697E-2</v>
       </c>
       <c r="O29" s="152">
-        <f>H29/H$24</f>
+        <f t="shared" si="21"/>
         <v>27.327539647642851</v>
       </c>
       <c r="P29" s="152"/>
@@ -6517,7 +6767,7 @@
         <v>16.358343187671899</v>
       </c>
       <c r="S29" s="152">
-        <f>R29/Q29</f>
+        <f t="shared" si="16"/>
         <v>2.2747171883653765E-2</v>
       </c>
       <c r="T29" s="153">
@@ -6527,15 +6777,15 @@
         <v>733</v>
       </c>
       <c r="V29" s="153">
-        <f>U29-T29</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="W29" s="187">
-        <f>V29/Q29</f>
+        <f t="shared" si="18"/>
         <v>3.3373314090825529E-2</v>
       </c>
       <c r="X29" s="152">
-        <f>Q29/Q$24</f>
+        <f t="shared" si="22"/>
         <v>3.2616943767916982</v>
       </c>
       <c r="Y29" s="152"/>
@@ -6546,7 +6796,7 @@
         <v>127.370243405019</v>
       </c>
       <c r="AB29" s="152">
-        <f>AA29/Z29</f>
+        <f t="shared" si="19"/>
         <v>0.10643066183230256</v>
       </c>
       <c r="AC29" s="153">
@@ -6556,15 +6806,15 @@
         <v>1258</v>
       </c>
       <c r="AE29" s="153">
-        <f>AD29-AC29</f>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="AF29" s="187">
-        <f>AE29/Z29</f>
+        <f t="shared" si="20"/>
         <v>0.10110768211974031</v>
       </c>
       <c r="AG29" s="152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>15.79232146793758</v>
       </c>
       <c r="AH29" s="152"/>
@@ -6597,7 +6847,7 @@
         <v>9.87521375938638</v>
       </c>
       <c r="J30" s="143">
-        <f>I30/H30</f>
+        <f t="shared" si="13"/>
         <v>0.15324489481245521</v>
       </c>
       <c r="K30" s="144">
@@ -6607,11 +6857,11 @@
         <v>70</v>
       </c>
       <c r="M30" s="144">
-        <f>L30-K30</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="N30" s="184">
-        <f>M30/H30</f>
+        <f t="shared" si="15"/>
         <v>0.18621761336574141</v>
       </c>
       <c r="O30" s="143">
@@ -6626,7 +6876,7 @@
         <v>49.743786294849301</v>
       </c>
       <c r="S30" s="143">
-        <f>R30/Q30</f>
+        <f t="shared" si="16"/>
         <v>0.2521978741667471</v>
       </c>
       <c r="T30" s="144">
@@ -6636,11 +6886,11 @@
         <v>209</v>
       </c>
       <c r="V30" s="144">
-        <f>U30-T30</f>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="W30" s="184">
-        <f>V30/Q30</f>
+        <f t="shared" si="18"/>
         <v>0.17744780309877878</v>
       </c>
       <c r="X30" s="143">
@@ -6655,7 +6905,7 @@
         <v>10.8882412091871</v>
       </c>
       <c r="AB30" s="143">
-        <f>AA30/Z30</f>
+        <f t="shared" si="19"/>
         <v>0.21259345256433967</v>
       </c>
       <c r="AC30" s="144">
@@ -6665,11 +6915,11 @@
         <v>58</v>
       </c>
       <c r="AE30" s="144">
-        <f>AD30-AC30</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AF30" s="184">
-        <f>AE30/Z30</f>
+        <f t="shared" si="20"/>
         <v>0.27335069812647567</v>
       </c>
       <c r="AG30" s="143">
@@ -6706,7 +6956,7 @@
         <v>14.879718408277901</v>
       </c>
       <c r="J31" s="143">
-        <f>I31/H31</f>
+        <f t="shared" si="13"/>
         <v>6.9332671831264583E-2</v>
       </c>
       <c r="K31" s="144">
@@ -6716,11 +6966,11 @@
         <v>225</v>
       </c>
       <c r="M31" s="144">
-        <f>L31-K31</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="N31" s="184">
-        <f>M31/H31</f>
+        <f t="shared" si="15"/>
         <v>8.8531296671661056E-2</v>
       </c>
       <c r="O31" s="143">
@@ -6735,7 +6985,7 @@
         <v>289.71181404687098</v>
       </c>
       <c r="S31" s="143">
-        <f>R31/Q31</f>
+        <f t="shared" si="16"/>
         <v>0.16518140640129617</v>
       </c>
       <c r="T31" s="144">
@@ -6745,11 +6995,11 @@
         <v>1864</v>
       </c>
       <c r="V31" s="144">
-        <f>U31-T31</f>
+        <f t="shared" si="17"/>
         <v>221</v>
       </c>
       <c r="W31" s="184">
-        <f>V31/Q31</f>
+        <f t="shared" si="18"/>
         <v>0.12600484013669006</v>
       </c>
       <c r="X31" s="143">
@@ -6764,7 +7014,7 @@
         <v>33.437554814385997</v>
       </c>
       <c r="AB31" s="143">
-        <f>AA31/Z31</f>
+        <f t="shared" si="19"/>
         <v>0.14344844303533547</v>
       </c>
       <c r="AC31" s="144">
@@ -6774,11 +7024,11 @@
         <v>251</v>
       </c>
       <c r="AE31" s="144">
-        <f>AD31-AC31</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="AF31" s="184">
-        <f>AE31/Z31</f>
+        <f t="shared" si="20"/>
         <v>0.17160159447259457</v>
       </c>
       <c r="AG31" s="143">
@@ -6815,7 +7065,7 @@
         <v>10.3562494410354</v>
       </c>
       <c r="J32" s="143">
-        <f>I32/H32</f>
+        <f t="shared" si="13"/>
         <v>0.10212403187408924</v>
       </c>
       <c r="K32" s="144">
@@ -6825,11 +7075,11 @@
         <v>108</v>
       </c>
       <c r="M32" s="144">
-        <f>L32-K32</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="N32" s="184">
-        <f>M32/H32</f>
+        <f t="shared" si="15"/>
         <v>0.12819432574718168</v>
       </c>
       <c r="O32" s="143">
@@ -6844,7 +7094,7 @@
         <v>81.464779827892798</v>
       </c>
       <c r="S32" s="143">
-        <f>R32/Q32</f>
+        <f t="shared" si="16"/>
         <v>0.14897815979448761</v>
       </c>
       <c r="T32" s="144">
@@ -6854,11 +7104,11 @@
         <v>583</v>
       </c>
       <c r="V32" s="144">
-        <f>U32-T32</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="W32" s="184">
-        <f>V32/Q32</f>
+        <f t="shared" si="18"/>
         <v>0.10972459026531034</v>
       </c>
       <c r="X32" s="143">
@@ -6873,7 +7123,7 @@
         <v>81.239432962507394</v>
       </c>
       <c r="AB32" s="143">
-        <f>AA32/Z32</f>
+        <f t="shared" si="19"/>
         <v>0.84659569442829785</v>
       </c>
       <c r="AC32" s="144">
@@ -6883,11 +7133,11 @@
         <v>91</v>
       </c>
       <c r="AE32" s="144">
-        <f>AD32-AC32</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AF32" s="184">
-        <f>AE32/Z32</f>
+        <f t="shared" si="20"/>
         <v>0.18757790329164589</v>
       </c>
       <c r="AG32" s="143">
@@ -6924,7 +7174,7 @@
         <v>783.92718196046008</v>
       </c>
       <c r="J33" s="162">
-        <f>I33/H33</f>
+        <f t="shared" si="13"/>
         <v>5.6818444648093873E-2</v>
       </c>
       <c r="K33" s="163">
@@ -6934,11 +7184,11 @@
         <v>14406</v>
       </c>
       <c r="M33" s="163">
-        <f>L33-K33</f>
+        <f t="shared" si="14"/>
         <v>1180</v>
       </c>
       <c r="N33" s="191">
-        <f>M33/H33</f>
+        <f t="shared" si="15"/>
         <v>8.5525500617393363E-2</v>
       </c>
       <c r="O33" s="162">
@@ -6953,7 +7203,7 @@
         <v>1419.50618212825</v>
       </c>
       <c r="S33" s="162">
-        <f>R33/Q33</f>
+        <f t="shared" si="16"/>
         <v>0.16564430125644999</v>
       </c>
       <c r="T33" s="163">
@@ -6963,11 +7213,11 @@
         <v>8841</v>
       </c>
       <c r="V33" s="163">
-        <f>U33-T33</f>
+        <f t="shared" si="17"/>
         <v>1094</v>
       </c>
       <c r="W33" s="191">
-        <f>V33/Q33</f>
+        <f t="shared" si="18"/>
         <v>0.12766049761253087</v>
       </c>
       <c r="X33" s="162">
@@ -6982,7 +7232,7 @@
         <v>361.46936254966101</v>
       </c>
       <c r="AB33" s="162">
-        <f>AA33/Z33</f>
+        <f t="shared" si="19"/>
         <v>0.13070077095767074</v>
       </c>
       <c r="AC33" s="163">
@@ -6992,11 +7242,11 @@
         <v>2957</v>
       </c>
       <c r="AE33" s="163">
-        <f>AD33-AC33</f>
+        <f t="shared" si="7"/>
         <v>398</v>
       </c>
       <c r="AF33" s="191">
-        <f>AE33/Z33</f>
+        <f t="shared" si="20"/>
         <v>0.14390958745225954</v>
       </c>
       <c r="AG33" s="162">
@@ -7035,7 +7285,7 @@
         <v>121.81894289085299</v>
       </c>
       <c r="J34" s="165">
-        <f>I34/H34</f>
+        <f t="shared" si="13"/>
         <v>3.1276752745833104E-3</v>
       </c>
       <c r="K34" s="166">
@@ -7045,11 +7295,11 @@
         <v>39033</v>
       </c>
       <c r="M34" s="166">
-        <f>L34-K34</f>
+        <f t="shared" si="14"/>
         <v>153</v>
       </c>
       <c r="N34" s="192">
-        <f>M34/H34</f>
+        <f t="shared" si="15"/>
         <v>3.9282422393042962E-3</v>
       </c>
       <c r="O34" s="165">
@@ -7064,7 +7314,7 @@
         <v>503.056038117301</v>
       </c>
       <c r="S34" s="165">
-        <f>R34/Q34</f>
+        <f t="shared" si="16"/>
         <v>6.7292690044202935E-2</v>
       </c>
       <c r="T34" s="166">
@@ -7074,11 +7324,11 @@
         <v>7773</v>
       </c>
       <c r="V34" s="166">
-        <f>U34-T34</f>
+        <f t="shared" si="17"/>
         <v>712</v>
       </c>
       <c r="W34" s="192">
-        <f>V34/Q34</f>
+        <f t="shared" si="18"/>
         <v>9.524266022287646E-2</v>
       </c>
       <c r="X34" s="165">
@@ -7093,7 +7343,7 @@
         <v>234.25816963278101</v>
       </c>
       <c r="AB34" s="165">
-        <f>AA34/Z34</f>
+        <f t="shared" si="19"/>
         <v>2.9795527671383871E-2</v>
       </c>
       <c r="AC34" s="166">
@@ -7103,11 +7353,11 @@
         <v>7988</v>
       </c>
       <c r="AE34" s="166">
-        <f>AD34-AC34</f>
+        <f t="shared" ref="AE34:AE65" si="24">AD34-AC34</f>
         <v>160</v>
       </c>
       <c r="AF34" s="192">
-        <f>AE34/Z34</f>
+        <f t="shared" si="20"/>
         <v>2.0350557826412333E-2</v>
       </c>
       <c r="AG34" s="165">
@@ -7144,7 +7394,7 @@
         <v>31.4539522640336</v>
       </c>
       <c r="J35" s="168">
-        <f>I35/H35</f>
+        <f t="shared" si="13"/>
         <v>0.12914475294800412</v>
       </c>
       <c r="K35" s="169">
@@ -7154,11 +7404,11 @@
         <v>265</v>
       </c>
       <c r="M35" s="169">
-        <f>L35-K35</f>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="N35" s="193">
-        <f>M35/H35</f>
+        <f t="shared" si="15"/>
         <v>0.16012758341759722</v>
       </c>
       <c r="O35" s="168">
@@ -7173,7 +7423,7 @@
         <v>29.013628869787201</v>
       </c>
       <c r="S35" s="168">
-        <f>R35/Q35</f>
+        <f t="shared" si="16"/>
         <v>9.6617001206831518E-2</v>
       </c>
       <c r="T35" s="169">
@@ -7183,11 +7433,11 @@
         <v>320</v>
       </c>
       <c r="V35" s="169">
-        <f>U35-T35</f>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="W35" s="193">
-        <f>V35/Q35</f>
+        <f t="shared" si="18"/>
         <v>0.12654211792454509</v>
       </c>
       <c r="X35" s="168">
@@ -7202,7 +7452,7 @@
         <v>14.493357563629701</v>
       </c>
       <c r="AB35" s="168">
-        <f>AA35/Z35</f>
+        <f t="shared" si="19"/>
         <v>0.15263064904780096</v>
       </c>
       <c r="AC35" s="169">
@@ -7212,11 +7462,11 @@
         <v>104</v>
       </c>
       <c r="AE35" s="169">
-        <f>AD35-AC35</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="AF35" s="193">
-        <f>AE35/Z35</f>
+        <f t="shared" si="20"/>
         <v>0.20009044275465662</v>
       </c>
       <c r="AG35" s="168">
@@ -7253,7 +7503,7 @@
         <v>19.213451112877699</v>
       </c>
       <c r="J36" s="168">
-        <f>I36/H36</f>
+        <f t="shared" si="13"/>
         <v>0.24966561907391191</v>
       </c>
       <c r="K36" s="169">
@@ -7263,11 +7513,11 @@
         <v>91</v>
       </c>
       <c r="M36" s="169">
-        <f>L36-K36</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="N36" s="193">
-        <f>M36/H36</f>
+        <f t="shared" si="15"/>
         <v>0.38982942357488559</v>
       </c>
       <c r="O36" s="168">
@@ -7282,7 +7532,7 @@
         <v>12.3717749239448</v>
       </c>
       <c r="S36" s="168">
-        <f>R36/Q36</f>
+        <f t="shared" si="16"/>
         <v>0.14649074510735646</v>
       </c>
       <c r="T36" s="169">
@@ -7292,11 +7542,11 @@
         <v>94</v>
       </c>
       <c r="V36" s="169">
-        <f>U36-T36</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="W36" s="193">
-        <f>V36/Q36</f>
+        <f t="shared" si="18"/>
         <v>0.22497371429323551</v>
       </c>
       <c r="X36" s="168">
@@ -7311,7 +7561,7 @@
         <v>6.7260646226155103</v>
       </c>
       <c r="AB36" s="168">
-        <f>AA36/Z36</f>
+        <f t="shared" si="19"/>
         <v>0.25340994800991506</v>
       </c>
       <c r="AC36" s="169">
@@ -7321,11 +7571,11 @@
         <v>31</v>
       </c>
       <c r="AE36" s="169">
-        <f>AD36-AC36</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="AF36" s="193">
-        <f>AE36/Z36</f>
+        <f t="shared" si="20"/>
         <v>0.33908231039302178</v>
       </c>
       <c r="AG36" s="168">
@@ -7362,7 +7612,7 @@
         <v>29.4846860468652</v>
       </c>
       <c r="J37" s="168">
-        <f>I37/H37</f>
+        <f t="shared" si="13"/>
         <v>0.1352986417751525</v>
       </c>
       <c r="K37" s="169">
@@ -7372,11 +7622,11 @@
         <v>247</v>
       </c>
       <c r="M37" s="169">
-        <f>L37-K37</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="N37" s="193">
-        <f>M37/H37</f>
+        <f t="shared" si="15"/>
         <v>0.27532660492317651</v>
       </c>
       <c r="O37" s="168">
@@ -7391,7 +7641,7 @@
         <v>8.7267138148660095</v>
       </c>
       <c r="S37" s="168">
-        <f>R37/Q37</f>
+        <f t="shared" si="16"/>
         <v>0.12514827243700644</v>
       </c>
       <c r="T37" s="169">
@@ -7401,11 +7651,11 @@
         <v>75</v>
       </c>
       <c r="V37" s="169">
-        <f>U37-T37</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="W37" s="193">
-        <f>V37/Q37</f>
+        <f t="shared" si="18"/>
         <v>0.17208989558999713</v>
       </c>
       <c r="X37" s="168">
@@ -7420,7 +7670,7 @@
         <v>27.258209123857</v>
       </c>
       <c r="AB37" s="168">
-        <f>AA37/Z37</f>
+        <f t="shared" si="19"/>
         <v>0.13977955514795326</v>
       </c>
       <c r="AC37" s="169">
@@ -7430,11 +7680,11 @@
         <v>213</v>
       </c>
       <c r="AE37" s="169">
-        <f>AD37-AC37</f>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
       <c r="AF37" s="193">
-        <f>AE37/Z37</f>
+        <f t="shared" si="20"/>
         <v>0.18973526532774879</v>
       </c>
       <c r="AG37" s="168">
@@ -7471,7 +7721,7 @@
         <v>38.999171121738399</v>
       </c>
       <c r="J38" s="171">
-        <f>I38/H38</f>
+        <f t="shared" si="13"/>
         <v>0.10739005841002064</v>
       </c>
       <c r="K38" s="172">
@@ -7481,11 +7731,11 @@
         <v>385</v>
       </c>
       <c r="M38" s="172">
-        <f>L38-K38</f>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="N38" s="194">
-        <f>M38/H38</f>
+        <f t="shared" si="15"/>
         <v>0.10739234085045124</v>
       </c>
       <c r="O38" s="171">
@@ -7500,7 +7750,7 @@
         <v>25.782559830402501</v>
       </c>
       <c r="S38" s="171">
-        <f>R38/Q38</f>
+        <f t="shared" si="16"/>
         <v>0.12043760129488799</v>
       </c>
       <c r="T38" s="172">
@@ -7510,11 +7760,11 @@
         <v>228</v>
       </c>
       <c r="V38" s="172">
-        <f>U38-T38</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="W38" s="194">
-        <f>V38/Q38</f>
+        <f t="shared" si="18"/>
         <v>0.13079588909865891</v>
       </c>
       <c r="X38" s="171">
@@ -7529,7 +7779,7 @@
         <v>15.999964507126201</v>
       </c>
       <c r="AB38" s="171">
-        <f>AA38/Z38</f>
+        <f t="shared" si="19"/>
         <v>0.18021597036903483</v>
       </c>
       <c r="AC38" s="172">
@@ -7539,11 +7789,11 @@
         <v>99</v>
       </c>
       <c r="AE38" s="172">
-        <f>AD38-AC38</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="AF38" s="194">
-        <f>AE38/Z38</f>
+        <f t="shared" si="20"/>
         <v>0.23653398581378993</v>
       </c>
       <c r="AG38" s="171">
@@ -7580,7 +7830,7 @@
         <v>100.62611535648</v>
       </c>
       <c r="J39" s="162">
-        <f>I39/H39</f>
+        <f t="shared" si="13"/>
         <v>7.320989836013421E-2</v>
       </c>
       <c r="K39" s="163">
@@ -7590,11 +7840,11 @@
         <v>1457</v>
       </c>
       <c r="M39" s="163">
-        <f>L39-K39</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="N39" s="191">
-        <f>M39/H39</f>
+        <f t="shared" si="15"/>
         <v>0.10258366461042343</v>
       </c>
       <c r="O39" s="162">
@@ -7609,7 +7859,7 @@
         <v>13.388574332390901</v>
       </c>
       <c r="S39" s="162">
-        <f>R39/Q39</f>
+        <f t="shared" si="16"/>
         <v>0.10106267655981004</v>
       </c>
       <c r="T39" s="163">
@@ -7619,11 +7869,11 @@
         <v>140</v>
       </c>
       <c r="V39" s="163">
-        <f>U39-T39</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="W39" s="191">
-        <f>V39/Q39</f>
+        <f t="shared" si="18"/>
         <v>0.12832325973350758</v>
       </c>
       <c r="X39" s="162">
@@ -7638,7 +7888,7 @@
         <v>22.3858374914773</v>
       </c>
       <c r="AB39" s="162">
-        <f>AA39/Z39</f>
+        <f t="shared" si="19"/>
         <v>0.1535660183834916</v>
       </c>
       <c r="AC39" s="163">
@@ -7648,11 +7898,11 @@
         <v>160</v>
       </c>
       <c r="AE39" s="163">
-        <f>AD39-AC39</f>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="AF39" s="191">
-        <f>AE39/Z39</f>
+        <f t="shared" si="20"/>
         <v>0.20579889196724091</v>
       </c>
       <c r="AG39" s="162">
@@ -7689,7 +7939,7 @@
         <v>135.06275258934599</v>
       </c>
       <c r="J40" s="165">
-        <f>I40/H40</f>
+        <f t="shared" si="13"/>
         <v>6.0858170513613419E-2</v>
       </c>
       <c r="K40" s="166">
@@ -7699,11 +7949,11 @@
         <v>2362</v>
       </c>
       <c r="M40" s="166">
-        <f>L40-K40</f>
+        <f t="shared" si="14"/>
         <v>267</v>
       </c>
       <c r="N40" s="192">
-        <f>M40/H40</f>
+        <f t="shared" si="15"/>
         <v>0.12030801398324638</v>
       </c>
       <c r="O40" s="165">
@@ -7718,7 +7968,7 @@
         <v>15.3799863154596</v>
       </c>
       <c r="S40" s="165">
-        <f>R40/Q40</f>
+        <f t="shared" si="16"/>
         <v>5.514438989765711E-2</v>
       </c>
       <c r="T40" s="166">
@@ -7728,11 +7978,11 @@
         <v>291</v>
       </c>
       <c r="V40" s="166">
-        <f>U40-T40</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="W40" s="192">
-        <f>V40/Q40</f>
+        <f t="shared" si="18"/>
         <v>8.2465675952599973E-2</v>
       </c>
       <c r="X40" s="165">
@@ -7747,7 +7997,7 @@
         <v>61.890348613984699</v>
       </c>
       <c r="AB40" s="165">
-        <f>AA40/Z40</f>
+        <f t="shared" si="19"/>
         <v>0.13434874216676884</v>
       </c>
       <c r="AC40" s="166">
@@ -7757,11 +8007,11 @@
         <v>502</v>
       </c>
       <c r="AE40" s="166">
-        <f>AD40-AC40</f>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="AF40" s="192">
-        <f>AE40/Z40</f>
+        <f t="shared" si="20"/>
         <v>0.18451411795077494</v>
       </c>
       <c r="AG40" s="165">
@@ -7798,7 +8048,7 @@
         <v>25.426255883589199</v>
       </c>
       <c r="J41" s="168">
-        <f>I41/H41</f>
+        <f t="shared" si="13"/>
         <v>0.11013186432212081</v>
       </c>
       <c r="K41" s="169">
@@ -7808,15 +8058,15 @@
         <v>248</v>
       </c>
       <c r="M41" s="169">
-        <f>L41-K41</f>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="N41" s="193">
-        <f>M41/H41</f>
+        <f t="shared" si="15"/>
         <v>0.14726837502523915</v>
       </c>
       <c r="O41" s="168">
-        <f>H41/H$41</f>
+        <f t="shared" ref="O41:O46" si="25">H41/H$41</f>
         <v>1</v>
       </c>
       <c r="P41" s="168"/>
@@ -7827,7 +8077,7 @@
         <v>15.3860914670538</v>
       </c>
       <c r="S41" s="168">
-        <f>R41/Q41</f>
+        <f t="shared" si="16"/>
         <v>0.10905045470781005</v>
       </c>
       <c r="T41" s="169">
@@ -7837,15 +8087,15 @@
         <v>151</v>
       </c>
       <c r="V41" s="169">
-        <f>U41-T41</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="W41" s="193">
-        <f>V41/Q41</f>
+        <f t="shared" si="18"/>
         <v>0.14175199067459013</v>
       </c>
       <c r="X41" s="168">
-        <f>Q41/Q$41</f>
+        <f t="shared" ref="X41:X46" si="26">Q41/Q$41</f>
         <v>1</v>
       </c>
       <c r="Y41" s="168"/>
@@ -7856,7 +8106,7 @@
         <v>15.8178890433764</v>
       </c>
       <c r="AB41" s="168">
-        <f>AA41/Z41</f>
+        <f t="shared" si="19"/>
         <v>0.17724685690272432</v>
       </c>
       <c r="AC41" s="169">
@@ -7866,15 +8116,15 @@
         <v>99</v>
       </c>
       <c r="AE41" s="169">
-        <f>AD41-AC41</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="AF41" s="193">
-        <f>AE41/Z41</f>
+        <f t="shared" si="20"/>
         <v>0.23531483782381457</v>
       </c>
       <c r="AG41" s="168">
-        <f t="shared" ref="AG41:AG46" si="3">Z41/Z$41</f>
+        <f t="shared" ref="AG41:AG46" si="27">Z41/Z$41</f>
         <v>1</v>
       </c>
       <c r="AH41" s="168"/>
@@ -7907,7 +8157,7 @@
         <v>20.4765556606065</v>
       </c>
       <c r="J42" s="168">
-        <f>I42/H42</f>
+        <f t="shared" si="13"/>
         <v>0.10279893140431781</v>
       </c>
       <c r="K42" s="169">
@@ -7917,15 +8167,15 @@
         <v>217</v>
       </c>
       <c r="M42" s="169">
-        <f>L42-K42</f>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="N42" s="193">
-        <f>M42/H42</f>
+        <f t="shared" si="15"/>
         <v>0.18073164217139767</v>
       </c>
       <c r="O42" s="168">
-        <f>H42/H$41</f>
+        <f t="shared" si="25"/>
         <v>0.86277764502953513</v>
       </c>
       <c r="P42" s="168"/>
@@ -7936,7 +8186,7 @@
         <v>10.1570575091565</v>
       </c>
       <c r="S42" s="168">
-        <f>R42/Q42</f>
+        <f t="shared" si="16"/>
         <v>0.18985308021460681</v>
       </c>
       <c r="T42" s="169">
@@ -7946,15 +8196,15 @@
         <v>60</v>
       </c>
       <c r="V42" s="169">
-        <f>U42-T42</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="W42" s="193">
-        <f>V42/Q42</f>
+        <f t="shared" si="18"/>
         <v>0.28037610308416966</v>
       </c>
       <c r="X42" s="168">
-        <f>Q42/Q$41</f>
+        <f t="shared" si="26"/>
         <v>0.37918350328889067</v>
       </c>
       <c r="Y42" s="168"/>
@@ -7965,7 +8215,7 @@
         <v>10.3869556410444</v>
       </c>
       <c r="AB42" s="168">
-        <f>AA42/Z42</f>
+        <f t="shared" si="19"/>
         <v>0.2077327376693551</v>
       </c>
       <c r="AC42" s="169">
@@ -7975,15 +8225,15 @@
         <v>57</v>
       </c>
       <c r="AE42" s="169">
-        <f>AD42-AC42</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="AF42" s="193">
-        <f>AE42/Z42</f>
+        <f t="shared" si="20"/>
         <v>0.27999140728770344</v>
       </c>
       <c r="AG42" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.56029061773317979</v>
       </c>
       <c r="AH42" s="168"/>
@@ -8016,7 +8266,7 @@
         <v>67.105072948146898</v>
       </c>
       <c r="J43" s="168">
-        <f>I43/H43</f>
+        <f t="shared" si="13"/>
         <v>0.20915923038872128</v>
       </c>
       <c r="K43" s="169">
@@ -8026,15 +8276,15 @@
         <v>374</v>
       </c>
       <c r="M43" s="169">
-        <f>L43-K43</f>
+        <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="N43" s="193">
-        <f>M43/H43</f>
+        <f t="shared" si="15"/>
         <v>0.35844252063162652</v>
       </c>
       <c r="O43" s="168">
-        <f>H43/H$41</f>
+        <f t="shared" si="25"/>
         <v>1.389661082985217</v>
       </c>
       <c r="P43" s="168"/>
@@ -8045,7 +8295,7 @@
         <v>8.4662036034120298</v>
       </c>
       <c r="S43" s="168">
-        <f>R43/Q43</f>
+        <f t="shared" si="16"/>
         <v>0.18391895120867355</v>
       </c>
       <c r="T43" s="169">
@@ -8055,15 +8305,15 @@
         <v>53</v>
       </c>
       <c r="V43" s="169">
-        <f>U43-T43</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="W43" s="193">
-        <f>V43/Q43</f>
+        <f t="shared" si="18"/>
         <v>0.30413458470142546</v>
       </c>
       <c r="X43" s="168">
-        <f>Q43/Q$41</f>
+        <f t="shared" si="26"/>
         <v>0.32625817142639491</v>
       </c>
       <c r="Y43" s="168"/>
@@ -8074,7 +8324,7 @@
         <v>11.9781302977468</v>
       </c>
       <c r="AB43" s="168">
-        <f>AA43/Z43</f>
+        <f t="shared" si="19"/>
         <v>0.19241433996035406</v>
       </c>
       <c r="AC43" s="169">
@@ -8084,15 +8334,15 @@
         <v>70</v>
       </c>
       <c r="AE43" s="169">
-        <f>AD43-AC43</f>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="AF43" s="193">
-        <f>AE43/Z43</f>
+        <f t="shared" si="20"/>
         <v>0.25702086743410901</v>
       </c>
       <c r="AG43" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.69756007469227765</v>
       </c>
       <c r="AH43" s="168"/>
@@ -8125,7 +8375,7 @@
         <v>95.629913082990697</v>
       </c>
       <c r="J44" s="168">
-        <f>I44/H44</f>
+        <f t="shared" si="13"/>
         <v>8.6632357518958328E-2</v>
       </c>
       <c r="K44" s="169">
@@ -8135,15 +8385,15 @@
         <v>1207</v>
       </c>
       <c r="M44" s="169">
-        <f>L44-K44</f>
+        <f t="shared" si="14"/>
         <v>206</v>
       </c>
       <c r="N44" s="193">
-        <f>M44/H44</f>
+        <f t="shared" si="15"/>
         <v>0.18661802644762265</v>
       </c>
       <c r="O44" s="168">
-        <f>H44/H$41</f>
+        <f t="shared" si="25"/>
         <v>4.7812803121223961</v>
       </c>
       <c r="P44" s="168"/>
@@ -8154,7 +8404,7 @@
         <v>7.4434205025360702</v>
       </c>
       <c r="S44" s="168">
-        <f>R44/Q44</f>
+        <f t="shared" si="16"/>
         <v>0.18945151790598697</v>
       </c>
       <c r="T44" s="169">
@@ -8164,15 +8414,15 @@
         <v>41</v>
       </c>
       <c r="V44" s="169">
-        <f>U44-T44</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="W44" s="193">
-        <f>V44/Q44</f>
+        <f t="shared" si="18"/>
         <v>0.15271327302395857</v>
       </c>
       <c r="X44" s="168">
-        <f>Q44/Q$41</f>
+        <f t="shared" si="26"/>
         <v>0.27846693584849935</v>
       </c>
       <c r="Y44" s="168"/>
@@ -8183,7 +8433,7 @@
         <v>148.887979065157</v>
       </c>
       <c r="AB44" s="168">
-        <f>AA44/Z44</f>
+        <f t="shared" si="19"/>
         <v>0.14736612744599481</v>
       </c>
       <c r="AC44" s="169">
@@ -8193,15 +8443,15 @@
         <v>1138</v>
       </c>
       <c r="AE44" s="169">
-        <f>AD44-AC44</f>
+        <f t="shared" si="24"/>
         <v>254</v>
       </c>
       <c r="AF44" s="193">
-        <f>AE44/Z44</f>
+        <f t="shared" si="20"/>
         <v>0.2514037507010688</v>
       </c>
       <c r="AG44" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>11.321187463927824</v>
       </c>
       <c r="AH44" s="168"/>
@@ -8234,7 +8484,7 @@
         <v>89.036277947852895</v>
       </c>
       <c r="J45" s="168">
-        <f>I45/H45</f>
+        <f t="shared" si="13"/>
         <v>3.8590921518757412E-2</v>
       </c>
       <c r="K45" s="169">
@@ -8244,15 +8494,15 @@
         <v>2395</v>
       </c>
       <c r="M45" s="169">
-        <f>L45-K45</f>
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="N45" s="193">
-        <f>M45/H45</f>
+        <f t="shared" si="15"/>
         <v>7.454982007574297E-2</v>
       </c>
       <c r="O45" s="168">
-        <f>H45/H$41</f>
+        <f t="shared" si="25"/>
         <v>9.9933805334337151</v>
       </c>
       <c r="P45" s="168"/>
@@ -8263,7 +8513,7 @@
         <v>3.96027603010213</v>
       </c>
       <c r="S45" s="168">
-        <f>R45/Q45</f>
+        <f t="shared" si="16"/>
         <v>0.12332707705779172</v>
       </c>
       <c r="T45" s="169">
@@ -8273,15 +8523,15 @@
         <v>34</v>
       </c>
       <c r="V45" s="169">
-        <f>U45-T45</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="W45" s="193">
-        <f>V45/Q45</f>
+        <f t="shared" si="18"/>
         <v>0.15570515302516841</v>
       </c>
       <c r="X45" s="168">
-        <f>Q45/Q$41</f>
+        <f t="shared" si="26"/>
         <v>0.22759681988764549</v>
       </c>
       <c r="Y45" s="168"/>
@@ -8292,7 +8542,7 @@
         <v>205.01621642764499</v>
       </c>
       <c r="AB45" s="168">
-        <f>AA45/Z45</f>
+        <f t="shared" si="19"/>
         <v>0.13081921808373917</v>
       </c>
       <c r="AC45" s="169">
@@ -8302,15 +8552,15 @@
         <v>1697</v>
       </c>
       <c r="AE45" s="169">
-        <f>AD45-AC45</f>
+        <f t="shared" si="24"/>
         <v>270</v>
       </c>
       <c r="AF45" s="193">
-        <f>AE45/Z45</f>
+        <f t="shared" si="20"/>
         <v>0.17228485384264833</v>
       </c>
       <c r="AG45" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>17.560896496852958</v>
       </c>
       <c r="AH45" s="168"/>
@@ -8343,7 +8593,7 @@
         <v>49.556698961276851</v>
       </c>
       <c r="J46" s="168">
-        <f>I46/H46</f>
+        <f t="shared" si="13"/>
         <v>1.8704365770755776E-2</v>
       </c>
       <c r="K46" s="169">
@@ -8353,15 +8603,15 @@
         <v>2703</v>
       </c>
       <c r="M46" s="169">
-        <f>L46-K46</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="N46" s="193">
-        <f>M46/H46</f>
+        <f t="shared" si="15"/>
         <v>3.5101329449718215E-2</v>
       </c>
       <c r="O46" s="168">
-        <f>H46/H$41</f>
+        <f t="shared" si="25"/>
         <v>11.475984705907241</v>
       </c>
       <c r="P46" s="168"/>
@@ -8372,7 +8622,7 @@
         <v>5.4833701581192003</v>
       </c>
       <c r="S46" s="168">
-        <f>R46/Q46</f>
+        <f t="shared" si="16"/>
         <v>0.22070935061256175</v>
       </c>
       <c r="T46" s="169">
@@ -8382,15 +8632,15 @@
         <v>29</v>
       </c>
       <c r="V46" s="169">
-        <f>U46-T46</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="W46" s="193">
-        <f>V46/Q46</f>
+        <f t="shared" si="18"/>
         <v>0.32200540069068068</v>
       </c>
       <c r="X46" s="168">
-        <f>Q46/Q$41</f>
+        <f t="shared" si="26"/>
         <v>0.17608647602871419</v>
       </c>
       <c r="Y46" s="168"/>
@@ -8401,7 +8651,7 @@
         <v>325.21059228538502</v>
       </c>
       <c r="AB46" s="168">
-        <f>AA46/Z46</f>
+        <f t="shared" si="19"/>
         <v>0.15106025216648766</v>
       </c>
       <c r="AC46" s="169">
@@ -8411,15 +8661,15 @@
         <v>2338</v>
       </c>
       <c r="AE46" s="169">
-        <f>AD46-AC46</f>
+        <f t="shared" si="24"/>
         <v>332</v>
       </c>
       <c r="AF46" s="193">
-        <f>AE46/Z46</f>
+        <f t="shared" si="20"/>
         <v>0.15421393063133551</v>
       </c>
       <c r="AG46" s="168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>24.123731987633423</v>
       </c>
       <c r="AH46" s="168"/>
@@ -8454,7 +8704,7 @@
         <v>103.700731226494</v>
       </c>
       <c r="J47" s="171">
-        <f>I47/H47</f>
+        <f t="shared" si="13"/>
         <v>0.17347337053564033</v>
       </c>
       <c r="K47" s="172">
@@ -8464,15 +8714,15 @@
         <v>661</v>
       </c>
       <c r="M47" s="172">
-        <f>L47-K47</f>
+        <f t="shared" si="14"/>
         <v>135</v>
       </c>
       <c r="N47" s="194">
-        <f>M47/H47</f>
+        <f t="shared" si="15"/>
         <v>0.22583162862335016</v>
       </c>
       <c r="O47" s="171">
-        <f>H47/H$47</f>
+        <f t="shared" ref="O47:O52" si="28">H47/H$47</f>
         <v>1</v>
       </c>
       <c r="P47" s="171"/>
@@ -8483,7 +8733,7 @@
         <v>93.914814994273002</v>
       </c>
       <c r="S47" s="171">
-        <f>R47/Q47</f>
+        <f t="shared" si="16"/>
         <v>0.16161687249294615</v>
       </c>
       <c r="T47" s="172">
@@ -8493,15 +8743,15 @@
         <v>601</v>
       </c>
       <c r="V47" s="172">
-        <f>U47-T47</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="W47" s="194">
-        <f>V47/Q47</f>
+        <f t="shared" si="18"/>
         <v>0.11874126784675362</v>
       </c>
       <c r="X47" s="171">
-        <f>Q47/Q$47</f>
+        <f t="shared" ref="X47:X52" si="29">Q47/Q$47</f>
         <v>1</v>
       </c>
       <c r="Y47" s="171"/>
@@ -8512,7 +8762,7 @@
         <v>26.610178901723799</v>
       </c>
       <c r="AB47" s="171">
-        <f>AA47/Z47</f>
+        <f t="shared" si="19"/>
         <v>0.17077373147733754</v>
       </c>
       <c r="AC47" s="172">
@@ -8522,15 +8772,15 @@
         <v>169</v>
       </c>
       <c r="AE47" s="172">
-        <f>AD47-AC47</f>
+        <f t="shared" si="24"/>
         <v>31</v>
       </c>
       <c r="AF47" s="194">
-        <f>AE47/Z47</f>
+        <f t="shared" si="20"/>
         <v>0.1989458881636651</v>
       </c>
       <c r="AG47" s="171">
-        <f t="shared" ref="AG47:AG52" si="4">Z47/Z$47</f>
+        <f t="shared" ref="AG47:AG52" si="30">Z47/Z$47</f>
         <v>1</v>
       </c>
       <c r="AH47" s="171"/>
@@ -8563,7 +8813,7 @@
         <v>181.01153485516301</v>
       </c>
       <c r="J48" s="162">
-        <f>I48/H48</f>
+        <f t="shared" si="13"/>
         <v>6.8485452144095307E-2</v>
       </c>
       <c r="K48" s="163">
@@ -8573,15 +8823,15 @@
         <v>2768</v>
       </c>
       <c r="M48" s="163">
-        <f>L48-K48</f>
+        <f t="shared" si="14"/>
         <v>190</v>
       </c>
       <c r="N48" s="191">
-        <f>M48/H48</f>
+        <f t="shared" si="15"/>
         <v>7.188622491815172E-2</v>
       </c>
       <c r="O48" s="162">
-        <f>H48/H$47</f>
+        <f t="shared" si="28"/>
         <v>4.4213909871225665</v>
       </c>
       <c r="P48" s="162"/>
@@ -8592,7 +8842,7 @@
         <v>41.326905992030298</v>
       </c>
       <c r="S48" s="162">
-        <f>R48/Q48</f>
+        <f t="shared" si="16"/>
         <v>6.4272281934819403E-2</v>
       </c>
       <c r="T48" s="163">
@@ -8602,15 +8852,15 @@
         <v>680</v>
       </c>
       <c r="V48" s="163">
-        <f>U48-T48</f>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="W48" s="191">
-        <f>V48/Q48</f>
+        <f t="shared" si="18"/>
         <v>0.11042036435662993</v>
       </c>
       <c r="X48" s="162">
-        <f>Q48/Q$47</f>
+        <f t="shared" si="29"/>
         <v>1.1065263589581109</v>
       </c>
       <c r="Y48" s="162"/>
@@ -8621,7 +8871,7 @@
         <v>47.941490457158899</v>
       </c>
       <c r="AB48" s="162">
-        <f>AA48/Z48</f>
+        <f t="shared" si="19"/>
         <v>0.12257946083013185</v>
       </c>
       <c r="AC48" s="163">
@@ -8631,15 +8881,15 @@
         <v>417</v>
       </c>
       <c r="AE48" s="163">
-        <f>AD48-AC48</f>
+        <f t="shared" si="24"/>
         <v>57</v>
       </c>
       <c r="AF48" s="191">
-        <f>AE48/Z48</f>
+        <f t="shared" si="20"/>
         <v>0.14574076026195326</v>
       </c>
       <c r="AG48" s="162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>2.5099617237609233</v>
       </c>
       <c r="AH48" s="162"/>
@@ -8672,7 +8922,7 @@
         <v>531.62289713609005</v>
       </c>
       <c r="J49" s="162">
-        <f>I49/H49</f>
+        <f t="shared" si="13"/>
         <v>3.6656716748262839E-2</v>
       </c>
       <c r="K49" s="163">
@@ -8682,15 +8932,15 @@
         <v>14896</v>
       </c>
       <c r="M49" s="163">
-        <f>L49-K49</f>
+        <f t="shared" si="14"/>
         <v>842</v>
       </c>
       <c r="N49" s="191">
-        <f>M49/H49</f>
+        <f t="shared" si="15"/>
         <v>5.8057987472530166E-2</v>
       </c>
       <c r="O49" s="162">
-        <f>H49/H$47</f>
+        <f t="shared" si="28"/>
         <v>24.260576247577688</v>
       </c>
       <c r="P49" s="162"/>
@@ -8701,7 +8951,7 @@
         <v>39.362635545804203</v>
       </c>
       <c r="S49" s="162">
-        <f>R49/Q49</f>
+        <f t="shared" si="16"/>
         <v>3.8622711033149904E-2</v>
       </c>
       <c r="T49" s="163">
@@ -8711,15 +8961,15 @@
         <v>1045</v>
       </c>
       <c r="V49" s="163">
-        <f>U49-T49</f>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="W49" s="191">
-        <f>V49/Q49</f>
+        <f t="shared" si="18"/>
         <v>5.4947332358870525E-2</v>
       </c>
       <c r="X49" s="162">
-        <f>Q49/Q$47</f>
+        <f t="shared" si="29"/>
         <v>1.7538562927830961</v>
       </c>
       <c r="Y49" s="162"/>
@@ -8730,7 +8980,7 @@
         <v>266.49965139999699</v>
       </c>
       <c r="AB49" s="162">
-        <f>AA49/Z49</f>
+        <f t="shared" si="19"/>
         <v>0.11232669659795191</v>
       </c>
       <c r="AC49" s="163">
@@ -8740,15 +8990,15 @@
         <v>2552</v>
       </c>
       <c r="AE49" s="163">
-        <f>AD49-AC49</f>
+        <f t="shared" si="24"/>
         <v>362</v>
       </c>
       <c r="AF49" s="191">
-        <f>AE49/Z49</f>
+        <f t="shared" si="20"/>
         <v>0.15257905199818603</v>
       </c>
       <c r="AG49" s="162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>15.226038794864053</v>
       </c>
       <c r="AH49" s="162"/>
@@ -8781,7 +9031,7 @@
         <v>1099.37927563431</v>
       </c>
       <c r="J50" s="174">
-        <f>I50/H50</f>
+        <f t="shared" si="13"/>
         <v>5.3187358842898047E-2</v>
       </c>
       <c r="K50" s="175">
@@ -8791,15 +9041,15 @@
         <v>21474</v>
       </c>
       <c r="M50" s="175">
-        <f>L50-K50</f>
+        <f t="shared" si="14"/>
         <v>1775</v>
       </c>
       <c r="N50" s="195">
-        <f>M50/H50</f>
+        <f t="shared" si="15"/>
         <v>8.5873514298942549E-2</v>
       </c>
       <c r="O50" s="162">
-        <f>H50/H$47</f>
+        <f t="shared" si="28"/>
         <v>34.577223651762736</v>
       </c>
       <c r="P50" s="174"/>
@@ -8810,7 +9060,7 @@
         <v>72.525300650984605</v>
       </c>
       <c r="S50" s="174">
-        <f>R50/Q50</f>
+        <f t="shared" si="16"/>
         <v>2.5564406773975729E-2</v>
       </c>
       <c r="T50" s="175">
@@ -8820,15 +9070,15 @@
         <v>2903</v>
       </c>
       <c r="V50" s="175">
-        <f>U50-T50</f>
+        <f t="shared" si="17"/>
         <v>142</v>
       </c>
       <c r="W50" s="195">
-        <f>V50/Q50</f>
+        <f t="shared" si="18"/>
         <v>5.0053508628306119E-2</v>
       </c>
       <c r="X50" s="162">
-        <f>Q50/Q$47</f>
+        <f t="shared" si="29"/>
         <v>4.8820970627131244</v>
       </c>
       <c r="Y50" s="174"/>
@@ -8839,7 +9089,7 @@
         <v>255.174310710063</v>
       </c>
       <c r="AB50" s="174">
-        <f>AA50/Z50</f>
+        <f t="shared" si="19"/>
         <v>7.6953037421315082E-2</v>
       </c>
       <c r="AC50" s="175">
@@ -8849,15 +9099,15 @@
         <v>3485</v>
       </c>
       <c r="AE50" s="175">
-        <f>AD50-AC50</f>
+        <f t="shared" si="24"/>
         <v>357</v>
       </c>
       <c r="AF50" s="195">
-        <f>AE50/Z50</f>
+        <f t="shared" si="20"/>
         <v>0.1076606586413955</v>
       </c>
       <c r="AG50" s="162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>21.280628852190837</v>
       </c>
       <c r="AH50" s="174"/>
@@ -8890,7 +9140,7 @@
         <v>11.342101640035199</v>
       </c>
       <c r="J51" s="162">
-        <f>I51/H51</f>
+        <f t="shared" si="13"/>
         <v>3.3577330768986502E-2</v>
       </c>
       <c r="K51" s="163">
@@ -8900,15 +9150,15 @@
         <v>349</v>
       </c>
       <c r="M51" s="163">
-        <f>L51-K51</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="N51" s="191">
-        <f>M51/H51</f>
+        <f t="shared" si="15"/>
         <v>6.216872044769723E-2</v>
       </c>
       <c r="O51" s="162">
-        <f>H51/H$47</f>
+        <f t="shared" si="28"/>
         <v>0.56506494261974716</v>
       </c>
       <c r="P51" s="162"/>
@@ -8919,7 +9169,7 @@
         <v>2.27155927917986</v>
       </c>
       <c r="S51" s="162">
-        <f>R51/Q51</f>
+        <f t="shared" si="16"/>
         <v>0.13887951127733617</v>
       </c>
       <c r="T51" s="163">
@@ -8929,15 +9179,15 @@
         <v>18</v>
       </c>
       <c r="V51" s="163">
-        <f>U51-T51</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="W51" s="191">
-        <f>V51/Q51</f>
+        <f t="shared" si="18"/>
         <v>0.18341521511269326</v>
       </c>
       <c r="X51" s="162">
-        <f>Q51/Q$47</f>
+        <f t="shared" si="29"/>
         <v>2.8147413049959061E-2</v>
       </c>
       <c r="Y51" s="162"/>
@@ -8948,7 +9198,7 @@
         <v>11.045487007582301</v>
       </c>
       <c r="AB51" s="162">
-        <f>AA51/Z51</f>
+        <f t="shared" si="19"/>
         <v>0.25574055150851338</v>
       </c>
       <c r="AC51" s="163">
@@ -8958,15 +9208,15 @@
         <v>51</v>
       </c>
       <c r="AE51" s="163">
-        <f>AD51-AC51</f>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="AF51" s="191">
-        <f>AE51/Z51</f>
+        <f t="shared" si="20"/>
         <v>0.3704543603489206</v>
       </c>
       <c r="AG51" s="162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>0.27717786513005416</v>
       </c>
       <c r="AH51" s="162"/>
@@ -8999,7 +9249,7 @@
         <v>10.831563840078701</v>
       </c>
       <c r="J52" s="165">
-        <f>I52/H52</f>
+        <f t="shared" si="13"/>
         <v>1.9824580375263252E-2</v>
       </c>
       <c r="K52" s="166">
@@ -9009,15 +9259,15 @@
         <v>556</v>
       </c>
       <c r="M52" s="166">
-        <f>L52-K52</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="N52" s="192">
-        <f>M52/H52</f>
+        <f t="shared" si="15"/>
         <v>3.1114423674672865E-2</v>
       </c>
       <c r="O52" s="165">
-        <f>H52/H$47</f>
+        <f t="shared" si="28"/>
         <v>0.9139830849865227</v>
       </c>
       <c r="P52" s="165"/>
@@ -9028,7 +9278,7 @@
         <v>2.5140068239598299</v>
       </c>
       <c r="S52" s="165">
-        <f>R52/Q52</f>
+        <f t="shared" si="16"/>
         <v>0.20346532689681204</v>
       </c>
       <c r="T52" s="166">
@@ -9038,15 +9288,15 @@
         <v>13</v>
       </c>
       <c r="V52" s="166">
-        <f>U52-T52</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="W52" s="192">
-        <f>V52/Q52</f>
+        <f t="shared" si="18"/>
         <v>0.16186537360016579</v>
       </c>
       <c r="X52" s="165">
-        <f>Q52/Q$47</f>
+        <f t="shared" si="29"/>
         <v>2.1263200418131439E-2</v>
       </c>
       <c r="Y52" s="165"/>
@@ -9057,7 +9307,7 @@
         <v>14.778670424542</v>
       </c>
       <c r="AB52" s="165">
-        <f>AA52/Z52</f>
+        <f t="shared" si="19"/>
         <v>0.18661224501423135</v>
       </c>
       <c r="AC52" s="166">
@@ -9067,15 +9317,15 @@
         <v>90</v>
       </c>
       <c r="AE52" s="166">
-        <f>AD52-AC52</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="AF52" s="192">
-        <f>AE52/Z52</f>
+        <f t="shared" si="20"/>
         <v>0.26516980436826448</v>
       </c>
       <c r="AG52" s="165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>0.50823959963585252</v>
       </c>
       <c r="AH52" s="165"/>
@@ -9108,7 +9358,7 @@
         <v>24.158924656786901</v>
       </c>
       <c r="J53" s="168">
-        <f>I53/H53</f>
+        <f t="shared" si="13"/>
         <v>0.13816010899800554</v>
       </c>
       <c r="K53" s="169">
@@ -9118,11 +9368,11 @@
         <v>191</v>
       </c>
       <c r="M53" s="169">
-        <f>L53-K53</f>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="N53" s="193">
-        <f>M53/H53</f>
+        <f t="shared" si="15"/>
         <v>0.17728286501919988</v>
       </c>
       <c r="O53" s="168">
@@ -9137,7 +9387,7 @@
         <v>17.513531445348502</v>
       </c>
       <c r="S53" s="168">
-        <f>R53/Q53</f>
+        <f t="shared" si="16"/>
         <v>0.1725216888472525</v>
       </c>
       <c r="T53" s="169">
@@ -9147,11 +9397,11 @@
         <v>111</v>
       </c>
       <c r="V53" s="169">
-        <f>U53-T53</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="W53" s="193">
-        <f>V53/Q53</f>
+        <f t="shared" si="18"/>
         <v>0.19701530714763221</v>
       </c>
       <c r="X53" s="168">
@@ -9166,7 +9416,7 @@
         <v>13.462486229484799</v>
       </c>
       <c r="AB53" s="168">
-        <f>AA53/Z53</f>
+        <f t="shared" si="19"/>
         <v>0.19643372708080187</v>
       </c>
       <c r="AC53" s="169">
@@ -9176,11 +9426,11 @@
         <v>77</v>
       </c>
       <c r="AE53" s="169">
-        <f>AD53-AC53</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="AF53" s="193">
-        <f>AE53/Z53</f>
+        <f t="shared" si="20"/>
         <v>0.26264146363325541</v>
       </c>
       <c r="AG53" s="168">
@@ -9217,7 +9467,7 @@
         <v>42.874753567747902</v>
       </c>
       <c r="J54" s="168">
-        <f>I54/H54</f>
+        <f t="shared" si="13"/>
         <v>0.15800892441874015</v>
       </c>
       <c r="K54" s="169">
@@ -9227,11 +9477,11 @@
         <v>302</v>
       </c>
       <c r="M54" s="169">
-        <f>L54-K54</f>
+        <f t="shared" si="14"/>
         <v>58</v>
       </c>
       <c r="N54" s="193">
-        <f>M54/H54</f>
+        <f t="shared" si="15"/>
         <v>0.2137509105867105</v>
       </c>
       <c r="O54" s="168">
@@ -9246,7 +9496,7 @@
         <v>7.2151825828812699</v>
       </c>
       <c r="S54" s="168">
-        <f>R54/Q54</f>
+        <f t="shared" si="16"/>
         <v>0.13054519018132216</v>
       </c>
       <c r="T54" s="169">
@@ -9256,11 +9506,11 @@
         <v>61</v>
       </c>
       <c r="V54" s="169">
-        <f>U54-T54</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="W54" s="193">
-        <f>V54/Q54</f>
+        <f t="shared" si="18"/>
         <v>0.16283811229108477</v>
       </c>
       <c r="X54" s="168">
@@ -9275,7 +9525,7 @@
         <v>12.969539472534899</v>
       </c>
       <c r="AB54" s="168">
-        <f>AA54/Z54</f>
+        <f t="shared" si="19"/>
         <v>0.19538518919194087</v>
       </c>
       <c r="AC54" s="169">
@@ -9285,11 +9535,11 @@
         <v>75</v>
       </c>
       <c r="AE54" s="169">
-        <f>AD54-AC54</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="AF54" s="193">
-        <f>AE54/Z54</f>
+        <f t="shared" si="20"/>
         <v>0.27116871905148304</v>
       </c>
       <c r="AG54" s="168">
@@ -9326,7 +9576,7 @@
         <v>20.149777406035899</v>
       </c>
       <c r="J55" s="168">
-        <f>I55/H55</f>
+        <f t="shared" si="13"/>
         <v>0.13499540597208171</v>
       </c>
       <c r="K55" s="169">
@@ -9336,11 +9586,11 @@
         <v>166</v>
       </c>
       <c r="M55" s="169">
-        <f>L55-K55</f>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="N55" s="193">
-        <f>M55/H55</f>
+        <f t="shared" si="15"/>
         <v>0.21438713212844701</v>
       </c>
       <c r="O55" s="168">
@@ -9355,7 +9605,7 @@
         <v>3.5379423950898898</v>
       </c>
       <c r="S55" s="168">
-        <f>R55/Q55</f>
+        <f t="shared" si="16"/>
         <v>0.17959899855784628</v>
       </c>
       <c r="T55" s="169">
@@ -9365,11 +9615,11 @@
         <v>22</v>
       </c>
       <c r="V55" s="169">
-        <f>U55-T55</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="W55" s="193">
-        <f>V55/Q55</f>
+        <f t="shared" si="18"/>
         <v>0.25381843244127095</v>
       </c>
       <c r="X55" s="168">
@@ -9384,7 +9634,7 @@
         <v>7.2566664526026399</v>
       </c>
       <c r="AB55" s="168">
-        <f>AA55/Z55</f>
+        <f t="shared" si="19"/>
         <v>0.24672030490472627</v>
       </c>
       <c r="AC55" s="169">
@@ -9394,11 +9644,11 @@
         <v>34</v>
       </c>
       <c r="AE55" s="169">
-        <f>AD55-AC55</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="AF55" s="193">
-        <f>AE55/Z55</f>
+        <f t="shared" si="20"/>
         <v>0.33999124324673735</v>
       </c>
       <c r="AG55" s="168">
@@ -9435,7 +9685,7 @@
         <v>40.023682924047101</v>
       </c>
       <c r="J56" s="168">
-        <f>I56/H56</f>
+        <f t="shared" si="13"/>
         <v>3.4977608502470905E-2</v>
       </c>
       <c r="K56" s="169">
@@ -9445,11 +9695,11 @@
         <v>1176</v>
       </c>
       <c r="M56" s="169">
-        <f>L56-K56</f>
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
       <c r="N56" s="193">
-        <f>M56/H56</f>
+        <f t="shared" si="15"/>
         <v>5.6804981115184026E-2</v>
       </c>
       <c r="O56" s="168">
@@ -9464,7 +9714,7 @@
         <v>5.8461329825918096</v>
       </c>
       <c r="S56" s="168">
-        <f>R56/Q56</f>
+        <f t="shared" si="16"/>
         <v>5.7605062201472358E-2</v>
       </c>
       <c r="T56" s="169">
@@ -9474,11 +9724,11 @@
         <v>105</v>
       </c>
       <c r="V56" s="169">
-        <f>U56-T56</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="W56" s="193">
-        <f>V56/Q56</f>
+        <f t="shared" si="18"/>
         <v>7.8828261174358552E-2</v>
       </c>
       <c r="X56" s="168">
@@ -9493,7 +9743,7 @@
         <v>134.04035674782401</v>
       </c>
       <c r="AB56" s="168">
-        <f>AA56/Z56</f>
+        <f t="shared" si="19"/>
         <v>0.1253828543414299</v>
       </c>
       <c r="AC56" s="169">
@@ -9503,11 +9753,11 @@
         <v>1158</v>
       </c>
       <c r="AE56" s="169">
-        <f>AD56-AC56</f>
+        <f t="shared" si="24"/>
         <v>178</v>
       </c>
       <c r="AF56" s="193">
-        <f>AE56/Z56</f>
+        <f t="shared" si="20"/>
         <v>0.16650319809848485</v>
       </c>
       <c r="AG56" s="168">
@@ -9544,7 +9794,7 @@
         <v>29.148611757600602</v>
       </c>
       <c r="J57" s="171">
-        <f>I57/H57</f>
+        <f t="shared" si="13"/>
         <v>0.13298345311602791</v>
       </c>
       <c r="K57" s="172">
@@ -9554,15 +9804,15 @@
         <v>241</v>
       </c>
       <c r="M57" s="172">
-        <f>L57-K57</f>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="N57" s="194">
-        <f>M57/H57</f>
+        <f t="shared" si="15"/>
         <v>0.19617704374885492</v>
       </c>
       <c r="O57" s="171">
-        <f>H57/H$57</f>
+        <f t="shared" ref="O57:O62" si="31">H57/H$57</f>
         <v>1</v>
       </c>
       <c r="P57" s="171"/>
@@ -9573,7 +9823,7 @@
         <v>36.653837006892502</v>
       </c>
       <c r="S57" s="171">
-        <f>R57/Q57</f>
+        <f t="shared" si="16"/>
         <v>0.12351714964359045</v>
       </c>
       <c r="T57" s="172">
@@ -9583,15 +9833,15 @@
         <v>323</v>
       </c>
       <c r="V57" s="172">
-        <f>U57-T57</f>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="W57" s="194">
-        <f>V57/Q57</f>
+        <f t="shared" si="18"/>
         <v>0.16849143190706595</v>
       </c>
       <c r="X57" s="171">
-        <f>Q57/Q$57</f>
+        <f t="shared" ref="X57:X62" si="32">Q57/Q$57</f>
         <v>1</v>
       </c>
       <c r="Y57" s="171"/>
@@ -9602,7 +9852,7 @@
         <v>15.844289953234099</v>
       </c>
       <c r="AB57" s="171">
-        <f>AA57/Z57</f>
+        <f t="shared" si="19"/>
         <v>0.19795847043071427</v>
       </c>
       <c r="AC57" s="172">
@@ -9612,15 +9862,15 @@
         <v>90</v>
       </c>
       <c r="AE57" s="172">
-        <f>AD57-AC57</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="AF57" s="194">
-        <f>AE57/Z57</f>
+        <f t="shared" si="20"/>
         <v>0.26237388304020881</v>
       </c>
       <c r="AG57" s="171">
-        <f t="shared" ref="AG57:AG62" si="5">Z57/Z$57</f>
+        <f t="shared" ref="AG57:AG62" si="33">Z57/Z$57</f>
         <v>1</v>
       </c>
       <c r="AH57" s="171"/>
@@ -9653,7 +9903,7 @@
         <v>10.963971791954201</v>
       </c>
       <c r="J58" s="162">
-        <f>I58/H58</f>
+        <f t="shared" si="13"/>
         <v>8.0034419385198868E-2</v>
       </c>
       <c r="K58" s="163">
@@ -9663,15 +9913,15 @@
         <v>146</v>
       </c>
       <c r="M58" s="163">
-        <f>L58-K58</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="N58" s="191">
-        <f>M58/H58</f>
+        <f t="shared" si="15"/>
         <v>0.12409600784880094</v>
       </c>
       <c r="O58" s="162">
-        <f>H58/H$57</f>
+        <f t="shared" si="31"/>
         <v>0.62498679431948878</v>
       </c>
       <c r="P58" s="162"/>
@@ -9682,7 +9932,7 @@
         <v>11.803853342137099</v>
       </c>
       <c r="S58" s="162">
-        <f>R58/Q58</f>
+        <f t="shared" si="16"/>
         <v>0.10665664125880149</v>
       </c>
       <c r="T58" s="163">
@@ -9692,15 +9942,15 @@
         <v>118</v>
       </c>
       <c r="V58" s="163">
-        <f>U58-T58</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="W58" s="191">
-        <f>V58/Q58</f>
+        <f t="shared" si="18"/>
         <v>0.13553621622618092</v>
       </c>
       <c r="X58" s="162">
-        <f>Q58/Q$57</f>
+        <f t="shared" si="32"/>
         <v>0.37294408077444741</v>
       </c>
       <c r="Y58" s="162"/>
@@ -9711,7 +9961,7 @@
         <v>8.9921830115939105</v>
       </c>
       <c r="AB58" s="162">
-        <f>AA58/Z58</f>
+        <f t="shared" si="19"/>
         <v>0.21738764182558534</v>
       </c>
       <c r="AC58" s="163">
@@ -9721,15 +9971,15 @@
         <v>47</v>
       </c>
       <c r="AE58" s="163">
-        <f>AD58-AC58</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AF58" s="191">
-        <f>AE58/Z58</f>
+        <f t="shared" si="20"/>
         <v>0.29010215856857069</v>
       </c>
       <c r="AG58" s="162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>0.51681081556101405</v>
       </c>
       <c r="AH58" s="162"/>
@@ -9762,7 +10012,7 @@
         <v>12.8910455869561</v>
       </c>
       <c r="J59" s="162">
-        <f>I59/H59</f>
+        <f t="shared" si="13"/>
         <v>8.5867455852579364E-2</v>
       </c>
       <c r="K59" s="163">
@@ -9772,15 +10022,15 @@
         <v>161</v>
       </c>
       <c r="M59" s="163">
-        <f>L59-K59</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="N59" s="191">
-        <f>M59/H59</f>
+        <f t="shared" si="15"/>
         <v>0.13988132775891854</v>
       </c>
       <c r="O59" s="162">
-        <f>H59/H$57</f>
+        <f t="shared" si="31"/>
         <v>0.68491910245422027</v>
       </c>
       <c r="P59" s="162"/>
@@ -9791,7 +10041,7 @@
         <v>9.8343374841591196</v>
       </c>
       <c r="S59" s="162">
-        <f>R59/Q59</f>
+        <f t="shared" si="16"/>
         <v>6.1135571630550903E-2</v>
       </c>
       <c r="T59" s="163">
@@ -9801,15 +10051,15 @@
         <v>167</v>
       </c>
       <c r="V59" s="163">
-        <f>U59-T59</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="W59" s="191">
-        <f>V59/Q59</f>
+        <f t="shared" si="18"/>
         <v>8.0815045495168658E-2</v>
       </c>
       <c r="X59" s="162">
-        <f>Q59/Q$57</f>
+        <f t="shared" si="32"/>
         <v>0.542074461845797</v>
       </c>
       <c r="Y59" s="162"/>
@@ -9820,7 +10070,7 @@
         <v>10.926002538329699</v>
       </c>
       <c r="AB59" s="162">
-        <f>AA59/Z59</f>
+        <f t="shared" si="19"/>
         <v>0.20820139274213592</v>
       </c>
       <c r="AC59" s="163">
@@ -9830,15 +10080,15 @@
         <v>59</v>
       </c>
       <c r="AE59" s="163">
-        <f>AD59-AC59</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="AF59" s="191">
-        <f>AE59/Z59</f>
+        <f t="shared" si="20"/>
         <v>0.26677821903888216</v>
       </c>
       <c r="AG59" s="162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>0.65566043081392789</v>
       </c>
       <c r="AH59" s="162"/>
@@ -9871,7 +10121,7 @@
         <v>184.17148176612099</v>
       </c>
       <c r="J60" s="162">
-        <f>I60/H60</f>
+        <f t="shared" si="13"/>
         <v>0.19312675990881681</v>
       </c>
       <c r="K60" s="163">
@@ -9881,15 +10131,15 @@
         <v>1120</v>
       </c>
       <c r="M60" s="163">
-        <f>L60-K60</f>
+        <f t="shared" si="14"/>
         <v>317</v>
       </c>
       <c r="N60" s="191">
-        <f>M60/H60</f>
+        <f t="shared" si="15"/>
         <v>0.33241402145441601</v>
       </c>
       <c r="O60" s="162">
-        <f>H60/H$57</f>
+        <f t="shared" si="31"/>
         <v>4.3507052115796698</v>
       </c>
       <c r="P60" s="162"/>
@@ -9900,7 +10150,7 @@
         <v>11.3534119274634</v>
       </c>
       <c r="S60" s="162">
-        <f>R60/Q60</f>
+        <f t="shared" si="16"/>
         <v>4.7361464689736392E-2</v>
       </c>
       <c r="T60" s="163">
@@ -9910,15 +10160,15 @@
         <v>247</v>
       </c>
       <c r="V60" s="163">
-        <f>U60-T60</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="W60" s="191">
-        <f>V60/Q60</f>
+        <f t="shared" si="18"/>
         <v>5.8401871604111845E-2</v>
       </c>
       <c r="X60" s="162">
-        <f>Q60/Q$57</f>
+        <f t="shared" si="32"/>
         <v>0.8078097437318581</v>
       </c>
       <c r="Y60" s="162"/>
@@ -9929,7 +10179,7 @@
         <v>64.928935525928196</v>
       </c>
       <c r="AB60" s="162">
-        <f>AA60/Z60</f>
+        <f t="shared" si="19"/>
         <v>0.16268792591592512</v>
       </c>
       <c r="AC60" s="163">
@@ -9939,15 +10189,15 @@
         <v>427</v>
       </c>
       <c r="AE60" s="163">
-        <f>AD60-AC60</f>
+        <f t="shared" si="24"/>
         <v>70</v>
       </c>
       <c r="AF60" s="191">
-        <f>AE60/Z60</f>
+        <f t="shared" si="20"/>
         <v>0.17539414009901802</v>
       </c>
       <c r="AG60" s="162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>4.9863673304039073</v>
       </c>
       <c r="AH60" s="162"/>
@@ -9980,7 +10230,7 @@
         <v>14.886553440034399</v>
       </c>
       <c r="J61" s="162">
-        <f>I61/H61</f>
+        <f t="shared" si="13"/>
         <v>5.0599884657674971E-3</v>
       </c>
       <c r="K61" s="163">
@@ -9990,15 +10240,15 @@
         <v>2953</v>
       </c>
       <c r="M61" s="163">
-        <f>L61-K61</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="N61" s="191">
-        <f>M61/H61</f>
+        <f t="shared" si="15"/>
         <v>7.8177756309712691E-3</v>
       </c>
       <c r="O61" s="162">
-        <f>H61/H$57</f>
+        <f t="shared" si="31"/>
         <v>13.42222034433648</v>
       </c>
       <c r="P61" s="162"/>
@@ -10009,7 +10259,7 @@
         <v>12.8234896916629</v>
       </c>
       <c r="S61" s="162">
-        <f>R61/Q61</f>
+        <f t="shared" si="16"/>
         <v>4.0969728799010924E-2</v>
       </c>
       <c r="T61" s="163">
@@ -10019,15 +10269,15 @@
         <v>323</v>
       </c>
       <c r="V61" s="163">
-        <f>U61-T61</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="W61" s="191">
-        <f>V61/Q61</f>
+        <f t="shared" si="18"/>
         <v>6.3897940083575064E-2</v>
       </c>
       <c r="X61" s="162">
-        <f>Q61/Q$57</f>
+        <f t="shared" si="32"/>
         <v>1.0547534501843923</v>
       </c>
       <c r="Y61" s="162"/>
@@ -10038,7 +10288,7 @@
         <v>98.139955883495404</v>
       </c>
       <c r="AB61" s="162">
-        <f>AA61/Z61</f>
+        <f t="shared" si="19"/>
         <v>0.13101702880005139</v>
       </c>
       <c r="AC61" s="163">
@@ -10048,15 +10298,15 @@
         <v>800</v>
       </c>
       <c r="AE61" s="163">
-        <f>AD61-AC61</f>
+        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="AF61" s="191">
-        <f>AE61/Z61</f>
+        <f t="shared" si="20"/>
         <v>0.15753022567851019</v>
       </c>
       <c r="AG61" s="162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>9.3587839187516781</v>
       </c>
       <c r="AH61" s="162"/>
@@ -10089,7 +10339,7 @@
         <v>91.562644070418898</v>
       </c>
       <c r="J62" s="165">
-        <f>I62/H62</f>
+        <f t="shared" si="13"/>
         <v>4.7510542167556555E-2</v>
       </c>
       <c r="K62" s="166">
@@ -10099,15 +10349,15 @@
         <v>2020</v>
       </c>
       <c r="M62" s="166">
-        <f>L62-K62</f>
+        <f t="shared" si="14"/>
         <v>174</v>
       </c>
       <c r="N62" s="192">
-        <f>M62/H62</f>
+        <f t="shared" si="15"/>
         <v>9.0286103258409536E-2</v>
       </c>
       <c r="O62" s="165">
-        <f>H62/H$57</f>
+        <f t="shared" si="31"/>
         <v>8.7924127856765928</v>
       </c>
       <c r="P62" s="165"/>
@@ -10118,7 +10368,7 @@
         <v>16.293230272539098</v>
       </c>
       <c r="S62" s="165">
-        <f>R62/Q62</f>
+        <f t="shared" si="16"/>
         <v>4.9374446939808504E-2</v>
       </c>
       <c r="T62" s="166">
@@ -10128,15 +10378,15 @@
         <v>342</v>
       </c>
       <c r="V62" s="166">
-        <f>U62-T62</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="W62" s="192">
-        <f>V62/Q62</f>
+        <f t="shared" si="18"/>
         <v>7.2728777948507975E-2</v>
       </c>
       <c r="X62" s="165">
-        <f>Q62/Q$57</f>
+        <f t="shared" si="32"/>
         <v>1.1120204353310026</v>
       </c>
       <c r="Y62" s="165"/>
@@ -10147,7 +10397,7 @@
         <v>142.94923019179399</v>
       </c>
       <c r="AB62" s="165">
-        <f>AA62/Z62</f>
+        <f t="shared" si="19"/>
         <v>0.12616371200852497</v>
       </c>
       <c r="AC62" s="166">
@@ -10157,15 +10407,15 @@
         <v>1216</v>
       </c>
       <c r="AE62" s="166">
-        <f>AD62-AC62</f>
+        <f t="shared" si="24"/>
         <v>164</v>
       </c>
       <c r="AF62" s="192">
-        <f>AE62/Z62</f>
+        <f t="shared" si="20"/>
         <v>0.14474263863916811</v>
       </c>
       <c r="AG62" s="165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>14.156264566295201</v>
       </c>
       <c r="AH62" s="165"/>
@@ -10198,7 +10448,7 @@
         <v>16.2796142005745</v>
       </c>
       <c r="J63" s="168">
-        <f>I63/H63</f>
+        <f t="shared" si="13"/>
         <v>0.17100610477263994</v>
       </c>
       <c r="K63" s="169">
@@ -10208,11 +10458,11 @@
         <v>104</v>
       </c>
       <c r="M63" s="169">
-        <f>L63-K63</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="N63" s="193">
-        <f>M63/H63</f>
+        <f t="shared" si="15"/>
         <v>0.16806895069206759</v>
       </c>
       <c r="O63" s="168">
@@ -10227,7 +10477,7 @@
         <v>19.152667036130499</v>
       </c>
       <c r="S63" s="168">
-        <f>R63/Q63</f>
+        <f t="shared" si="16"/>
         <v>0.11972773895265501</v>
       </c>
       <c r="T63" s="169">
@@ -10237,11 +10487,11 @@
         <v>172</v>
       </c>
       <c r="V63" s="169">
-        <f>U63-T63</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="W63" s="193">
-        <f>V63/Q63</f>
+        <f t="shared" si="18"/>
         <v>0.15628076591995638</v>
       </c>
       <c r="X63" s="168">
@@ -10256,7 +10506,7 @@
         <v>9.6330755926037597</v>
       </c>
       <c r="AB63" s="168">
-        <f>AA63/Z63</f>
+        <f t="shared" si="19"/>
         <v>0.24364703763829243</v>
       </c>
       <c r="AC63" s="169">
@@ -10266,11 +10516,11 @@
         <v>45</v>
       </c>
       <c r="AE63" s="169">
-        <f>AD63-AC63</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AF63" s="193">
-        <f>AE63/Z63</f>
+        <f t="shared" si="20"/>
         <v>0.30351308090059675</v>
       </c>
       <c r="AG63" s="168">
@@ -10307,7 +10557,7 @@
         <v>36.039487334479098</v>
       </c>
       <c r="J64" s="168">
-        <f>I64/H64</f>
+        <f t="shared" si="13"/>
         <v>0.1134749089204856</v>
       </c>
       <c r="K64" s="169">
@@ -10317,11 +10567,11 @@
         <v>346</v>
       </c>
       <c r="M64" s="169">
-        <f>L64-K64</f>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="N64" s="193">
-        <f>M64/H64</f>
+        <f t="shared" si="15"/>
         <v>0.15428273120256805</v>
       </c>
       <c r="O64" s="168">
@@ -10336,7 +10586,7 @@
         <v>44.621446276913602</v>
       </c>
       <c r="S64" s="168">
-        <f>R64/Q64</f>
+        <f t="shared" si="16"/>
         <v>5.2208764539303253E-2</v>
       </c>
       <c r="T64" s="169">
@@ -10346,11 +10596,11 @@
         <v>884</v>
       </c>
       <c r="V64" s="169">
-        <f>U64-T64</f>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="W64" s="193">
-        <f>V64/Q64</f>
+        <f t="shared" si="18"/>
         <v>7.4882398696345553E-2</v>
       </c>
       <c r="X64" s="168">
@@ -10365,7 +10615,7 @@
         <v>20.344485569255198</v>
       </c>
       <c r="AB64" s="168">
-        <f>AA64/Z64</f>
+        <f t="shared" si="19"/>
         <v>0.15487942156486198</v>
       </c>
       <c r="AC64" s="169">
@@ -10375,11 +10625,11 @@
         <v>143</v>
       </c>
       <c r="AE64" s="169">
-        <f>AD64-AC64</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="AF64" s="193">
-        <f>AE64/Z64</f>
+        <f t="shared" si="20"/>
         <v>0.19793397807865207</v>
       </c>
       <c r="AG64" s="168">
@@ -10416,7 +10666,7 @@
         <v>11.133255761135301</v>
       </c>
       <c r="J65" s="168">
-        <f>I65/H65</f>
+        <f t="shared" si="13"/>
         <v>8.8059242368808563E-2</v>
       </c>
       <c r="K65" s="169">
@@ -10426,11 +10676,11 @@
         <v>134</v>
       </c>
       <c r="M65" s="169">
-        <f>L65-K65</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="N65" s="193">
-        <f>M65/H65</f>
+        <f t="shared" si="15"/>
         <v>0.11864351847041663</v>
       </c>
       <c r="O65" s="168">
@@ -10445,7 +10695,7 @@
         <v>15.3405114939952</v>
       </c>
       <c r="S65" s="168">
-        <f>R65/Q65</f>
+        <f t="shared" si="16"/>
         <v>6.1048444463421447E-2</v>
       </c>
       <c r="T65" s="169">
@@ -10455,11 +10705,11 @@
         <v>261</v>
       </c>
       <c r="V65" s="169">
-        <f>U65-T65</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="W65" s="193">
-        <f>V65/Q65</f>
+        <f t="shared" si="18"/>
         <v>7.5611588652636522E-2</v>
       </c>
       <c r="X65" s="168">
@@ -10474,7 +10724,7 @@
         <v>86.891304523197107</v>
       </c>
       <c r="AB65" s="168">
-        <f>AA65/Z65</f>
+        <f t="shared" si="19"/>
         <v>1.4288696680999635</v>
       </c>
       <c r="AC65" s="169">
@@ -10484,11 +10734,11 @@
         <v>52</v>
       </c>
       <c r="AE65" s="169">
-        <f>AD65-AC65</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="AF65" s="193">
-        <f>AE65/Z65</f>
+        <f t="shared" si="20"/>
         <v>0.21377634721021518</v>
       </c>
       <c r="AG65" s="168">
@@ -10525,7 +10775,7 @@
         <v>1496.674507449761</v>
       </c>
       <c r="J66" s="168">
-        <f>I66/H66</f>
+        <f t="shared" si="13"/>
         <v>0.14501007627915338</v>
       </c>
       <c r="K66" s="169">
@@ -10535,11 +10785,11 @@
         <v>11552</v>
       </c>
       <c r="M66" s="169">
-        <f>L66-K66</f>
+        <f t="shared" si="14"/>
         <v>2269</v>
       </c>
       <c r="N66" s="193">
-        <f>M66/H66</f>
+        <f t="shared" si="15"/>
         <v>0.21983929133532296</v>
       </c>
       <c r="O66" s="168">
@@ -10554,7 +10804,7 @@
         <v>361.14619826333296</v>
       </c>
       <c r="S66" s="168">
-        <f>R66/Q66</f>
+        <f t="shared" si="16"/>
         <v>9.6077824600817846E-2</v>
       </c>
       <c r="T66" s="169">
@@ -10564,11 +10814,11 @@
         <v>3959</v>
       </c>
       <c r="V66" s="169">
-        <f>U66-T66</f>
+        <f t="shared" si="17"/>
         <v>438</v>
       </c>
       <c r="W66" s="193">
-        <f>V66/Q66</f>
+        <f t="shared" si="18"/>
         <v>0.11652368868209347</v>
       </c>
       <c r="X66" s="168">
@@ -10583,7 +10833,7 @@
         <v>369.92770407390299</v>
       </c>
       <c r="AB66" s="168">
-        <f>AA66/Z66</f>
+        <f t="shared" si="19"/>
         <v>0.1471669686710908</v>
       </c>
       <c r="AC66" s="169">
@@ -10593,11 +10843,11 @@
         <v>2711</v>
       </c>
       <c r="AE66" s="169">
-        <f>AD66-AC66</f>
+        <f t="shared" ref="AE66:AE97" si="34">AD66-AC66</f>
         <v>415</v>
       </c>
       <c r="AF66" s="193">
-        <f>AE66/Z66</f>
+        <f t="shared" si="20"/>
         <v>0.16509791325686018</v>
       </c>
       <c r="AG66" s="168">
@@ -10636,7 +10886,7 @@
         <v>71.932394986170294</v>
       </c>
       <c r="J67" s="177">
-        <f>I67/H67</f>
+        <f t="shared" si="13"/>
         <v>6.3255833666410093E-3</v>
       </c>
       <c r="K67" s="178">
@@ -10646,11 +10896,11 @@
         <v>11434</v>
       </c>
       <c r="M67" s="178">
-        <f>L67-K67</f>
+        <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="N67" s="196">
-        <f>M67/H67</f>
+        <f t="shared" si="15"/>
         <v>1.0112857875837081E-2</v>
       </c>
       <c r="O67" s="177">
@@ -10665,7 +10915,7 @@
         <v>21.4470464030559</v>
       </c>
       <c r="S67" s="177">
-        <f>R67/Q67</f>
+        <f t="shared" si="16"/>
         <v>2.1673033159239713E-2</v>
       </c>
       <c r="T67" s="178">
@@ -10675,11 +10925,11 @@
         <v>1007</v>
       </c>
       <c r="V67" s="178">
-        <f>U67-T67</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="W67" s="196">
-        <f>V67/Q67</f>
+        <f t="shared" si="18"/>
         <v>2.9305571956444162E-2</v>
       </c>
       <c r="X67" s="177">
@@ -10694,7 +10944,7 @@
         <v>569.75704121807598</v>
       </c>
       <c r="AB67" s="177">
-        <f>AA67/Z67</f>
+        <f t="shared" si="19"/>
         <v>0.10530601323921407</v>
       </c>
       <c r="AC67" s="178">
@@ -10704,11 +10954,11 @@
         <v>5793</v>
       </c>
       <c r="AE67" s="178">
-        <f>AD67-AC67</f>
+        <f t="shared" si="34"/>
         <v>679</v>
       </c>
       <c r="AF67" s="196">
-        <f>AE67/Z67</f>
+        <f t="shared" si="20"/>
         <v>0.12549697119418043</v>
       </c>
       <c r="AG67" s="177">
@@ -10802,7 +11052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D58F08-71C4-B940-847D-1372352C8926}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11930,4 +12182,364 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECA0322-7D01-D44A-A4A8-9FDF17A6ED58}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="216" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="213"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="217" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="200" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="201" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="200" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="201" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="202" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="202" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="202" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="202" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="202" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="202" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="202" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="202" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="200" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="201" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="200" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="201" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="200" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="201" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="208" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="207" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="207" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="209"/>
+      <c r="B18" s="207" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="207" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="209"/>
+      <c r="B19" s="207" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="207" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="209"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="210"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="200" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="200" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="200" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="200" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="200" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="200" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="200" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="204" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="207" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="207" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="200" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="201" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="202" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="205" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="206" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="206" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>